--- a/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1876">
-  <si>
-    <t xml:space="preserve">resource</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1881">
+  <si>
+    <t xml:space="preserve">table</t>
   </si>
   <si>
     <t xml:space="preserve">column_name</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">count</t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter</t>
+    <t xml:space="preserve">encounter</t>
   </si>
   <si>
     <t xml:space="preserve">enc_id</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">serviceProvider/display</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient</t>
+    <t xml:space="preserve">patient</t>
   </si>
   <si>
     <t xml:space="preserve">pat_id</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">address/postalCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition</t>
+    <t xml:space="preserve">condition</t>
   </si>
   <si>
     <t xml:space="preserve">con_id</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">note/text</t>
   </si>
   <si>
-    <t xml:space="preserve">Medication</t>
+    <t xml:space="preserve">medication</t>
   </si>
   <si>
     <t xml:space="preserve">med_id</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">boolean</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicationRequest</t>
+    <t xml:space="preserve">medicationrequest</t>
   </si>
   <si>
     <t xml:space="preserve">medreq_id</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">substitution/reason/text</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicationAdministration</t>
+    <t xml:space="preserve">medicationadministration</t>
   </si>
   <si>
     <t xml:space="preserve">medadm_id</t>
@@ -3194,1015 +3194,1012 @@
     <t xml:space="preserve">dosage/rateQuantity/code</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicationStatement</t>
+    <t xml:space="preserve">medicationstatement</t>
   </si>
   <si>
     <t xml:space="preserve">medstat_id</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_identifier_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_encounter_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_partof_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_basedon_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_statusreason_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_statusreason_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_statusreason_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_statusreason_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_statusreason_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_category_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_category_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_category_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_category_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_category_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_medicationreference_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_medicationcodeableconcept_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_medicationcodeableconcept_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_medicationcodeableconcept_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_medicationcodeableconcept_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_medicationcodeableconcept_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_effectivedatetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_effectiveperiod_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_effectiveperiod_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dateasserted</t>
+    <t xml:space="preserve">identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partof_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basedon_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusreason_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusreason_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusreason_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusreason_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusreason_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicationreference_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicationcodeableconcept_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicationcodeableconcept_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicationcodeableconcept_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicationcodeableconcept_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medicationcodeableconcept_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectivedatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectiveperiod_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectiveperiod_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateasserted</t>
   </si>
   <si>
     <t xml:space="preserve">dateAsserted</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_id</t>
+    <t xml:space="preserve">informationsource_id</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/reference</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_type</t>
+    <t xml:space="preserve">informationsource_type</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/type</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_identifier_use</t>
+    <t xml:space="preserve">informationsource_identifier_use</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/use</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_identifier_type_system</t>
+    <t xml:space="preserve">informationsource_identifier_type_system</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_identifier_type_version</t>
+    <t xml:space="preserve">informationsource_identifier_type_version</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_identifier_type_code</t>
+    <t xml:space="preserve">informationsource_identifier_type_code</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_identifier_type_display</t>
+    <t xml:space="preserve">informationsource_identifier_type_display</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_identifier_type_text</t>
+    <t xml:space="preserve">informationsource_identifier_type_text</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_informationsource_display</t>
+    <t xml:space="preserve">informationsource_display</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_id</t>
+    <t xml:space="preserve">derivedfrom_id</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/reference</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_type</t>
+    <t xml:space="preserve">derivedfrom_type</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/type</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_identifier_use</t>
+    <t xml:space="preserve">derivedfrom_identifier_use</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/use</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_identifier_type_system</t>
+    <t xml:space="preserve">derivedfrom_identifier_type_system</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_identifier_type_version</t>
+    <t xml:space="preserve">derivedfrom_identifier_type_version</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_identifier_type_code</t>
+    <t xml:space="preserve">derivedfrom_identifier_type_code</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_identifier_type_display</t>
+    <t xml:space="preserve">derivedfrom_identifier_type_display</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_identifier_type_text</t>
+    <t xml:space="preserve">derivedfrom_identifier_type_text</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_derivedfrom_display</t>
+    <t xml:space="preserve">derivedfrom_display</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_reasoncode_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasoncode_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasoncode_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasoncode_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasoncode_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_reasonreference_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_authorreference_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_note_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_sequence</t>
+    <t xml:space="preserve">reasoncode_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasoncode_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasoncode_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasoncode_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasoncode_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonreference_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_authorreference_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_sequence</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_additionalinstruction_system</t>
+    <t xml:space="preserve">dosage_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_additionalinstruction_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_additionalinstruction_version</t>
+    <t xml:space="preserve">dosage_additionalinstruction_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_additionalinstruction_code</t>
+    <t xml:space="preserve">dosage_additionalinstruction_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_additionalinstruction_display</t>
+    <t xml:space="preserve">dosage_additionalinstruction_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_additionalinstruction_text</t>
+    <t xml:space="preserve">dosage_additionalinstruction_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_patientinstruction</t>
+    <t xml:space="preserve">dosage_patientinstruction</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/patientInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_event</t>
+    <t xml:space="preserve">dosage_timing_event</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/event</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_value</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsduration_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_comparator</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsduration_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_unit</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsduration_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_system</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsduration_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_code</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsduration_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_value</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_unit</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_system</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_code</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_value</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_unit</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_system</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_code</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsperiod_start</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsperiod_start</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsPeriod/start</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsperiod_end</t>
+    <t xml:space="preserve">dosage_timing_repeat_boundsperiod_end</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsPeriod/end</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_count</t>
+    <t xml:space="preserve">dosage_timing_repeat_count</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/count</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_countmax</t>
+    <t xml:space="preserve">dosage_timing_repeat_countmax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/countMax</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_duration</t>
+    <t xml:space="preserve">dosage_timing_repeat_duration</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/duration</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_durationmax</t>
+    <t xml:space="preserve">dosage_timing_repeat_durationmax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/durationMax</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_durationunit</t>
+    <t xml:space="preserve">dosage_timing_repeat_durationunit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/durationUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_frequency</t>
+    <t xml:space="preserve">dosage_timing_repeat_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_frequencymax</t>
+    <t xml:space="preserve">dosage_timing_repeat_frequencymax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/frequencyMax</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_period</t>
+    <t xml:space="preserve">dosage_timing_repeat_period</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/period</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_periodmax</t>
+    <t xml:space="preserve">dosage_timing_repeat_periodmax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/periodMax</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_periodunit</t>
+    <t xml:space="preserve">dosage_timing_repeat_periodunit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/periodUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_dayofweek</t>
+    <t xml:space="preserve">dosage_timing_repeat_dayofweek</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/dayOfWeek</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_timeofday</t>
+    <t xml:space="preserve">dosage_timing_repeat_timeofday</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/timeOfDay</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_when</t>
+    <t xml:space="preserve">dosage_timing_repeat_when</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/when</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_repeat_offset</t>
+    <t xml:space="preserve">dosage_timing_repeat_offset</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/offset</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_code_system</t>
+    <t xml:space="preserve">dosage_timing_code_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_code_version</t>
+    <t xml:space="preserve">dosage_timing_code_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_code_code</t>
+    <t xml:space="preserve">dosage_timing_code_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_code_display</t>
+    <t xml:space="preserve">dosage_timing_code_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_timing_code_text</t>
+    <t xml:space="preserve">dosage_timing_code_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_asneededboolean</t>
+    <t xml:space="preserve">dosage_asneededboolean</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededBoolean</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_system</t>
+    <t xml:space="preserve">dosage_asneededcodeableconcept_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_version</t>
+    <t xml:space="preserve">dosage_asneededcodeableconcept_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_code</t>
+    <t xml:space="preserve">dosage_asneededcodeableconcept_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_display</t>
+    <t xml:space="preserve">dosage_asneededcodeableconcept_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_text</t>
+    <t xml:space="preserve">dosage_asneededcodeableconcept_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_site_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_site_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_site_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_site_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_site_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_route_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_route_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_route_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_route_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_route_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_method_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_method_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_method_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_method_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_method_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_type_system</t>
+    <t xml:space="preserve">dosage_site_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_site_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_site_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_site_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_site_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_route_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_route_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_route_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_route_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_route_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_method_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_method_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_method_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_method_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_method_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosage_doseandrate_type_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_type_version</t>
+    <t xml:space="preserve">dosage_doseandrate_type_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_type_code</t>
+    <t xml:space="preserve">dosage_doseandrate_type_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_type_display</t>
+    <t xml:space="preserve">dosage_doseandrate_type_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_type_text</t>
+    <t xml:space="preserve">dosage_doseandrate_type_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_value</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_low_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_low_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_system</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_low_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_code</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_low_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_value</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_high_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_high_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_system</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_high_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_code</t>
+    <t xml:space="preserve">dosage_doseandrate_doserange_high_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_value</t>
+    <t xml:space="preserve">dosage_doseandrate_dosequantity_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_comparator</t>
+    <t xml:space="preserve">dosage_doseandrate_dosequantity_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_dosequantity_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_system</t>
+    <t xml:space="preserve">dosage_doseandrate_dosequantity_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_code</t>
+    <t xml:space="preserve">dosage_doseandrate_dosequantity_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_value</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_comparator</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_system</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_code</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_value</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_comparator</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_system</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_code</t>
+    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_value</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_low_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_low_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_system</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_low_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_code</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_low_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_value</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_high_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_high_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_system</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_high_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_code</t>
+    <t xml:space="preserve">dosage_doseandrate_raterange_high_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_value</t>
+    <t xml:space="preserve">dosage_doseandrate_ratequantity_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_unit</t>
+    <t xml:space="preserve">dosage_doseandrate_ratequantity_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_system</t>
+    <t xml:space="preserve">dosage_doseandrate_ratequantity_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_code</t>
+    <t xml:space="preserve">dosage_doseandrate_ratequantity_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_value</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_comparator</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_unit</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_system</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_code</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_value</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_comparator</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_unit</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_system</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_code</t>
+    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_value</t>
+    <t xml:space="preserve">dosage_maxdoseperadministration_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_unit</t>
+    <t xml:space="preserve">dosage_maxdoseperadministration_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_system</t>
+    <t xml:space="preserve">dosage_maxdoseperadministration_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_code</t>
+    <t xml:space="preserve">dosage_maxdoseperadministration_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_value</t>
+    <t xml:space="preserve">dosage_maxdoseperlifetime_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/value</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_unit</t>
+    <t xml:space="preserve">dosage_maxdoseperlifetime_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_system</t>
+    <t xml:space="preserve">dosage_maxdoseperlifetime_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/system</t>
   </si>
   <si>
-    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_code</t>
+    <t xml:space="preserve">dosage_maxdoseperlifetime_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/code</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation</t>
+    <t xml:space="preserve">observation</t>
   </si>
   <si>
     <t xml:space="preserve">obs_id</t>
@@ -4850,7 +4847,7 @@
     <t xml:space="preserve">hasMember/display</t>
   </si>
   <si>
-    <t xml:space="preserve">DiagnosticReport</t>
+    <t xml:space="preserve">diagnosticreport</t>
   </si>
   <si>
     <t xml:space="preserve">diagrep_id</t>
@@ -5006,7 +5003,7 @@
     <t xml:space="preserve">conclusionCode/text</t>
   </si>
   <si>
-    <t xml:space="preserve">ServiceRequest</t>
+    <t xml:space="preserve">servicerequest</t>
   </si>
   <si>
     <t xml:space="preserve">servreq_id</t>
@@ -5198,7 +5195,7 @@
     <t xml:space="preserve">locationCode/text</t>
   </si>
   <si>
-    <t xml:space="preserve">Procedure</t>
+    <t xml:space="preserve">procedure</t>
   </si>
   <si>
     <t xml:space="preserve">proc_id</t>
@@ -5414,7 +5411,7 @@
     <t xml:space="preserve">proc_note_text</t>
   </si>
   <si>
-    <t xml:space="preserve">Consent</t>
+    <t xml:space="preserve">consent</t>
   </si>
   <si>
     <t xml:space="preserve">cons_id</t>
@@ -5585,7 +5582,7 @@
     <t xml:space="preserve">provision/dataPeriod/end</t>
   </si>
   <si>
-    <t xml:space="preserve">Location</t>
+    <t xml:space="preserve">location</t>
   </si>
   <si>
     <t xml:space="preserve">loc_id</t>
@@ -5640,6 +5637,24 @@
   </si>
   <si>
     <t xml:space="preserve">alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pids_per_ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date+time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ward_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_id</t>
   </si>
 </sst>
 </file>
@@ -15546,7 +15561,7 @@
     <row r="620">
       <c r="A620"/>
       <c r="B620" t="s">
-        <v>1084</v>
+        <v>35</v>
       </c>
       <c r="C620" t="s">
         <v>35</v>
@@ -15560,7 +15575,7 @@
     <row r="621">
       <c r="A621"/>
       <c r="B621" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C621" t="s">
         <v>507</v>
@@ -15574,7 +15589,7 @@
     <row r="622">
       <c r="A622"/>
       <c r="B622" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C622" t="s">
         <v>509</v>
@@ -15588,7 +15603,7 @@
     <row r="623">
       <c r="A623"/>
       <c r="B623" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C623" t="s">
         <v>511</v>
@@ -15602,7 +15617,7 @@
     <row r="624">
       <c r="A624"/>
       <c r="B624" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C624" t="s">
         <v>513</v>
@@ -15616,7 +15631,7 @@
     <row r="625">
       <c r="A625"/>
       <c r="B625" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C625" t="s">
         <v>515</v>
@@ -15630,7 +15645,7 @@
     <row r="626">
       <c r="A626"/>
       <c r="B626" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C626" t="s">
         <v>210</v>
@@ -15644,7 +15659,7 @@
     <row r="627">
       <c r="A627"/>
       <c r="B627" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C627" t="s">
         <v>212</v>
@@ -15658,7 +15673,7 @@
     <row r="628">
       <c r="A628"/>
       <c r="B628" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C628" t="s">
         <v>214</v>
@@ -15672,7 +15687,7 @@
     <row r="629">
       <c r="A629"/>
       <c r="B629" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C629" t="s">
         <v>216</v>
@@ -15686,7 +15701,7 @@
     <row r="630">
       <c r="A630"/>
       <c r="B630" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C630" t="s">
         <v>218</v>
@@ -15700,7 +15715,7 @@
     <row r="631">
       <c r="A631"/>
       <c r="B631" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C631" t="s">
         <v>504</v>
@@ -15714,7 +15729,7 @@
     <row r="632">
       <c r="A632"/>
       <c r="B632" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C632" t="s">
         <v>546</v>
@@ -15728,7 +15743,7 @@
     <row r="633">
       <c r="A633"/>
       <c r="B633" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C633" t="s">
         <v>548</v>
@@ -15742,7 +15757,7 @@
     <row r="634">
       <c r="A634"/>
       <c r="B634" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C634" t="s">
         <v>550</v>
@@ -15756,7 +15771,7 @@
     <row r="635">
       <c r="A635"/>
       <c r="B635" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C635" t="s">
         <v>552</v>
@@ -15770,7 +15785,7 @@
     <row r="636">
       <c r="A636"/>
       <c r="B636" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C636" t="s">
         <v>554</v>
@@ -15784,7 +15799,7 @@
     <row r="637">
       <c r="A637"/>
       <c r="B637" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C637" t="s">
         <v>949</v>
@@ -15800,7 +15815,7 @@
     <row r="638">
       <c r="A638"/>
       <c r="B638" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C638" t="s">
         <v>951</v>
@@ -15816,7 +15831,7 @@
     <row r="639">
       <c r="A639"/>
       <c r="B639" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C639" t="s">
         <v>953</v>
@@ -15832,10 +15847,10 @@
     <row r="640">
       <c r="A640"/>
       <c r="B640" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C640" t="s">
         <v>1104</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1105</v>
       </c>
       <c r="D640" t="s">
         <v>31</v>
@@ -15848,10 +15863,10 @@
     <row r="641">
       <c r="A641"/>
       <c r="B641" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C641" t="s">
         <v>1106</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1107</v>
       </c>
       <c r="D641"/>
       <c r="E641" t="n">
@@ -15862,10 +15877,10 @@
     <row r="642">
       <c r="A642"/>
       <c r="B642" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C642" t="s">
         <v>1108</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1109</v>
       </c>
       <c r="D642"/>
       <c r="E642" t="n">
@@ -15876,10 +15891,10 @@
     <row r="643">
       <c r="A643"/>
       <c r="B643" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C643" t="s">
         <v>1110</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1111</v>
       </c>
       <c r="D643"/>
       <c r="E643" t="n">
@@ -15890,10 +15905,10 @@
     <row r="644">
       <c r="A644"/>
       <c r="B644" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C644" t="s">
         <v>1112</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1113</v>
       </c>
       <c r="D644"/>
       <c r="E644" t="n">
@@ -15904,10 +15919,10 @@
     <row r="645">
       <c r="A645"/>
       <c r="B645" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C645" t="s">
         <v>1114</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1115</v>
       </c>
       <c r="D645"/>
       <c r="E645" t="n">
@@ -15918,10 +15933,10 @@
     <row r="646">
       <c r="A646"/>
       <c r="B646" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C646" t="s">
         <v>1116</v>
-      </c>
-      <c r="C646" t="s">
-        <v>1117</v>
       </c>
       <c r="D646"/>
       <c r="E646" t="n">
@@ -15932,10 +15947,10 @@
     <row r="647">
       <c r="A647"/>
       <c r="B647" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C647" t="s">
         <v>1118</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1119</v>
       </c>
       <c r="D647"/>
       <c r="E647" t="n">
@@ -15946,10 +15961,10 @@
     <row r="648">
       <c r="A648"/>
       <c r="B648" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C648" t="s">
         <v>1120</v>
-      </c>
-      <c r="C648" t="s">
-        <v>1121</v>
       </c>
       <c r="D648"/>
       <c r="E648" t="n">
@@ -15960,10 +15975,10 @@
     <row r="649">
       <c r="A649"/>
       <c r="B649" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C649" t="s">
         <v>1122</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1123</v>
       </c>
       <c r="D649"/>
       <c r="E649" t="n">
@@ -15974,10 +15989,10 @@
     <row r="650">
       <c r="A650"/>
       <c r="B650" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C650" t="s">
         <v>1124</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1125</v>
       </c>
       <c r="D650"/>
       <c r="E650" t="n">
@@ -15988,10 +16003,10 @@
     <row r="651">
       <c r="A651"/>
       <c r="B651" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C651" t="s">
         <v>1126</v>
-      </c>
-      <c r="C651" t="s">
-        <v>1127</v>
       </c>
       <c r="D651"/>
       <c r="E651" t="n">
@@ -16002,10 +16017,10 @@
     <row r="652">
       <c r="A652"/>
       <c r="B652" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C652" t="s">
         <v>1128</v>
-      </c>
-      <c r="C652" t="s">
-        <v>1129</v>
       </c>
       <c r="D652"/>
       <c r="E652" t="n">
@@ -16016,10 +16031,10 @@
     <row r="653">
       <c r="A653"/>
       <c r="B653" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C653" t="s">
         <v>1130</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1131</v>
       </c>
       <c r="D653"/>
       <c r="E653" t="n">
@@ -16030,10 +16045,10 @@
     <row r="654">
       <c r="A654"/>
       <c r="B654" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C654" t="s">
         <v>1132</v>
-      </c>
-      <c r="C654" t="s">
-        <v>1133</v>
       </c>
       <c r="D654"/>
       <c r="E654" t="n">
@@ -16044,10 +16059,10 @@
     <row r="655">
       <c r="A655"/>
       <c r="B655" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C655" t="s">
         <v>1134</v>
-      </c>
-      <c r="C655" t="s">
-        <v>1135</v>
       </c>
       <c r="D655"/>
       <c r="E655" t="n">
@@ -16058,10 +16073,10 @@
     <row r="656">
       <c r="A656"/>
       <c r="B656" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C656" t="s">
         <v>1136</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1137</v>
       </c>
       <c r="D656"/>
       <c r="E656" t="n">
@@ -16072,10 +16087,10 @@
     <row r="657">
       <c r="A657"/>
       <c r="B657" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C657" t="s">
         <v>1138</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1139</v>
       </c>
       <c r="D657"/>
       <c r="E657" t="n">
@@ -16086,10 +16101,10 @@
     <row r="658">
       <c r="A658"/>
       <c r="B658" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C658" t="s">
         <v>1140</v>
-      </c>
-      <c r="C658" t="s">
-        <v>1141</v>
       </c>
       <c r="D658"/>
       <c r="E658" t="n">
@@ -16100,7 +16115,7 @@
     <row r="659">
       <c r="A659"/>
       <c r="B659" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C659" t="s">
         <v>594</v>
@@ -16114,7 +16129,7 @@
     <row r="660">
       <c r="A660"/>
       <c r="B660" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C660" t="s">
         <v>596</v>
@@ -16128,7 +16143,7 @@
     <row r="661">
       <c r="A661"/>
       <c r="B661" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C661" t="s">
         <v>598</v>
@@ -16142,7 +16157,7 @@
     <row r="662">
       <c r="A662"/>
       <c r="B662" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C662" t="s">
         <v>600</v>
@@ -16156,7 +16171,7 @@
     <row r="663">
       <c r="A663"/>
       <c r="B663" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C663" t="s">
         <v>602</v>
@@ -16170,7 +16185,7 @@
     <row r="664">
       <c r="A664"/>
       <c r="B664" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C664" t="s">
         <v>604</v>
@@ -16186,7 +16201,7 @@
     <row r="665">
       <c r="A665"/>
       <c r="B665" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C665" t="s">
         <v>606</v>
@@ -16202,7 +16217,7 @@
     <row r="666">
       <c r="A666"/>
       <c r="B666" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C666" t="s">
         <v>608</v>
@@ -16218,7 +16233,7 @@
     <row r="667">
       <c r="A667"/>
       <c r="B667" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C667" t="s">
         <v>610</v>
@@ -16234,7 +16249,7 @@
     <row r="668">
       <c r="A668"/>
       <c r="B668" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C668" t="s">
         <v>612</v>
@@ -16250,7 +16265,7 @@
     <row r="669">
       <c r="A669"/>
       <c r="B669" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C669" t="s">
         <v>614</v>
@@ -16266,7 +16281,7 @@
     <row r="670">
       <c r="A670"/>
       <c r="B670" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C670" t="s">
         <v>616</v>
@@ -16282,7 +16297,7 @@
     <row r="671">
       <c r="A671"/>
       <c r="B671" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C671" t="s">
         <v>618</v>
@@ -16298,7 +16313,7 @@
     <row r="672">
       <c r="A672"/>
       <c r="B672" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C672" t="s">
         <v>620</v>
@@ -16314,7 +16329,7 @@
     <row r="673">
       <c r="A673"/>
       <c r="B673" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C673" t="s">
         <v>367</v>
@@ -16330,7 +16345,7 @@
     <row r="674">
       <c r="A674"/>
       <c r="B674" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C674" t="s">
         <v>369</v>
@@ -16346,7 +16361,7 @@
     <row r="675">
       <c r="A675"/>
       <c r="B675" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C675" t="s">
         <v>371</v>
@@ -16362,7 +16377,7 @@
     <row r="676">
       <c r="A676"/>
       <c r="B676" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C676" t="s">
         <v>373</v>
@@ -16378,7 +16393,7 @@
     <row r="677">
       <c r="A677"/>
       <c r="B677" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C677" t="s">
         <v>375</v>
@@ -16394,7 +16409,7 @@
     <row r="678">
       <c r="A678"/>
       <c r="B678" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C678" t="s">
         <v>377</v>
@@ -16410,7 +16425,7 @@
     <row r="679">
       <c r="A679"/>
       <c r="B679" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C679" t="s">
         <v>379</v>
@@ -16426,7 +16441,7 @@
     <row r="680">
       <c r="A680"/>
       <c r="B680" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C680" t="s">
         <v>381</v>
@@ -16442,7 +16457,7 @@
     <row r="681">
       <c r="A681"/>
       <c r="B681" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C681" t="s">
         <v>383</v>
@@ -16458,7 +16473,7 @@
     <row r="682">
       <c r="A682"/>
       <c r="B682" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C682" t="s">
         <v>385</v>
@@ -16474,7 +16489,7 @@
     <row r="683">
       <c r="A683"/>
       <c r="B683" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C683" t="s">
         <v>387</v>
@@ -16492,7 +16507,7 @@
     <row r="684">
       <c r="A684"/>
       <c r="B684" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C684" t="s">
         <v>389</v>
@@ -16508,10 +16523,10 @@
     <row r="685">
       <c r="A685"/>
       <c r="B685" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C685" t="s">
         <v>1168</v>
-      </c>
-      <c r="C685" t="s">
-        <v>1169</v>
       </c>
       <c r="D685" t="s">
         <v>82</v>
@@ -16526,7 +16541,7 @@
     <row r="686">
       <c r="A686"/>
       <c r="B686" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C686" t="s">
         <v>993</v>
@@ -16542,10 +16557,10 @@
     <row r="687">
       <c r="A687"/>
       <c r="B687" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C687" t="s">
         <v>1171</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1172</v>
       </c>
       <c r="D687"/>
       <c r="E687" t="n">
@@ -16558,10 +16573,10 @@
     <row r="688">
       <c r="A688"/>
       <c r="B688" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C688" t="s">
         <v>1173</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1174</v>
       </c>
       <c r="D688"/>
       <c r="E688" t="n">
@@ -16574,10 +16589,10 @@
     <row r="689">
       <c r="A689"/>
       <c r="B689" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C689" t="s">
         <v>1175</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1176</v>
       </c>
       <c r="D689"/>
       <c r="E689" t="n">
@@ -16590,10 +16605,10 @@
     <row r="690">
       <c r="A690"/>
       <c r="B690" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C690" t="s">
         <v>1177</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1178</v>
       </c>
       <c r="D690"/>
       <c r="E690" t="n">
@@ -16606,10 +16621,10 @@
     <row r="691">
       <c r="A691"/>
       <c r="B691" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C691" t="s">
         <v>1179</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1180</v>
       </c>
       <c r="D691"/>
       <c r="E691" t="n">
@@ -16622,10 +16637,10 @@
     <row r="692">
       <c r="A692"/>
       <c r="B692" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C692" t="s">
         <v>1181</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1182</v>
       </c>
       <c r="D692"/>
       <c r="E692" t="n">
@@ -16638,10 +16653,10 @@
     <row r="693">
       <c r="A693"/>
       <c r="B693" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C693" t="s">
         <v>1183</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1184</v>
       </c>
       <c r="D693" t="s">
         <v>31</v>
@@ -16656,10 +16671,10 @@
     <row r="694">
       <c r="A694"/>
       <c r="B694" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C694" t="s">
         <v>1185</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1186</v>
       </c>
       <c r="D694" t="s">
         <v>259</v>
@@ -16674,10 +16689,10 @@
     <row r="695">
       <c r="A695"/>
       <c r="B695" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C695" t="s">
         <v>1187</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1188</v>
       </c>
       <c r="D695"/>
       <c r="E695" t="n">
@@ -16690,10 +16705,10 @@
     <row r="696">
       <c r="A696"/>
       <c r="B696" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C696" t="s">
         <v>1189</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1190</v>
       </c>
       <c r="D696"/>
       <c r="E696" t="n">
@@ -16706,10 +16721,10 @@
     <row r="697">
       <c r="A697"/>
       <c r="B697" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C697" t="s">
         <v>1191</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1192</v>
       </c>
       <c r="D697"/>
       <c r="E697" t="n">
@@ -16722,10 +16737,10 @@
     <row r="698">
       <c r="A698"/>
       <c r="B698" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C698" t="s">
         <v>1193</v>
-      </c>
-      <c r="C698" t="s">
-        <v>1194</v>
       </c>
       <c r="D698"/>
       <c r="E698" t="n">
@@ -16738,10 +16753,10 @@
     <row r="699">
       <c r="A699"/>
       <c r="B699" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C699" t="s">
         <v>1195</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1196</v>
       </c>
       <c r="D699" t="s">
         <v>259</v>
@@ -16756,10 +16771,10 @@
     <row r="700">
       <c r="A700"/>
       <c r="B700" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C700" t="s">
         <v>1197</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1198</v>
       </c>
       <c r="D700"/>
       <c r="E700" t="n">
@@ -16772,10 +16787,10 @@
     <row r="701">
       <c r="A701"/>
       <c r="B701" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C701" t="s">
         <v>1199</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1200</v>
       </c>
       <c r="D701"/>
       <c r="E701" t="n">
@@ -16788,10 +16803,10 @@
     <row r="702">
       <c r="A702"/>
       <c r="B702" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C702" t="s">
         <v>1201</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1202</v>
       </c>
       <c r="D702"/>
       <c r="E702" t="n">
@@ -16804,10 +16819,10 @@
     <row r="703">
       <c r="A703"/>
       <c r="B703" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C703" t="s">
         <v>1203</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1204</v>
       </c>
       <c r="D703" t="s">
         <v>259</v>
@@ -16822,10 +16837,10 @@
     <row r="704">
       <c r="A704"/>
       <c r="B704" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C704" t="s">
         <v>1205</v>
-      </c>
-      <c r="C704" t="s">
-        <v>1206</v>
       </c>
       <c r="D704"/>
       <c r="E704" t="n">
@@ -16838,10 +16853,10 @@
     <row r="705">
       <c r="A705"/>
       <c r="B705" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C705" t="s">
         <v>1207</v>
-      </c>
-      <c r="C705" t="s">
-        <v>1208</v>
       </c>
       <c r="D705"/>
       <c r="E705" t="n">
@@ -16854,10 +16869,10 @@
     <row r="706">
       <c r="A706"/>
       <c r="B706" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C706" t="s">
         <v>1209</v>
-      </c>
-      <c r="C706" t="s">
-        <v>1210</v>
       </c>
       <c r="D706"/>
       <c r="E706" t="n">
@@ -16870,10 +16885,10 @@
     <row r="707">
       <c r="A707"/>
       <c r="B707" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C707" t="s">
         <v>1211</v>
-      </c>
-      <c r="C707" t="s">
-        <v>1212</v>
       </c>
       <c r="D707" t="s">
         <v>31</v>
@@ -16888,10 +16903,10 @@
     <row r="708">
       <c r="A708"/>
       <c r="B708" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C708" t="s">
         <v>1213</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1214</v>
       </c>
       <c r="D708" t="s">
         <v>31</v>
@@ -16906,10 +16921,10 @@
     <row r="709">
       <c r="A709"/>
       <c r="B709" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C709" t="s">
         <v>1215</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1216</v>
       </c>
       <c r="D709" t="s">
         <v>82</v>
@@ -16924,10 +16939,10 @@
     <row r="710">
       <c r="A710"/>
       <c r="B710" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C710" t="s">
         <v>1217</v>
-      </c>
-      <c r="C710" t="s">
-        <v>1218</v>
       </c>
       <c r="D710" t="s">
         <v>82</v>
@@ -16942,10 +16957,10 @@
     <row r="711">
       <c r="A711"/>
       <c r="B711" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C711" t="s">
         <v>1219</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1220</v>
       </c>
       <c r="D711" t="s">
         <v>259</v>
@@ -16960,10 +16975,10 @@
     <row r="712">
       <c r="A712"/>
       <c r="B712" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C712" t="s">
         <v>1221</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1222</v>
       </c>
       <c r="D712" t="s">
         <v>259</v>
@@ -16978,10 +16993,10 @@
     <row r="713">
       <c r="A713"/>
       <c r="B713" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C713" t="s">
         <v>1223</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1224</v>
       </c>
       <c r="D713"/>
       <c r="E713" t="n">
@@ -16994,10 +17009,10 @@
     <row r="714">
       <c r="A714"/>
       <c r="B714" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C714" t="s">
         <v>1225</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1226</v>
       </c>
       <c r="D714" t="s">
         <v>82</v>
@@ -17012,10 +17027,10 @@
     <row r="715">
       <c r="A715"/>
       <c r="B715" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C715" t="s">
         <v>1227</v>
-      </c>
-      <c r="C715" t="s">
-        <v>1228</v>
       </c>
       <c r="D715" t="s">
         <v>82</v>
@@ -17030,10 +17045,10 @@
     <row r="716">
       <c r="A716"/>
       <c r="B716" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C716" t="s">
         <v>1229</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1230</v>
       </c>
       <c r="D716" t="s">
         <v>259</v>
@@ -17048,10 +17063,10 @@
     <row r="717">
       <c r="A717"/>
       <c r="B717" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C717" t="s">
         <v>1231</v>
-      </c>
-      <c r="C717" t="s">
-        <v>1232</v>
       </c>
       <c r="D717" t="s">
         <v>259</v>
@@ -17066,10 +17081,10 @@
     <row r="718">
       <c r="A718"/>
       <c r="B718" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C718" t="s">
         <v>1233</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1234</v>
       </c>
       <c r="D718"/>
       <c r="E718" t="n">
@@ -17082,10 +17097,10 @@
     <row r="719">
       <c r="A719"/>
       <c r="B719" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C719" t="s">
         <v>1235</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1236</v>
       </c>
       <c r="D719"/>
       <c r="E719" t="n">
@@ -17098,10 +17113,10 @@
     <row r="720">
       <c r="A720"/>
       <c r="B720" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C720" t="s">
         <v>1237</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1238</v>
       </c>
       <c r="D720" t="s">
         <v>723</v>
@@ -17116,10 +17131,10 @@
     <row r="721">
       <c r="A721"/>
       <c r="B721" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C721" t="s">
         <v>1239</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1240</v>
       </c>
       <c r="D721"/>
       <c r="E721" t="n">
@@ -17132,10 +17147,10 @@
     <row r="722">
       <c r="A722"/>
       <c r="B722" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C722" t="s">
         <v>1241</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1242</v>
       </c>
       <c r="D722" t="s">
         <v>82</v>
@@ -17150,10 +17165,10 @@
     <row r="723">
       <c r="A723"/>
       <c r="B723" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C723" t="s">
         <v>1243</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1244</v>
       </c>
       <c r="D723"/>
       <c r="E723" t="n">
@@ -17166,10 +17181,10 @@
     <row r="724">
       <c r="A724"/>
       <c r="B724" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C724" t="s">
         <v>1245</v>
-      </c>
-      <c r="C724" t="s">
-        <v>1246</v>
       </c>
       <c r="D724"/>
       <c r="E724" t="n">
@@ -17182,10 +17197,10 @@
     <row r="725">
       <c r="A725"/>
       <c r="B725" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C725" t="s">
         <v>1247</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1248</v>
       </c>
       <c r="D725"/>
       <c r="E725" t="n">
@@ -17198,10 +17213,10 @@
     <row r="726">
       <c r="A726"/>
       <c r="B726" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C726" t="s">
         <v>1249</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1250</v>
       </c>
       <c r="D726"/>
       <c r="E726" t="n">
@@ -17214,10 +17229,10 @@
     <row r="727">
       <c r="A727"/>
       <c r="B727" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C727" t="s">
         <v>1251</v>
-      </c>
-      <c r="C727" t="s">
-        <v>1252</v>
       </c>
       <c r="D727"/>
       <c r="E727" t="n">
@@ -17230,10 +17245,10 @@
     <row r="728">
       <c r="A728"/>
       <c r="B728" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C728" t="s">
         <v>1253</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1254</v>
       </c>
       <c r="D728" t="s">
         <v>488</v>
@@ -17248,10 +17263,10 @@
     <row r="729">
       <c r="A729"/>
       <c r="B729" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C729" t="s">
         <v>1255</v>
-      </c>
-      <c r="C729" t="s">
-        <v>1256</v>
       </c>
       <c r="D729"/>
       <c r="E729" t="n">
@@ -17264,10 +17279,10 @@
     <row r="730">
       <c r="A730"/>
       <c r="B730" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C730" t="s">
         <v>1257</v>
-      </c>
-      <c r="C730" t="s">
-        <v>1258</v>
       </c>
       <c r="D730"/>
       <c r="E730" t="n">
@@ -17280,10 +17295,10 @@
     <row r="731">
       <c r="A731"/>
       <c r="B731" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C731" t="s">
         <v>1259</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1260</v>
       </c>
       <c r="D731"/>
       <c r="E731" t="n">
@@ -17296,10 +17311,10 @@
     <row r="732">
       <c r="A732"/>
       <c r="B732" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C732" t="s">
         <v>1261</v>
-      </c>
-      <c r="C732" t="s">
-        <v>1262</v>
       </c>
       <c r="D732"/>
       <c r="E732" t="n">
@@ -17312,10 +17327,10 @@
     <row r="733">
       <c r="A733"/>
       <c r="B733" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C733" t="s">
         <v>1263</v>
-      </c>
-      <c r="C733" t="s">
-        <v>1264</v>
       </c>
       <c r="D733"/>
       <c r="E733" t="n">
@@ -17328,7 +17343,7 @@
     <row r="734">
       <c r="A734"/>
       <c r="B734" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C734" t="s">
         <v>995</v>
@@ -17344,7 +17359,7 @@
     <row r="735">
       <c r="A735"/>
       <c r="B735" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C735" t="s">
         <v>997</v>
@@ -17360,7 +17375,7 @@
     <row r="736">
       <c r="A736"/>
       <c r="B736" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C736" t="s">
         <v>999</v>
@@ -17376,7 +17391,7 @@
     <row r="737">
       <c r="A737"/>
       <c r="B737" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C737" t="s">
         <v>1001</v>
@@ -17392,7 +17407,7 @@
     <row r="738">
       <c r="A738"/>
       <c r="B738" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C738" t="s">
         <v>1003</v>
@@ -17408,7 +17423,7 @@
     <row r="739">
       <c r="A739"/>
       <c r="B739" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C739" t="s">
         <v>1005</v>
@@ -17424,7 +17439,7 @@
     <row r="740">
       <c r="A740"/>
       <c r="B740" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C740" t="s">
         <v>1007</v>
@@ -17440,7 +17455,7 @@
     <row r="741">
       <c r="A741"/>
       <c r="B741" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C741" t="s">
         <v>1009</v>
@@ -17456,7 +17471,7 @@
     <row r="742">
       <c r="A742"/>
       <c r="B742" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C742" t="s">
         <v>1011</v>
@@ -17472,7 +17487,7 @@
     <row r="743">
       <c r="A743"/>
       <c r="B743" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C743" t="s">
         <v>1013</v>
@@ -17488,7 +17503,7 @@
     <row r="744">
       <c r="A744"/>
       <c r="B744" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C744" t="s">
         <v>1015</v>
@@ -17504,7 +17519,7 @@
     <row r="745">
       <c r="A745"/>
       <c r="B745" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C745" t="s">
         <v>1017</v>
@@ -17520,7 +17535,7 @@
     <row r="746">
       <c r="A746"/>
       <c r="B746" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C746" t="s">
         <v>1019</v>
@@ -17536,7 +17551,7 @@
     <row r="747">
       <c r="A747"/>
       <c r="B747" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C747" t="s">
         <v>1021</v>
@@ -17552,7 +17567,7 @@
     <row r="748">
       <c r="A748"/>
       <c r="B748" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C748" t="s">
         <v>1023</v>
@@ -17568,10 +17583,10 @@
     <row r="749">
       <c r="A749"/>
       <c r="B749" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C749" t="s">
         <v>1280</v>
-      </c>
-      <c r="C749" t="s">
-        <v>1281</v>
       </c>
       <c r="D749"/>
       <c r="E749" t="n">
@@ -17584,10 +17599,10 @@
     <row r="750">
       <c r="A750"/>
       <c r="B750" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C750" t="s">
         <v>1282</v>
-      </c>
-      <c r="C750" t="s">
-        <v>1283</v>
       </c>
       <c r="D750"/>
       <c r="E750" t="n">
@@ -17600,10 +17615,10 @@
     <row r="751">
       <c r="A751"/>
       <c r="B751" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C751" t="s">
         <v>1284</v>
-      </c>
-      <c r="C751" t="s">
-        <v>1285</v>
       </c>
       <c r="D751"/>
       <c r="E751" t="n">
@@ -17616,10 +17631,10 @@
     <row r="752">
       <c r="A752"/>
       <c r="B752" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C752" t="s">
         <v>1286</v>
-      </c>
-      <c r="C752" t="s">
-        <v>1287</v>
       </c>
       <c r="D752"/>
       <c r="E752" t="n">
@@ -17632,10 +17647,10 @@
     <row r="753">
       <c r="A753"/>
       <c r="B753" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C753" t="s">
         <v>1288</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1289</v>
       </c>
       <c r="D753"/>
       <c r="E753" t="n">
@@ -17648,10 +17663,10 @@
     <row r="754">
       <c r="A754"/>
       <c r="B754" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C754" t="s">
         <v>1290</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1291</v>
       </c>
       <c r="D754" t="s">
         <v>259</v>
@@ -17666,10 +17681,10 @@
     <row r="755">
       <c r="A755"/>
       <c r="B755" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C755" t="s">
         <v>1292</v>
-      </c>
-      <c r="C755" t="s">
-        <v>1293</v>
       </c>
       <c r="D755"/>
       <c r="E755" t="n">
@@ -17682,10 +17697,10 @@
     <row r="756">
       <c r="A756"/>
       <c r="B756" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C756" t="s">
         <v>1294</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1295</v>
       </c>
       <c r="D756"/>
       <c r="E756" t="n">
@@ -17698,10 +17713,10 @@
     <row r="757">
       <c r="A757"/>
       <c r="B757" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C757" t="s">
         <v>1296</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1297</v>
       </c>
       <c r="D757"/>
       <c r="E757" t="n">
@@ -17714,10 +17729,10 @@
     <row r="758">
       <c r="A758"/>
       <c r="B758" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C758" t="s">
         <v>1298</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1299</v>
       </c>
       <c r="D758" t="s">
         <v>259</v>
@@ -17732,10 +17747,10 @@
     <row r="759">
       <c r="A759"/>
       <c r="B759" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C759" t="s">
         <v>1300</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1301</v>
       </c>
       <c r="D759"/>
       <c r="E759" t="n">
@@ -17748,10 +17763,10 @@
     <row r="760">
       <c r="A760"/>
       <c r="B760" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C760" t="s">
         <v>1302</v>
-      </c>
-      <c r="C760" t="s">
-        <v>1303</v>
       </c>
       <c r="D760"/>
       <c r="E760" t="n">
@@ -17764,10 +17779,10 @@
     <row r="761">
       <c r="A761"/>
       <c r="B761" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C761" t="s">
         <v>1304</v>
-      </c>
-      <c r="C761" t="s">
-        <v>1305</v>
       </c>
       <c r="D761"/>
       <c r="E761" t="n">
@@ -17780,10 +17795,10 @@
     <row r="762">
       <c r="A762"/>
       <c r="B762" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C762" t="s">
         <v>1306</v>
-      </c>
-      <c r="C762" t="s">
-        <v>1307</v>
       </c>
       <c r="D762" t="s">
         <v>259</v>
@@ -17798,10 +17813,10 @@
     <row r="763">
       <c r="A763"/>
       <c r="B763" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C763" t="s">
         <v>1308</v>
-      </c>
-      <c r="C763" t="s">
-        <v>1309</v>
       </c>
       <c r="D763"/>
       <c r="E763" t="n">
@@ -17814,10 +17829,10 @@
     <row r="764">
       <c r="A764"/>
       <c r="B764" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C764" t="s">
         <v>1310</v>
-      </c>
-      <c r="C764" t="s">
-        <v>1311</v>
       </c>
       <c r="D764"/>
       <c r="E764" t="n">
@@ -17830,10 +17845,10 @@
     <row r="765">
       <c r="A765"/>
       <c r="B765" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C765" t="s">
         <v>1312</v>
-      </c>
-      <c r="C765" t="s">
-        <v>1313</v>
       </c>
       <c r="D765"/>
       <c r="E765" t="n">
@@ -17846,10 +17861,10 @@
     <row r="766">
       <c r="A766"/>
       <c r="B766" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C766" t="s">
         <v>1314</v>
-      </c>
-      <c r="C766" t="s">
-        <v>1315</v>
       </c>
       <c r="D766"/>
       <c r="E766" t="n">
@@ -17862,10 +17877,10 @@
     <row r="767">
       <c r="A767"/>
       <c r="B767" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C767" t="s">
         <v>1316</v>
-      </c>
-      <c r="C767" t="s">
-        <v>1317</v>
       </c>
       <c r="D767" t="s">
         <v>259</v>
@@ -17880,10 +17895,10 @@
     <row r="768">
       <c r="A768"/>
       <c r="B768" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C768" t="s">
         <v>1318</v>
-      </c>
-      <c r="C768" t="s">
-        <v>1319</v>
       </c>
       <c r="D768"/>
       <c r="E768" t="n">
@@ -17896,10 +17911,10 @@
     <row r="769">
       <c r="A769"/>
       <c r="B769" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C769" t="s">
         <v>1320</v>
-      </c>
-      <c r="C769" t="s">
-        <v>1321</v>
       </c>
       <c r="D769"/>
       <c r="E769" t="n">
@@ -17912,10 +17927,10 @@
     <row r="770">
       <c r="A770"/>
       <c r="B770" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C770" t="s">
         <v>1322</v>
-      </c>
-      <c r="C770" t="s">
-        <v>1323</v>
       </c>
       <c r="D770"/>
       <c r="E770" t="n">
@@ -17928,10 +17943,10 @@
     <row r="771">
       <c r="A771"/>
       <c r="B771" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C771" t="s">
         <v>1324</v>
-      </c>
-      <c r="C771" t="s">
-        <v>1325</v>
       </c>
       <c r="D771"/>
       <c r="E771" t="n">
@@ -17944,10 +17959,10 @@
     <row r="772">
       <c r="A772"/>
       <c r="B772" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C772" t="s">
         <v>1326</v>
-      </c>
-      <c r="C772" t="s">
-        <v>1327</v>
       </c>
       <c r="D772" t="s">
         <v>259</v>
@@ -17962,10 +17977,10 @@
     <row r="773">
       <c r="A773"/>
       <c r="B773" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C773" t="s">
         <v>1328</v>
-      </c>
-      <c r="C773" t="s">
-        <v>1329</v>
       </c>
       <c r="D773"/>
       <c r="E773" t="n">
@@ -17978,10 +17993,10 @@
     <row r="774">
       <c r="A774"/>
       <c r="B774" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C774" t="s">
         <v>1330</v>
-      </c>
-      <c r="C774" t="s">
-        <v>1331</v>
       </c>
       <c r="D774"/>
       <c r="E774" t="n">
@@ -17994,10 +18009,10 @@
     <row r="775">
       <c r="A775"/>
       <c r="B775" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C775" t="s">
         <v>1332</v>
-      </c>
-      <c r="C775" t="s">
-        <v>1333</v>
       </c>
       <c r="D775"/>
       <c r="E775" t="n">
@@ -18010,10 +18025,10 @@
     <row r="776">
       <c r="A776"/>
       <c r="B776" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C776" t="s">
         <v>1334</v>
-      </c>
-      <c r="C776" t="s">
-        <v>1335</v>
       </c>
       <c r="D776"/>
       <c r="E776" t="n">
@@ -18026,10 +18041,10 @@
     <row r="777">
       <c r="A777"/>
       <c r="B777" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C777" t="s">
         <v>1336</v>
-      </c>
-      <c r="C777" t="s">
-        <v>1337</v>
       </c>
       <c r="D777" t="s">
         <v>259</v>
@@ -18044,10 +18059,10 @@
     <row r="778">
       <c r="A778"/>
       <c r="B778" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C778" t="s">
         <v>1338</v>
-      </c>
-      <c r="C778" t="s">
-        <v>1339</v>
       </c>
       <c r="D778"/>
       <c r="E778" t="n">
@@ -18060,10 +18075,10 @@
     <row r="779">
       <c r="A779"/>
       <c r="B779" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C779" t="s">
         <v>1340</v>
-      </c>
-      <c r="C779" t="s">
-        <v>1341</v>
       </c>
       <c r="D779"/>
       <c r="E779" t="n">
@@ -18076,10 +18091,10 @@
     <row r="780">
       <c r="A780"/>
       <c r="B780" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C780" t="s">
         <v>1342</v>
-      </c>
-      <c r="C780" t="s">
-        <v>1343</v>
       </c>
       <c r="D780"/>
       <c r="E780" t="n">
@@ -18092,10 +18107,10 @@
     <row r="781">
       <c r="A781"/>
       <c r="B781" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C781" t="s">
         <v>1344</v>
-      </c>
-      <c r="C781" t="s">
-        <v>1345</v>
       </c>
       <c r="D781" t="s">
         <v>259</v>
@@ -18110,10 +18125,10 @@
     <row r="782">
       <c r="A782"/>
       <c r="B782" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C782" t="s">
         <v>1346</v>
-      </c>
-      <c r="C782" t="s">
-        <v>1347</v>
       </c>
       <c r="D782"/>
       <c r="E782" t="n">
@@ -18126,10 +18141,10 @@
     <row r="783">
       <c r="A783"/>
       <c r="B783" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C783" t="s">
         <v>1348</v>
-      </c>
-      <c r="C783" t="s">
-        <v>1349</v>
       </c>
       <c r="D783"/>
       <c r="E783" t="n">
@@ -18142,10 +18157,10 @@
     <row r="784">
       <c r="A784"/>
       <c r="B784" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C784" t="s">
         <v>1350</v>
-      </c>
-      <c r="C784" t="s">
-        <v>1351</v>
       </c>
       <c r="D784"/>
       <c r="E784" t="n">
@@ -18158,10 +18173,10 @@
     <row r="785">
       <c r="A785"/>
       <c r="B785" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C785" t="s">
         <v>1352</v>
-      </c>
-      <c r="C785" t="s">
-        <v>1353</v>
       </c>
       <c r="D785" t="s">
         <v>259</v>
@@ -18176,10 +18191,10 @@
     <row r="786">
       <c r="A786"/>
       <c r="B786" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C786" t="s">
         <v>1354</v>
-      </c>
-      <c r="C786" t="s">
-        <v>1355</v>
       </c>
       <c r="D786"/>
       <c r="E786" t="n">
@@ -18192,10 +18207,10 @@
     <row r="787">
       <c r="A787"/>
       <c r="B787" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C787" t="s">
         <v>1356</v>
-      </c>
-      <c r="C787" t="s">
-        <v>1357</v>
       </c>
       <c r="D787"/>
       <c r="E787" t="n">
@@ -18208,10 +18223,10 @@
     <row r="788">
       <c r="A788"/>
       <c r="B788" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C788" t="s">
         <v>1358</v>
-      </c>
-      <c r="C788" t="s">
-        <v>1359</v>
       </c>
       <c r="D788"/>
       <c r="E788" t="n">
@@ -18224,10 +18239,10 @@
     <row r="789">
       <c r="A789"/>
       <c r="B789" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C789" t="s">
         <v>1360</v>
-      </c>
-      <c r="C789" t="s">
-        <v>1361</v>
       </c>
       <c r="D789" t="s">
         <v>259</v>
@@ -18242,10 +18257,10 @@
     <row r="790">
       <c r="A790"/>
       <c r="B790" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C790" t="s">
         <v>1362</v>
-      </c>
-      <c r="C790" t="s">
-        <v>1363</v>
       </c>
       <c r="D790"/>
       <c r="E790" t="n">
@@ -18258,10 +18273,10 @@
     <row r="791">
       <c r="A791"/>
       <c r="B791" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C791" t="s">
         <v>1364</v>
-      </c>
-      <c r="C791" t="s">
-        <v>1365</v>
       </c>
       <c r="D791"/>
       <c r="E791" t="n">
@@ -18274,10 +18289,10 @@
     <row r="792">
       <c r="A792"/>
       <c r="B792" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C792" t="s">
         <v>1366</v>
-      </c>
-      <c r="C792" t="s">
-        <v>1367</v>
       </c>
       <c r="D792"/>
       <c r="E792" t="n">
@@ -18290,10 +18305,10 @@
     <row r="793">
       <c r="A793"/>
       <c r="B793" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C793" t="s">
         <v>1368</v>
-      </c>
-      <c r="C793" t="s">
-        <v>1369</v>
       </c>
       <c r="D793"/>
       <c r="E793" t="n">
@@ -18306,10 +18321,10 @@
     <row r="794">
       <c r="A794"/>
       <c r="B794" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C794" t="s">
         <v>1370</v>
-      </c>
-      <c r="C794" t="s">
-        <v>1371</v>
       </c>
       <c r="D794" t="s">
         <v>259</v>
@@ -18324,10 +18339,10 @@
     <row r="795">
       <c r="A795"/>
       <c r="B795" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C795" t="s">
         <v>1372</v>
-      </c>
-      <c r="C795" t="s">
-        <v>1373</v>
       </c>
       <c r="D795"/>
       <c r="E795" t="n">
@@ -18340,10 +18355,10 @@
     <row r="796">
       <c r="A796"/>
       <c r="B796" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C796" t="s">
         <v>1374</v>
-      </c>
-      <c r="C796" t="s">
-        <v>1375</v>
       </c>
       <c r="D796"/>
       <c r="E796" t="n">
@@ -18356,10 +18371,10 @@
     <row r="797">
       <c r="A797"/>
       <c r="B797" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C797" t="s">
         <v>1376</v>
-      </c>
-      <c r="C797" t="s">
-        <v>1377</v>
       </c>
       <c r="D797"/>
       <c r="E797" t="n">
@@ -18372,10 +18387,10 @@
     <row r="798">
       <c r="A798"/>
       <c r="B798" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C798" t="s">
         <v>1378</v>
-      </c>
-      <c r="C798" t="s">
-        <v>1379</v>
       </c>
       <c r="D798"/>
       <c r="E798" t="n">
@@ -18388,10 +18403,10 @@
     <row r="799">
       <c r="A799"/>
       <c r="B799" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C799" t="s">
         <v>1380</v>
-      </c>
-      <c r="C799" t="s">
-        <v>1381</v>
       </c>
       <c r="D799" t="s">
         <v>259</v>
@@ -18406,10 +18421,10 @@
     <row r="800">
       <c r="A800"/>
       <c r="B800" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C800" t="s">
         <v>1382</v>
-      </c>
-      <c r="C800" t="s">
-        <v>1383</v>
       </c>
       <c r="D800"/>
       <c r="E800" t="n">
@@ -18422,10 +18437,10 @@
     <row r="801">
       <c r="A801"/>
       <c r="B801" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C801" t="s">
         <v>1384</v>
-      </c>
-      <c r="C801" t="s">
-        <v>1385</v>
       </c>
       <c r="D801"/>
       <c r="E801" t="n">
@@ -18438,10 +18453,10 @@
     <row r="802">
       <c r="A802"/>
       <c r="B802" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C802" t="s">
         <v>1386</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1387</v>
       </c>
       <c r="D802"/>
       <c r="E802" t="n">
@@ -18454,10 +18469,10 @@
     <row r="803">
       <c r="A803"/>
       <c r="B803" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C803" t="s">
         <v>1388</v>
-      </c>
-      <c r="C803" t="s">
-        <v>1389</v>
       </c>
       <c r="D803" t="s">
         <v>259</v>
@@ -18472,10 +18487,10 @@
     <row r="804">
       <c r="A804"/>
       <c r="B804" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C804" t="s">
         <v>1390</v>
-      </c>
-      <c r="C804" t="s">
-        <v>1391</v>
       </c>
       <c r="D804"/>
       <c r="E804" t="n">
@@ -18488,10 +18503,10 @@
     <row r="805">
       <c r="A805"/>
       <c r="B805" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C805" t="s">
         <v>1392</v>
-      </c>
-      <c r="C805" t="s">
-        <v>1393</v>
       </c>
       <c r="D805"/>
       <c r="E805" t="n">
@@ -18504,10 +18519,10 @@
     <row r="806">
       <c r="A806"/>
       <c r="B806" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C806" t="s">
         <v>1394</v>
-      </c>
-      <c r="C806" t="s">
-        <v>1395</v>
       </c>
       <c r="D806"/>
       <c r="E806" t="n">
@@ -18527,10 +18542,10 @@
     </row>
     <row r="808">
       <c r="A808" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B808" t="s">
         <v>1396</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1397</v>
       </c>
       <c r="C808" t="s">
         <v>8</v>
@@ -18544,7 +18559,7 @@
     <row r="809">
       <c r="A809"/>
       <c r="B809" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C809" t="s">
         <v>177</v>
@@ -18558,7 +18573,7 @@
     <row r="810">
       <c r="A810"/>
       <c r="B810" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C810" t="s">
         <v>10</v>
@@ -18572,7 +18587,7 @@
     <row r="811">
       <c r="A811"/>
       <c r="B811" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C811" t="s">
         <v>12</v>
@@ -18586,7 +18601,7 @@
     <row r="812">
       <c r="A812"/>
       <c r="B812" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C812" t="s">
         <v>14</v>
@@ -18602,7 +18617,7 @@
     <row r="813">
       <c r="A813"/>
       <c r="B813" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C813" t="s">
         <v>16</v>
@@ -18618,7 +18633,7 @@
     <row r="814">
       <c r="A814"/>
       <c r="B814" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C814" t="s">
         <v>18</v>
@@ -18634,7 +18649,7 @@
     <row r="815">
       <c r="A815"/>
       <c r="B815" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C815" t="s">
         <v>20</v>
@@ -18650,7 +18665,7 @@
     <row r="816">
       <c r="A816"/>
       <c r="B816" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C816" t="s">
         <v>22</v>
@@ -18666,7 +18681,7 @@
     <row r="817">
       <c r="A817"/>
       <c r="B817" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C817" t="s">
         <v>24</v>
@@ -18682,7 +18697,7 @@
     <row r="818">
       <c r="A818"/>
       <c r="B818" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C818" t="s">
         <v>26</v>
@@ -18698,7 +18713,7 @@
     <row r="819">
       <c r="A819"/>
       <c r="B819" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C819" t="s">
         <v>28</v>
@@ -18714,7 +18729,7 @@
     <row r="820">
       <c r="A820"/>
       <c r="B820" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C820" t="s">
         <v>30</v>
@@ -18732,7 +18747,7 @@
     <row r="821">
       <c r="A821"/>
       <c r="B821" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C821" t="s">
         <v>33</v>
@@ -18750,7 +18765,7 @@
     <row r="822">
       <c r="A822"/>
       <c r="B822" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C822" t="s">
         <v>622</v>
@@ -18764,7 +18779,7 @@
     <row r="823">
       <c r="A823"/>
       <c r="B823" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C823" t="s">
         <v>624</v>
@@ -18778,7 +18793,7 @@
     <row r="824">
       <c r="A824"/>
       <c r="B824" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C824" t="s">
         <v>626</v>
@@ -18792,7 +18807,7 @@
     <row r="825">
       <c r="A825"/>
       <c r="B825" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C825" t="s">
         <v>628</v>
@@ -18806,7 +18821,7 @@
     <row r="826">
       <c r="A826"/>
       <c r="B826" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C826" t="s">
         <v>630</v>
@@ -18820,7 +18835,7 @@
     <row r="827">
       <c r="A827"/>
       <c r="B827" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C827" t="s">
         <v>632</v>
@@ -18834,7 +18849,7 @@
     <row r="828">
       <c r="A828"/>
       <c r="B828" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C828" t="s">
         <v>634</v>
@@ -18848,7 +18863,7 @@
     <row r="829">
       <c r="A829"/>
       <c r="B829" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C829" t="s">
         <v>636</v>
@@ -18862,7 +18877,7 @@
     <row r="830">
       <c r="A830"/>
       <c r="B830" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C830" t="s">
         <v>638</v>
@@ -18876,7 +18891,7 @@
     <row r="831">
       <c r="A831"/>
       <c r="B831" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C831" t="s">
         <v>35</v>
@@ -18890,7 +18905,7 @@
     <row r="832">
       <c r="A832"/>
       <c r="B832" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C832" t="s">
         <v>210</v>
@@ -18904,7 +18919,7 @@
     <row r="833">
       <c r="A833"/>
       <c r="B833" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C833" t="s">
         <v>212</v>
@@ -18918,7 +18933,7 @@
     <row r="834">
       <c r="A834"/>
       <c r="B834" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C834" t="s">
         <v>214</v>
@@ -18932,7 +18947,7 @@
     <row r="835">
       <c r="A835"/>
       <c r="B835" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C835" t="s">
         <v>216</v>
@@ -18946,7 +18961,7 @@
     <row r="836">
       <c r="A836"/>
       <c r="B836" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C836" t="s">
         <v>218</v>
@@ -18960,7 +18975,7 @@
     <row r="837">
       <c r="A837"/>
       <c r="B837" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C837" t="s">
         <v>230</v>
@@ -18974,7 +18989,7 @@
     <row r="838">
       <c r="A838"/>
       <c r="B838" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C838" t="s">
         <v>232</v>
@@ -18988,7 +19003,7 @@
     <row r="839">
       <c r="A839"/>
       <c r="B839" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C839" t="s">
         <v>234</v>
@@ -19002,7 +19017,7 @@
     <row r="840">
       <c r="A840"/>
       <c r="B840" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C840" t="s">
         <v>236</v>
@@ -19016,7 +19031,7 @@
     <row r="841">
       <c r="A841"/>
       <c r="B841" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C841" t="s">
         <v>238</v>
@@ -19030,7 +19045,7 @@
     <row r="842">
       <c r="A842"/>
       <c r="B842" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C842" t="s">
         <v>949</v>
@@ -19046,10 +19061,10 @@
     <row r="843">
       <c r="A843"/>
       <c r="B843" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C843" t="s">
         <v>1432</v>
-      </c>
-      <c r="C843" t="s">
-        <v>1433</v>
       </c>
       <c r="D843" t="s">
         <v>31</v>
@@ -19062,10 +19077,10 @@
     <row r="844">
       <c r="A844"/>
       <c r="B844" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C844" t="s">
         <v>1434</v>
-      </c>
-      <c r="C844" t="s">
-        <v>1435</v>
       </c>
       <c r="D844" t="s">
         <v>259</v>
@@ -19080,10 +19095,10 @@
     <row r="845">
       <c r="A845"/>
       <c r="B845" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C845" t="s">
         <v>1436</v>
-      </c>
-      <c r="C845" t="s">
-        <v>1437</v>
       </c>
       <c r="D845"/>
       <c r="E845" t="n">
@@ -19096,10 +19111,10 @@
     <row r="846">
       <c r="A846"/>
       <c r="B846" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C846" t="s">
         <v>1438</v>
-      </c>
-      <c r="C846" t="s">
-        <v>1439</v>
       </c>
       <c r="D846"/>
       <c r="E846" t="n">
@@ -19112,10 +19127,10 @@
     <row r="847">
       <c r="A847"/>
       <c r="B847" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C847" t="s">
         <v>1440</v>
-      </c>
-      <c r="C847" t="s">
-        <v>1441</v>
       </c>
       <c r="D847"/>
       <c r="E847" t="n">
@@ -19128,10 +19143,10 @@
     <row r="848">
       <c r="A848"/>
       <c r="B848" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C848" t="s">
         <v>1442</v>
-      </c>
-      <c r="C848" t="s">
-        <v>1443</v>
       </c>
       <c r="D848" t="s">
         <v>259</v>
@@ -19146,10 +19161,10 @@
     <row r="849">
       <c r="A849"/>
       <c r="B849" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C849" t="s">
         <v>1444</v>
-      </c>
-      <c r="C849" t="s">
-        <v>1445</v>
       </c>
       <c r="D849"/>
       <c r="E849" t="n">
@@ -19162,10 +19177,10 @@
     <row r="850">
       <c r="A850"/>
       <c r="B850" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C850" t="s">
         <v>1446</v>
-      </c>
-      <c r="C850" t="s">
-        <v>1447</v>
       </c>
       <c r="D850"/>
       <c r="E850" t="n">
@@ -19178,10 +19193,10 @@
     <row r="851">
       <c r="A851"/>
       <c r="B851" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C851" t="s">
         <v>1448</v>
-      </c>
-      <c r="C851" t="s">
-        <v>1449</v>
       </c>
       <c r="D851"/>
       <c r="E851" t="n">
@@ -19194,10 +19209,10 @@
     <row r="852">
       <c r="A852"/>
       <c r="B852" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C852" t="s">
         <v>1450</v>
-      </c>
-      <c r="C852" t="s">
-        <v>1451</v>
       </c>
       <c r="D852" t="s">
         <v>259</v>
@@ -19212,10 +19227,10 @@
     <row r="853">
       <c r="A853"/>
       <c r="B853" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C853" t="s">
         <v>1452</v>
-      </c>
-      <c r="C853" t="s">
-        <v>1453</v>
       </c>
       <c r="D853"/>
       <c r="E853" t="n">
@@ -19228,10 +19243,10 @@
     <row r="854">
       <c r="A854"/>
       <c r="B854" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C854" t="s">
         <v>1454</v>
-      </c>
-      <c r="C854" t="s">
-        <v>1455</v>
       </c>
       <c r="D854"/>
       <c r="E854" t="n">
@@ -19244,10 +19259,10 @@
     <row r="855">
       <c r="A855"/>
       <c r="B855" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C855" t="s">
         <v>1456</v>
-      </c>
-      <c r="C855" t="s">
-        <v>1457</v>
       </c>
       <c r="D855"/>
       <c r="E855" t="n">
@@ -19260,10 +19275,10 @@
     <row r="856">
       <c r="A856"/>
       <c r="B856" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C856" t="s">
         <v>1458</v>
-      </c>
-      <c r="C856" t="s">
-        <v>1459</v>
       </c>
       <c r="D856"/>
       <c r="E856" t="n">
@@ -19276,10 +19291,10 @@
     <row r="857">
       <c r="A857"/>
       <c r="B857" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C857" t="s">
         <v>1460</v>
-      </c>
-      <c r="C857" t="s">
-        <v>1461</v>
       </c>
       <c r="D857" t="s">
         <v>259</v>
@@ -19294,10 +19309,10 @@
     <row r="858">
       <c r="A858"/>
       <c r="B858" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C858" t="s">
         <v>1462</v>
-      </c>
-      <c r="C858" t="s">
-        <v>1463</v>
       </c>
       <c r="D858"/>
       <c r="E858" t="n">
@@ -19310,10 +19325,10 @@
     <row r="859">
       <c r="A859"/>
       <c r="B859" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C859" t="s">
         <v>1464</v>
-      </c>
-      <c r="C859" t="s">
-        <v>1465</v>
       </c>
       <c r="D859"/>
       <c r="E859" t="n">
@@ -19326,10 +19341,10 @@
     <row r="860">
       <c r="A860"/>
       <c r="B860" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C860" t="s">
         <v>1466</v>
-      </c>
-      <c r="C860" t="s">
-        <v>1467</v>
       </c>
       <c r="D860"/>
       <c r="E860" t="n">
@@ -19342,10 +19357,10 @@
     <row r="861">
       <c r="A861"/>
       <c r="B861" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C861" t="s">
         <v>1468</v>
-      </c>
-      <c r="C861" t="s">
-        <v>1469</v>
       </c>
       <c r="D861"/>
       <c r="E861" t="n">
@@ -19358,10 +19373,10 @@
     <row r="862">
       <c r="A862"/>
       <c r="B862" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C862" t="s">
         <v>1470</v>
-      </c>
-      <c r="C862" t="s">
-        <v>1471</v>
       </c>
       <c r="D862" t="s">
         <v>259</v>
@@ -19376,10 +19391,10 @@
     <row r="863">
       <c r="A863"/>
       <c r="B863" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C863" t="s">
         <v>1472</v>
-      </c>
-      <c r="C863" t="s">
-        <v>1473</v>
       </c>
       <c r="D863"/>
       <c r="E863" t="n">
@@ -19392,10 +19407,10 @@
     <row r="864">
       <c r="A864"/>
       <c r="B864" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C864" t="s">
         <v>1474</v>
-      </c>
-      <c r="C864" t="s">
-        <v>1475</v>
       </c>
       <c r="D864"/>
       <c r="E864" t="n">
@@ -19408,10 +19423,10 @@
     <row r="865">
       <c r="A865"/>
       <c r="B865" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C865" t="s">
         <v>1476</v>
-      </c>
-      <c r="C865" t="s">
-        <v>1477</v>
       </c>
       <c r="D865"/>
       <c r="E865" t="n">
@@ -19424,10 +19439,10 @@
     <row r="866">
       <c r="A866"/>
       <c r="B866" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C866" t="s">
         <v>1478</v>
-      </c>
-      <c r="C866" t="s">
-        <v>1479</v>
       </c>
       <c r="D866"/>
       <c r="E866" t="n">
@@ -19440,10 +19455,10 @@
     <row r="867">
       <c r="A867"/>
       <c r="B867" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C867" t="s">
         <v>1480</v>
-      </c>
-      <c r="C867" t="s">
-        <v>1481</v>
       </c>
       <c r="D867"/>
       <c r="E867" t="n">
@@ -19456,10 +19471,10 @@
     <row r="868">
       <c r="A868"/>
       <c r="B868" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C868" t="s">
         <v>1482</v>
-      </c>
-      <c r="C868" t="s">
-        <v>1483</v>
       </c>
       <c r="D868"/>
       <c r="E868" t="n">
@@ -19472,10 +19487,10 @@
     <row r="869">
       <c r="A869"/>
       <c r="B869" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C869" t="s">
         <v>1484</v>
-      </c>
-      <c r="C869" t="s">
-        <v>1485</v>
       </c>
       <c r="D869"/>
       <c r="E869" t="n">
@@ -19488,10 +19503,10 @@
     <row r="870">
       <c r="A870"/>
       <c r="B870" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C870" t="s">
         <v>1486</v>
-      </c>
-      <c r="C870" t="s">
-        <v>1487</v>
       </c>
       <c r="D870"/>
       <c r="E870" t="n">
@@ -19504,10 +19519,10 @@
     <row r="871">
       <c r="A871"/>
       <c r="B871" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C871" t="s">
         <v>1488</v>
-      </c>
-      <c r="C871" t="s">
-        <v>1489</v>
       </c>
       <c r="D871"/>
       <c r="E871" t="n">
@@ -19520,10 +19535,10 @@
     <row r="872">
       <c r="A872"/>
       <c r="B872" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C872" t="s">
         <v>1490</v>
-      </c>
-      <c r="C872" t="s">
-        <v>1491</v>
       </c>
       <c r="D872"/>
       <c r="E872" t="n">
@@ -19534,10 +19549,10 @@
     <row r="873">
       <c r="A873"/>
       <c r="B873" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C873" t="s">
         <v>1492</v>
-      </c>
-      <c r="C873" t="s">
-        <v>1493</v>
       </c>
       <c r="D873"/>
       <c r="E873" t="n">
@@ -19548,10 +19563,10 @@
     <row r="874">
       <c r="A874"/>
       <c r="B874" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C874" t="s">
         <v>1494</v>
-      </c>
-      <c r="C874" t="s">
-        <v>1495</v>
       </c>
       <c r="D874"/>
       <c r="E874" t="n">
@@ -19562,10 +19577,10 @@
     <row r="875">
       <c r="A875"/>
       <c r="B875" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C875" t="s">
         <v>1496</v>
-      </c>
-      <c r="C875" t="s">
-        <v>1497</v>
       </c>
       <c r="D875"/>
       <c r="E875" t="n">
@@ -19576,10 +19591,10 @@
     <row r="876">
       <c r="A876"/>
       <c r="B876" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C876" t="s">
         <v>1498</v>
-      </c>
-      <c r="C876" t="s">
-        <v>1499</v>
       </c>
       <c r="D876"/>
       <c r="E876" t="n">
@@ -19590,7 +19605,7 @@
     <row r="877">
       <c r="A877"/>
       <c r="B877" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C877" t="s">
         <v>367</v>
@@ -19604,7 +19619,7 @@
     <row r="878">
       <c r="A878"/>
       <c r="B878" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C878" t="s">
         <v>369</v>
@@ -19618,7 +19633,7 @@
     <row r="879">
       <c r="A879"/>
       <c r="B879" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C879" t="s">
         <v>371</v>
@@ -19632,7 +19647,7 @@
     <row r="880">
       <c r="A880"/>
       <c r="B880" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C880" t="s">
         <v>373</v>
@@ -19646,7 +19661,7 @@
     <row r="881">
       <c r="A881"/>
       <c r="B881" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C881" t="s">
         <v>375</v>
@@ -19660,7 +19675,7 @@
     <row r="882">
       <c r="A882"/>
       <c r="B882" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C882" t="s">
         <v>377</v>
@@ -19674,7 +19689,7 @@
     <row r="883">
       <c r="A883"/>
       <c r="B883" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C883" t="s">
         <v>379</v>
@@ -19688,7 +19703,7 @@
     <row r="884">
       <c r="A884"/>
       <c r="B884" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C884" t="s">
         <v>381</v>
@@ -19702,7 +19717,7 @@
     <row r="885">
       <c r="A885"/>
       <c r="B885" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C885" t="s">
         <v>383</v>
@@ -19716,7 +19731,7 @@
     <row r="886">
       <c r="A886"/>
       <c r="B886" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C886" t="s">
         <v>385</v>
@@ -19730,7 +19745,7 @@
     <row r="887">
       <c r="A887"/>
       <c r="B887" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C887" t="s">
         <v>387</v>
@@ -19746,7 +19761,7 @@
     <row r="888">
       <c r="A888"/>
       <c r="B888" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C888" t="s">
         <v>389</v>
@@ -19760,10 +19775,10 @@
     <row r="889">
       <c r="A889"/>
       <c r="B889" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C889" t="s">
         <v>1512</v>
-      </c>
-      <c r="C889" t="s">
-        <v>1513</v>
       </c>
       <c r="D889"/>
       <c r="E889" t="n">
@@ -19774,10 +19789,10 @@
     <row r="890">
       <c r="A890"/>
       <c r="B890" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C890" t="s">
         <v>1514</v>
-      </c>
-      <c r="C890" t="s">
-        <v>1515</v>
       </c>
       <c r="D890"/>
       <c r="E890" t="n">
@@ -19788,10 +19803,10 @@
     <row r="891">
       <c r="A891"/>
       <c r="B891" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C891" t="s">
         <v>1516</v>
-      </c>
-      <c r="C891" t="s">
-        <v>1517</v>
       </c>
       <c r="D891"/>
       <c r="E891" t="n">
@@ -19802,10 +19817,10 @@
     <row r="892">
       <c r="A892"/>
       <c r="B892" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C892" t="s">
         <v>1518</v>
-      </c>
-      <c r="C892" t="s">
-        <v>1519</v>
       </c>
       <c r="D892"/>
       <c r="E892" t="n">
@@ -19816,10 +19831,10 @@
     <row r="893">
       <c r="A893"/>
       <c r="B893" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C893" t="s">
         <v>1520</v>
-      </c>
-      <c r="C893" t="s">
-        <v>1521</v>
       </c>
       <c r="D893"/>
       <c r="E893" t="n">
@@ -19830,10 +19845,10 @@
     <row r="894">
       <c r="A894"/>
       <c r="B894" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C894" t="s">
         <v>1522</v>
-      </c>
-      <c r="C894" t="s">
-        <v>1523</v>
       </c>
       <c r="D894"/>
       <c r="E894" t="n">
@@ -19844,10 +19859,10 @@
     <row r="895">
       <c r="A895"/>
       <c r="B895" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C895" t="s">
         <v>1524</v>
-      </c>
-      <c r="C895" t="s">
-        <v>1525</v>
       </c>
       <c r="D895"/>
       <c r="E895" t="n">
@@ -19858,10 +19873,10 @@
     <row r="896">
       <c r="A896"/>
       <c r="B896" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C896" t="s">
         <v>1526</v>
-      </c>
-      <c r="C896" t="s">
-        <v>1527</v>
       </c>
       <c r="D896"/>
       <c r="E896" t="n">
@@ -19872,10 +19887,10 @@
     <row r="897">
       <c r="A897"/>
       <c r="B897" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C897" t="s">
         <v>1528</v>
-      </c>
-      <c r="C897" t="s">
-        <v>1529</v>
       </c>
       <c r="D897"/>
       <c r="E897" t="n">
@@ -19886,10 +19901,10 @@
     <row r="898">
       <c r="A898"/>
       <c r="B898" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C898" t="s">
         <v>1530</v>
-      </c>
-      <c r="C898" t="s">
-        <v>1531</v>
       </c>
       <c r="D898"/>
       <c r="E898" t="n">
@@ -19900,10 +19915,10 @@
     <row r="899">
       <c r="A899"/>
       <c r="B899" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C899" t="s">
         <v>1532</v>
-      </c>
-      <c r="C899" t="s">
-        <v>1533</v>
       </c>
       <c r="D899"/>
       <c r="E899" t="n">
@@ -19914,10 +19929,10 @@
     <row r="900">
       <c r="A900"/>
       <c r="B900" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C900" t="s">
         <v>1534</v>
-      </c>
-      <c r="C900" t="s">
-        <v>1535</v>
       </c>
       <c r="D900"/>
       <c r="E900" t="n">
@@ -19928,10 +19943,10 @@
     <row r="901">
       <c r="A901"/>
       <c r="B901" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C901" t="s">
         <v>1536</v>
-      </c>
-      <c r="C901" t="s">
-        <v>1537</v>
       </c>
       <c r="D901"/>
       <c r="E901" t="n">
@@ -19942,10 +19957,10 @@
     <row r="902">
       <c r="A902"/>
       <c r="B902" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C902" t="s">
         <v>1538</v>
-      </c>
-      <c r="C902" t="s">
-        <v>1539</v>
       </c>
       <c r="D902"/>
       <c r="E902" t="n">
@@ -19956,10 +19971,10 @@
     <row r="903">
       <c r="A903"/>
       <c r="B903" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C903" t="s">
         <v>1540</v>
-      </c>
-      <c r="C903" t="s">
-        <v>1541</v>
       </c>
       <c r="D903" t="s">
         <v>259</v>
@@ -19974,10 +19989,10 @@
     <row r="904">
       <c r="A904"/>
       <c r="B904" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C904" t="s">
         <v>1542</v>
-      </c>
-      <c r="C904" t="s">
-        <v>1543</v>
       </c>
       <c r="D904"/>
       <c r="E904" t="n">
@@ -19990,10 +20005,10 @@
     <row r="905">
       <c r="A905"/>
       <c r="B905" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C905" t="s">
         <v>1544</v>
-      </c>
-      <c r="C905" t="s">
-        <v>1545</v>
       </c>
       <c r="D905"/>
       <c r="E905" t="n">
@@ -20006,10 +20021,10 @@
     <row r="906">
       <c r="A906"/>
       <c r="B906" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C906" t="s">
         <v>1546</v>
-      </c>
-      <c r="C906" t="s">
-        <v>1547</v>
       </c>
       <c r="D906"/>
       <c r="E906" t="n">
@@ -20022,10 +20037,10 @@
     <row r="907">
       <c r="A907"/>
       <c r="B907" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C907" t="s">
         <v>1548</v>
-      </c>
-      <c r="C907" t="s">
-        <v>1549</v>
       </c>
       <c r="D907" t="s">
         <v>259</v>
@@ -20040,10 +20055,10 @@
     <row r="908">
       <c r="A908"/>
       <c r="B908" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C908" t="s">
         <v>1550</v>
-      </c>
-      <c r="C908" t="s">
-        <v>1551</v>
       </c>
       <c r="D908"/>
       <c r="E908" t="n">
@@ -20056,10 +20071,10 @@
     <row r="909">
       <c r="A909"/>
       <c r="B909" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C909" t="s">
         <v>1552</v>
-      </c>
-      <c r="C909" t="s">
-        <v>1553</v>
       </c>
       <c r="D909"/>
       <c r="E909" t="n">
@@ -20072,10 +20087,10 @@
     <row r="910">
       <c r="A910"/>
       <c r="B910" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C910" t="s">
         <v>1554</v>
-      </c>
-      <c r="C910" t="s">
-        <v>1555</v>
       </c>
       <c r="D910"/>
       <c r="E910" t="n">
@@ -20088,10 +20103,10 @@
     <row r="911">
       <c r="A911"/>
       <c r="B911" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C911" t="s">
         <v>1556</v>
-      </c>
-      <c r="C911" t="s">
-        <v>1557</v>
       </c>
       <c r="D911"/>
       <c r="E911" t="n">
@@ -20104,10 +20119,10 @@
     <row r="912">
       <c r="A912"/>
       <c r="B912" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C912" t="s">
         <v>1558</v>
-      </c>
-      <c r="C912" t="s">
-        <v>1559</v>
       </c>
       <c r="D912"/>
       <c r="E912" t="n">
@@ -20120,10 +20135,10 @@
     <row r="913">
       <c r="A913"/>
       <c r="B913" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C913" t="s">
         <v>1560</v>
-      </c>
-      <c r="C913" t="s">
-        <v>1561</v>
       </c>
       <c r="D913"/>
       <c r="E913" t="n">
@@ -20136,10 +20151,10 @@
     <row r="914">
       <c r="A914"/>
       <c r="B914" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C914" t="s">
         <v>1562</v>
-      </c>
-      <c r="C914" t="s">
-        <v>1563</v>
       </c>
       <c r="D914"/>
       <c r="E914" t="n">
@@ -20152,10 +20167,10 @@
     <row r="915">
       <c r="A915"/>
       <c r="B915" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C915" t="s">
         <v>1564</v>
-      </c>
-      <c r="C915" t="s">
-        <v>1565</v>
       </c>
       <c r="D915"/>
       <c r="E915" t="n">
@@ -20168,10 +20183,10 @@
     <row r="916">
       <c r="A916"/>
       <c r="B916" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C916" t="s">
         <v>1566</v>
-      </c>
-      <c r="C916" t="s">
-        <v>1567</v>
       </c>
       <c r="D916"/>
       <c r="E916" t="n">
@@ -20184,10 +20199,10 @@
     <row r="917">
       <c r="A917"/>
       <c r="B917" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C917" t="s">
         <v>1568</v>
-      </c>
-      <c r="C917" t="s">
-        <v>1569</v>
       </c>
       <c r="D917"/>
       <c r="E917" t="n">
@@ -20200,10 +20215,10 @@
     <row r="918">
       <c r="A918"/>
       <c r="B918" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C918" t="s">
         <v>1570</v>
-      </c>
-      <c r="C918" t="s">
-        <v>1571</v>
       </c>
       <c r="D918"/>
       <c r="E918" t="n">
@@ -20216,10 +20231,10 @@
     <row r="919">
       <c r="A919"/>
       <c r="B919" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C919" t="s">
         <v>1572</v>
-      </c>
-      <c r="C919" t="s">
-        <v>1573</v>
       </c>
       <c r="D919"/>
       <c r="E919" t="n">
@@ -20232,10 +20247,10 @@
     <row r="920">
       <c r="A920"/>
       <c r="B920" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C920" t="s">
         <v>1574</v>
-      </c>
-      <c r="C920" t="s">
-        <v>1575</v>
       </c>
       <c r="D920"/>
       <c r="E920" t="n">
@@ -20248,10 +20263,10 @@
     <row r="921">
       <c r="A921"/>
       <c r="B921" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C921" t="s">
         <v>1576</v>
-      </c>
-      <c r="C921" t="s">
-        <v>1577</v>
       </c>
       <c r="D921" t="s">
         <v>259</v>
@@ -20266,10 +20281,10 @@
     <row r="922">
       <c r="A922"/>
       <c r="B922" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C922" t="s">
         <v>1578</v>
-      </c>
-      <c r="C922" t="s">
-        <v>1579</v>
       </c>
       <c r="D922"/>
       <c r="E922" t="n">
@@ -20282,10 +20297,10 @@
     <row r="923">
       <c r="A923"/>
       <c r="B923" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C923" t="s">
         <v>1580</v>
-      </c>
-      <c r="C923" t="s">
-        <v>1581</v>
       </c>
       <c r="D923"/>
       <c r="E923" t="n">
@@ -20298,10 +20313,10 @@
     <row r="924">
       <c r="A924"/>
       <c r="B924" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C924" t="s">
         <v>1582</v>
-      </c>
-      <c r="C924" t="s">
-        <v>1583</v>
       </c>
       <c r="D924"/>
       <c r="E924" t="n">
@@ -20314,10 +20329,10 @@
     <row r="925">
       <c r="A925"/>
       <c r="B925" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C925" t="s">
         <v>1584</v>
-      </c>
-      <c r="C925" t="s">
-        <v>1585</v>
       </c>
       <c r="D925" t="s">
         <v>259</v>
@@ -20332,10 +20347,10 @@
     <row r="926">
       <c r="A926"/>
       <c r="B926" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C926" t="s">
         <v>1586</v>
-      </c>
-      <c r="C926" t="s">
-        <v>1587</v>
       </c>
       <c r="D926"/>
       <c r="E926" t="n">
@@ -20348,10 +20363,10 @@
     <row r="927">
       <c r="A927"/>
       <c r="B927" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C927" t="s">
         <v>1588</v>
-      </c>
-      <c r="C927" t="s">
-        <v>1589</v>
       </c>
       <c r="D927"/>
       <c r="E927" t="n">
@@ -20364,10 +20379,10 @@
     <row r="928">
       <c r="A928"/>
       <c r="B928" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C928" t="s">
         <v>1590</v>
-      </c>
-      <c r="C928" t="s">
-        <v>1591</v>
       </c>
       <c r="D928"/>
       <c r="E928" t="n">
@@ -20380,10 +20395,10 @@
     <row r="929">
       <c r="A929"/>
       <c r="B929" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C929" t="s">
         <v>1592</v>
-      </c>
-      <c r="C929" t="s">
-        <v>1593</v>
       </c>
       <c r="D929"/>
       <c r="E929" t="n">
@@ -20394,10 +20409,10 @@
     <row r="930">
       <c r="A930"/>
       <c r="B930" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C930" t="s">
         <v>1594</v>
-      </c>
-      <c r="C930" t="s">
-        <v>1595</v>
       </c>
       <c r="D930"/>
       <c r="E930" t="n">
@@ -20408,10 +20423,10 @@
     <row r="931">
       <c r="A931"/>
       <c r="B931" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C931" t="s">
         <v>1596</v>
-      </c>
-      <c r="C931" t="s">
-        <v>1597</v>
       </c>
       <c r="D931"/>
       <c r="E931" t="n">
@@ -20422,10 +20437,10 @@
     <row r="932">
       <c r="A932"/>
       <c r="B932" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C932" t="s">
         <v>1598</v>
-      </c>
-      <c r="C932" t="s">
-        <v>1599</v>
       </c>
       <c r="D932"/>
       <c r="E932" t="n">
@@ -20436,10 +20451,10 @@
     <row r="933">
       <c r="A933"/>
       <c r="B933" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C933" t="s">
         <v>1600</v>
-      </c>
-      <c r="C933" t="s">
-        <v>1601</v>
       </c>
       <c r="D933"/>
       <c r="E933" t="n">
@@ -20450,10 +20465,10 @@
     <row r="934">
       <c r="A934"/>
       <c r="B934" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C934" t="s">
         <v>1602</v>
-      </c>
-      <c r="C934" t="s">
-        <v>1603</v>
       </c>
       <c r="D934"/>
       <c r="E934" t="n">
@@ -20464,10 +20479,10 @@
     <row r="935">
       <c r="A935"/>
       <c r="B935" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C935" t="s">
         <v>1604</v>
-      </c>
-      <c r="C935" t="s">
-        <v>1605</v>
       </c>
       <c r="D935"/>
       <c r="E935" t="n">
@@ -20478,10 +20493,10 @@
     <row r="936">
       <c r="A936"/>
       <c r="B936" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C936" t="s">
         <v>1606</v>
-      </c>
-      <c r="C936" t="s">
-        <v>1607</v>
       </c>
       <c r="D936"/>
       <c r="E936" t="n">
@@ -20492,10 +20507,10 @@
     <row r="937">
       <c r="A937"/>
       <c r="B937" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C937" t="s">
         <v>1608</v>
-      </c>
-      <c r="C937" t="s">
-        <v>1609</v>
       </c>
       <c r="D937"/>
       <c r="E937" t="n">
@@ -20506,10 +20521,10 @@
     <row r="938">
       <c r="A938"/>
       <c r="B938" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C938" t="s">
         <v>1610</v>
-      </c>
-      <c r="C938" t="s">
-        <v>1611</v>
       </c>
       <c r="D938"/>
       <c r="E938" t="n">
@@ -20527,10 +20542,10 @@
     </row>
     <row r="940">
       <c r="A940" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B940" t="s">
         <v>1612</v>
-      </c>
-      <c r="B940" t="s">
-        <v>1613</v>
       </c>
       <c r="C940" t="s">
         <v>8</v>
@@ -20544,7 +20559,7 @@
     <row r="941">
       <c r="A941"/>
       <c r="B941" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C941" t="s">
         <v>177</v>
@@ -20558,7 +20573,7 @@
     <row r="942">
       <c r="A942"/>
       <c r="B942" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C942" t="s">
         <v>10</v>
@@ -20572,7 +20587,7 @@
     <row r="943">
       <c r="A943"/>
       <c r="B943" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C943" t="s">
         <v>12</v>
@@ -20586,7 +20601,7 @@
     <row r="944">
       <c r="A944"/>
       <c r="B944" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C944" t="s">
         <v>14</v>
@@ -20602,7 +20617,7 @@
     <row r="945">
       <c r="A945"/>
       <c r="B945" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C945" t="s">
         <v>16</v>
@@ -20618,7 +20633,7 @@
     <row r="946">
       <c r="A946"/>
       <c r="B946" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C946" t="s">
         <v>18</v>
@@ -20634,7 +20649,7 @@
     <row r="947">
       <c r="A947"/>
       <c r="B947" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C947" t="s">
         <v>20</v>
@@ -20650,7 +20665,7 @@
     <row r="948">
       <c r="A948"/>
       <c r="B948" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C948" t="s">
         <v>22</v>
@@ -20666,7 +20681,7 @@
     <row r="949">
       <c r="A949"/>
       <c r="B949" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C949" t="s">
         <v>24</v>
@@ -20682,7 +20697,7 @@
     <row r="950">
       <c r="A950"/>
       <c r="B950" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C950" t="s">
         <v>26</v>
@@ -20698,7 +20713,7 @@
     <row r="951">
       <c r="A951"/>
       <c r="B951" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -20714,7 +20729,7 @@
     <row r="952">
       <c r="A952"/>
       <c r="B952" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C952" t="s">
         <v>30</v>
@@ -20732,7 +20747,7 @@
     <row r="953">
       <c r="A953"/>
       <c r="B953" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C953" t="s">
         <v>33</v>
@@ -20750,10 +20765,10 @@
     <row r="954">
       <c r="A954"/>
       <c r="B954" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C954" t="s">
         <v>1627</v>
-      </c>
-      <c r="C954" t="s">
-        <v>1628</v>
       </c>
       <c r="D954"/>
       <c r="E954" t="n">
@@ -20764,7 +20779,7 @@
     <row r="955">
       <c r="A955"/>
       <c r="B955" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C955" t="s">
         <v>622</v>
@@ -20778,7 +20793,7 @@
     <row r="956">
       <c r="A956"/>
       <c r="B956" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C956" t="s">
         <v>35</v>
@@ -20792,7 +20807,7 @@
     <row r="957">
       <c r="A957"/>
       <c r="B957" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C957" t="s">
         <v>210</v>
@@ -20806,7 +20821,7 @@
     <row r="958">
       <c r="A958"/>
       <c r="B958" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C958" t="s">
         <v>212</v>
@@ -20820,7 +20835,7 @@
     <row r="959">
       <c r="A959"/>
       <c r="B959" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C959" t="s">
         <v>214</v>
@@ -20834,7 +20849,7 @@
     <row r="960">
       <c r="A960"/>
       <c r="B960" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C960" t="s">
         <v>216</v>
@@ -20848,7 +20863,7 @@
     <row r="961">
       <c r="A961"/>
       <c r="B961" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C961" t="s">
         <v>218</v>
@@ -20862,7 +20877,7 @@
     <row r="962">
       <c r="A962"/>
       <c r="B962" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C962" t="s">
         <v>230</v>
@@ -20876,7 +20891,7 @@
     <row r="963">
       <c r="A963"/>
       <c r="B963" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C963" t="s">
         <v>232</v>
@@ -20890,7 +20905,7 @@
     <row r="964">
       <c r="A964"/>
       <c r="B964" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C964" t="s">
         <v>234</v>
@@ -20904,7 +20919,7 @@
     <row r="965">
       <c r="A965"/>
       <c r="B965" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C965" t="s">
         <v>236</v>
@@ -20918,7 +20933,7 @@
     <row r="966">
       <c r="A966"/>
       <c r="B966" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C966" t="s">
         <v>238</v>
@@ -20932,7 +20947,7 @@
     <row r="967">
       <c r="A967"/>
       <c r="B967" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C967" t="s">
         <v>949</v>
@@ -20948,10 +20963,10 @@
     <row r="968">
       <c r="A968"/>
       <c r="B968" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C968" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D968" t="s">
         <v>31</v>
@@ -20964,10 +20979,10 @@
     <row r="969">
       <c r="A969"/>
       <c r="B969" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C969" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D969"/>
       <c r="E969" t="n">
@@ -20978,10 +20993,10 @@
     <row r="970">
       <c r="A970"/>
       <c r="B970" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C970" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D970"/>
       <c r="E970" t="n">
@@ -20992,10 +21007,10 @@
     <row r="971">
       <c r="A971"/>
       <c r="B971" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C971" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D971"/>
       <c r="E971" t="n">
@@ -21006,10 +21021,10 @@
     <row r="972">
       <c r="A972"/>
       <c r="B972" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C972" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D972"/>
       <c r="E972" t="n">
@@ -21020,10 +21035,10 @@
     <row r="973">
       <c r="A973"/>
       <c r="B973" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C973" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D973"/>
       <c r="E973" t="n">
@@ -21034,10 +21049,10 @@
     <row r="974">
       <c r="A974"/>
       <c r="B974" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C974" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D974"/>
       <c r="E974" t="n">
@@ -21048,10 +21063,10 @@
     <row r="975">
       <c r="A975"/>
       <c r="B975" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C975" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D975"/>
       <c r="E975" t="n">
@@ -21062,10 +21077,10 @@
     <row r="976">
       <c r="A976"/>
       <c r="B976" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C976" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D976"/>
       <c r="E976" t="n">
@@ -21076,10 +21091,10 @@
     <row r="977">
       <c r="A977"/>
       <c r="B977" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C977" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D977"/>
       <c r="E977" t="n">
@@ -21090,10 +21105,10 @@
     <row r="978">
       <c r="A978"/>
       <c r="B978" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C978" t="s">
         <v>1652</v>
-      </c>
-      <c r="C978" t="s">
-        <v>1653</v>
       </c>
       <c r="D978"/>
       <c r="E978" t="n">
@@ -21104,10 +21119,10 @@
     <row r="979">
       <c r="A979"/>
       <c r="B979" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C979" t="s">
         <v>1654</v>
-      </c>
-      <c r="C979" t="s">
-        <v>1655</v>
       </c>
       <c r="D979"/>
       <c r="E979" t="n">
@@ -21118,10 +21133,10 @@
     <row r="980">
       <c r="A980"/>
       <c r="B980" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C980" t="s">
         <v>1656</v>
-      </c>
-      <c r="C980" t="s">
-        <v>1657</v>
       </c>
       <c r="D980"/>
       <c r="E980" t="n">
@@ -21132,10 +21147,10 @@
     <row r="981">
       <c r="A981"/>
       <c r="B981" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C981" t="s">
         <v>1658</v>
-      </c>
-      <c r="C981" t="s">
-        <v>1659</v>
       </c>
       <c r="D981"/>
       <c r="E981" t="n">
@@ -21146,10 +21161,10 @@
     <row r="982">
       <c r="A982"/>
       <c r="B982" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C982" t="s">
         <v>1660</v>
-      </c>
-      <c r="C982" t="s">
-        <v>1661</v>
       </c>
       <c r="D982"/>
       <c r="E982" t="n">
@@ -21160,10 +21175,10 @@
     <row r="983">
       <c r="A983"/>
       <c r="B983" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C983" t="s">
         <v>1662</v>
-      </c>
-      <c r="C983" t="s">
-        <v>1663</v>
       </c>
       <c r="D983"/>
       <c r="E983" t="n">
@@ -21181,10 +21196,10 @@
     </row>
     <row r="985">
       <c r="A985" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B985" t="s">
         <v>1664</v>
-      </c>
-      <c r="B985" t="s">
-        <v>1665</v>
       </c>
       <c r="C985" t="s">
         <v>8</v>
@@ -21198,7 +21213,7 @@
     <row r="986">
       <c r="A986"/>
       <c r="B986" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C986" t="s">
         <v>177</v>
@@ -21212,7 +21227,7 @@
     <row r="987">
       <c r="A987"/>
       <c r="B987" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C987" t="s">
         <v>14</v>
@@ -21228,7 +21243,7 @@
     <row r="988">
       <c r="A988"/>
       <c r="B988" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C988" t="s">
         <v>16</v>
@@ -21244,7 +21259,7 @@
     <row r="989">
       <c r="A989"/>
       <c r="B989" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C989" t="s">
         <v>18</v>
@@ -21260,7 +21275,7 @@
     <row r="990">
       <c r="A990"/>
       <c r="B990" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C990" t="s">
         <v>20</v>
@@ -21276,7 +21291,7 @@
     <row r="991">
       <c r="A991"/>
       <c r="B991" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C991" t="s">
         <v>22</v>
@@ -21292,7 +21307,7 @@
     <row r="992">
       <c r="A992"/>
       <c r="B992" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C992" t="s">
         <v>24</v>
@@ -21308,7 +21323,7 @@
     <row r="993">
       <c r="A993"/>
       <c r="B993" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C993" t="s">
         <v>26</v>
@@ -21324,7 +21339,7 @@
     <row r="994">
       <c r="A994"/>
       <c r="B994" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C994" t="s">
         <v>28</v>
@@ -21340,7 +21355,7 @@
     <row r="995">
       <c r="A995"/>
       <c r="B995" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C995" t="s">
         <v>30</v>
@@ -21358,7 +21373,7 @@
     <row r="996">
       <c r="A996"/>
       <c r="B996" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C996" t="s">
         <v>33</v>
@@ -21376,7 +21391,7 @@
     <row r="997">
       <c r="A997"/>
       <c r="B997" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C997" t="s">
         <v>622</v>
@@ -21390,7 +21405,7 @@
     <row r="998">
       <c r="A998"/>
       <c r="B998" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C998" t="s">
         <v>624</v>
@@ -21404,7 +21419,7 @@
     <row r="999">
       <c r="A999"/>
       <c r="B999" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C999" t="s">
         <v>626</v>
@@ -21418,7 +21433,7 @@
     <row r="1000">
       <c r="A1000"/>
       <c r="B1000" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C1000" t="s">
         <v>628</v>
@@ -21432,7 +21447,7 @@
     <row r="1001">
       <c r="A1001"/>
       <c r="B1001" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C1001" t="s">
         <v>630</v>
@@ -21446,7 +21461,7 @@
     <row r="1002">
       <c r="A1002"/>
       <c r="B1002" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C1002" t="s">
         <v>632</v>
@@ -21460,7 +21475,7 @@
     <row r="1003">
       <c r="A1003"/>
       <c r="B1003" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C1003" t="s">
         <v>634</v>
@@ -21474,7 +21489,7 @@
     <row r="1004">
       <c r="A1004"/>
       <c r="B1004" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C1004" t="s">
         <v>636</v>
@@ -21488,7 +21503,7 @@
     <row r="1005">
       <c r="A1005"/>
       <c r="B1005" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C1005" t="s">
         <v>638</v>
@@ -21502,7 +21517,7 @@
     <row r="1006">
       <c r="A1006"/>
       <c r="B1006" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C1006" t="s">
         <v>35</v>
@@ -21516,10 +21531,10 @@
     <row r="1007">
       <c r="A1007"/>
       <c r="B1007" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C1007" t="s">
         <v>1687</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>1688</v>
       </c>
       <c r="D1007"/>
       <c r="E1007" t="n">
@@ -21530,7 +21545,7 @@
     <row r="1008">
       <c r="A1008"/>
       <c r="B1008" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C1008" t="s">
         <v>210</v>
@@ -21544,7 +21559,7 @@
     <row r="1009">
       <c r="A1009"/>
       <c r="B1009" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C1009" t="s">
         <v>212</v>
@@ -21558,7 +21573,7 @@
     <row r="1010">
       <c r="A1010"/>
       <c r="B1010" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C1010" t="s">
         <v>214</v>
@@ -21572,7 +21587,7 @@
     <row r="1011">
       <c r="A1011"/>
       <c r="B1011" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C1011" t="s">
         <v>216</v>
@@ -21586,7 +21601,7 @@
     <row r="1012">
       <c r="A1012"/>
       <c r="B1012" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C1012" t="s">
         <v>218</v>
@@ -21600,7 +21615,7 @@
     <row r="1013">
       <c r="A1013"/>
       <c r="B1013" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C1013" t="s">
         <v>230</v>
@@ -21614,7 +21629,7 @@
     <row r="1014">
       <c r="A1014"/>
       <c r="B1014" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C1014" t="s">
         <v>232</v>
@@ -21628,7 +21643,7 @@
     <row r="1015">
       <c r="A1015"/>
       <c r="B1015" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C1015" t="s">
         <v>234</v>
@@ -21642,7 +21657,7 @@
     <row r="1016">
       <c r="A1016"/>
       <c r="B1016" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C1016" t="s">
         <v>236</v>
@@ -21656,7 +21671,7 @@
     <row r="1017">
       <c r="A1017"/>
       <c r="B1017" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C1017" t="s">
         <v>238</v>
@@ -21670,7 +21685,7 @@
     <row r="1018">
       <c r="A1018"/>
       <c r="B1018" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C1018" t="s">
         <v>574</v>
@@ -21686,7 +21701,7 @@
     <row r="1019">
       <c r="A1019"/>
       <c r="B1019" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C1019" t="s">
         <v>576</v>
@@ -21700,7 +21715,7 @@
     <row r="1020">
       <c r="A1020"/>
       <c r="B1020" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C1020" t="s">
         <v>578</v>
@@ -21714,7 +21729,7 @@
     <row r="1021">
       <c r="A1021"/>
       <c r="B1021" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C1021" t="s">
         <v>580</v>
@@ -21728,7 +21743,7 @@
     <row r="1022">
       <c r="A1022"/>
       <c r="B1022" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C1022" t="s">
         <v>582</v>
@@ -21742,7 +21757,7 @@
     <row r="1023">
       <c r="A1023"/>
       <c r="B1023" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C1023" t="s">
         <v>584</v>
@@ -21756,7 +21771,7 @@
     <row r="1024">
       <c r="A1024"/>
       <c r="B1024" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C1024" t="s">
         <v>586</v>
@@ -21770,7 +21785,7 @@
     <row r="1025">
       <c r="A1025"/>
       <c r="B1025" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C1025" t="s">
         <v>588</v>
@@ -21784,7 +21799,7 @@
     <row r="1026">
       <c r="A1026"/>
       <c r="B1026" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C1026" t="s">
         <v>590</v>
@@ -21798,7 +21813,7 @@
     <row r="1027">
       <c r="A1027"/>
       <c r="B1027" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C1027" t="s">
         <v>592</v>
@@ -21812,10 +21827,10 @@
     <row r="1028">
       <c r="A1028"/>
       <c r="B1028" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C1028" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D1028"/>
       <c r="E1028" t="n">
@@ -21826,10 +21841,10 @@
     <row r="1029">
       <c r="A1029"/>
       <c r="B1029" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C1029" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D1029"/>
       <c r="E1029" t="n">
@@ -21840,10 +21855,10 @@
     <row r="1030">
       <c r="A1030"/>
       <c r="B1030" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C1030" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D1030"/>
       <c r="E1030" t="n">
@@ -21854,10 +21869,10 @@
     <row r="1031">
       <c r="A1031"/>
       <c r="B1031" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C1031" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D1031"/>
       <c r="E1031" t="n">
@@ -21868,10 +21883,10 @@
     <row r="1032">
       <c r="A1032"/>
       <c r="B1032" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C1032" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D1032"/>
       <c r="E1032" t="n">
@@ -21882,10 +21897,10 @@
     <row r="1033">
       <c r="A1033"/>
       <c r="B1033" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C1033" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D1033"/>
       <c r="E1033" t="n">
@@ -21896,10 +21911,10 @@
     <row r="1034">
       <c r="A1034"/>
       <c r="B1034" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C1034" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D1034"/>
       <c r="E1034" t="n">
@@ -21910,10 +21925,10 @@
     <row r="1035">
       <c r="A1035"/>
       <c r="B1035" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C1035" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D1035"/>
       <c r="E1035" t="n">
@@ -21924,10 +21939,10 @@
     <row r="1036">
       <c r="A1036"/>
       <c r="B1036" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C1036" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D1036"/>
       <c r="E1036" t="n">
@@ -21938,10 +21953,10 @@
     <row r="1037">
       <c r="A1037"/>
       <c r="B1037" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1037" t="s">
         <v>1718</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>1719</v>
       </c>
       <c r="D1037"/>
       <c r="E1037" t="n">
@@ -21952,10 +21967,10 @@
     <row r="1038">
       <c r="A1038"/>
       <c r="B1038" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1038" t="s">
         <v>1720</v>
-      </c>
-      <c r="C1038" t="s">
-        <v>1721</v>
       </c>
       <c r="D1038"/>
       <c r="E1038" t="n">
@@ -21966,10 +21981,10 @@
     <row r="1039">
       <c r="A1039"/>
       <c r="B1039" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1039" t="s">
         <v>1722</v>
-      </c>
-      <c r="C1039" t="s">
-        <v>1723</v>
       </c>
       <c r="D1039"/>
       <c r="E1039" t="n">
@@ -21980,10 +21995,10 @@
     <row r="1040">
       <c r="A1040"/>
       <c r="B1040" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1040" t="s">
         <v>1724</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>1725</v>
       </c>
       <c r="D1040"/>
       <c r="E1040" t="n">
@@ -21994,10 +22009,10 @@
     <row r="1041">
       <c r="A1041"/>
       <c r="B1041" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1041" t="s">
         <v>1726</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>1727</v>
       </c>
       <c r="D1041"/>
       <c r="E1041" t="n">
@@ -22015,10 +22030,10 @@
     </row>
     <row r="1043">
       <c r="A1043" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1728</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1729</v>
       </c>
       <c r="C1043" t="s">
         <v>8</v>
@@ -22032,7 +22047,7 @@
     <row r="1044">
       <c r="A1044"/>
       <c r="B1044" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C1044" t="s">
         <v>177</v>
@@ -22046,7 +22061,7 @@
     <row r="1045">
       <c r="A1045"/>
       <c r="B1045" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C1045" t="s">
         <v>10</v>
@@ -22060,7 +22075,7 @@
     <row r="1046">
       <c r="A1046"/>
       <c r="B1046" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C1046" t="s">
         <v>12</v>
@@ -22074,7 +22089,7 @@
     <row r="1047">
       <c r="A1047"/>
       <c r="B1047" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C1047" t="s">
         <v>14</v>
@@ -22090,7 +22105,7 @@
     <row r="1048">
       <c r="A1048"/>
       <c r="B1048" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C1048" t="s">
         <v>16</v>
@@ -22106,7 +22121,7 @@
     <row r="1049">
       <c r="A1049"/>
       <c r="B1049" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C1049" t="s">
         <v>18</v>
@@ -22122,7 +22137,7 @@
     <row r="1050">
       <c r="A1050"/>
       <c r="B1050" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C1050" t="s">
         <v>20</v>
@@ -22138,7 +22153,7 @@
     <row r="1051">
       <c r="A1051"/>
       <c r="B1051" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C1051" t="s">
         <v>22</v>
@@ -22154,7 +22169,7 @@
     <row r="1052">
       <c r="A1052"/>
       <c r="B1052" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C1052" t="s">
         <v>24</v>
@@ -22170,7 +22185,7 @@
     <row r="1053">
       <c r="A1053"/>
       <c r="B1053" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C1053" t="s">
         <v>26</v>
@@ -22186,7 +22201,7 @@
     <row r="1054">
       <c r="A1054"/>
       <c r="B1054" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C1054" t="s">
         <v>28</v>
@@ -22202,7 +22217,7 @@
     <row r="1055">
       <c r="A1055"/>
       <c r="B1055" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C1055" t="s">
         <v>30</v>
@@ -22220,7 +22235,7 @@
     <row r="1056">
       <c r="A1056"/>
       <c r="B1056" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C1056" t="s">
         <v>33</v>
@@ -22238,7 +22253,7 @@
     <row r="1057">
       <c r="A1057"/>
       <c r="B1057" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C1057" t="s">
         <v>622</v>
@@ -22252,7 +22267,7 @@
     <row r="1058">
       <c r="A1058"/>
       <c r="B1058" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C1058" t="s">
         <v>624</v>
@@ -22266,7 +22281,7 @@
     <row r="1059">
       <c r="A1059"/>
       <c r="B1059" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C1059" t="s">
         <v>626</v>
@@ -22280,7 +22295,7 @@
     <row r="1060">
       <c r="A1060"/>
       <c r="B1060" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C1060" t="s">
         <v>628</v>
@@ -22294,7 +22309,7 @@
     <row r="1061">
       <c r="A1061"/>
       <c r="B1061" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C1061" t="s">
         <v>630</v>
@@ -22308,7 +22323,7 @@
     <row r="1062">
       <c r="A1062"/>
       <c r="B1062" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C1062" t="s">
         <v>632</v>
@@ -22322,7 +22337,7 @@
     <row r="1063">
       <c r="A1063"/>
       <c r="B1063" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C1063" t="s">
         <v>634</v>
@@ -22336,7 +22351,7 @@
     <row r="1064">
       <c r="A1064"/>
       <c r="B1064" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C1064" t="s">
         <v>636</v>
@@ -22350,7 +22365,7 @@
     <row r="1065">
       <c r="A1065"/>
       <c r="B1065" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C1065" t="s">
         <v>638</v>
@@ -22364,7 +22379,7 @@
     <row r="1066">
       <c r="A1066"/>
       <c r="B1066" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C1066" t="s">
         <v>35</v>
@@ -22378,7 +22393,7 @@
     <row r="1067">
       <c r="A1067"/>
       <c r="B1067" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C1067" t="s">
         <v>507</v>
@@ -22392,7 +22407,7 @@
     <row r="1068">
       <c r="A1068"/>
       <c r="B1068" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C1068" t="s">
         <v>509</v>
@@ -22406,7 +22421,7 @@
     <row r="1069">
       <c r="A1069"/>
       <c r="B1069" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C1069" t="s">
         <v>511</v>
@@ -22420,7 +22435,7 @@
     <row r="1070">
       <c r="A1070"/>
       <c r="B1070" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C1070" t="s">
         <v>513</v>
@@ -22434,7 +22449,7 @@
     <row r="1071">
       <c r="A1071"/>
       <c r="B1071" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C1071" t="s">
         <v>515</v>
@@ -22448,7 +22463,7 @@
     <row r="1072">
       <c r="A1072"/>
       <c r="B1072" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C1072" t="s">
         <v>210</v>
@@ -22462,7 +22477,7 @@
     <row r="1073">
       <c r="A1073"/>
       <c r="B1073" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C1073" t="s">
         <v>212</v>
@@ -22476,7 +22491,7 @@
     <row r="1074">
       <c r="A1074"/>
       <c r="B1074" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C1074" t="s">
         <v>214</v>
@@ -22490,7 +22505,7 @@
     <row r="1075">
       <c r="A1075"/>
       <c r="B1075" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C1075" t="s">
         <v>216</v>
@@ -22504,7 +22519,7 @@
     <row r="1076">
       <c r="A1076"/>
       <c r="B1076" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C1076" t="s">
         <v>218</v>
@@ -22518,7 +22533,7 @@
     <row r="1077">
       <c r="A1077"/>
       <c r="B1077" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C1077" t="s">
         <v>230</v>
@@ -22532,7 +22547,7 @@
     <row r="1078">
       <c r="A1078"/>
       <c r="B1078" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C1078" t="s">
         <v>232</v>
@@ -22546,7 +22561,7 @@
     <row r="1079">
       <c r="A1079"/>
       <c r="B1079" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C1079" t="s">
         <v>234</v>
@@ -22560,7 +22575,7 @@
     <row r="1080">
       <c r="A1080"/>
       <c r="B1080" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C1080" t="s">
         <v>236</v>
@@ -22574,7 +22589,7 @@
     <row r="1081">
       <c r="A1081"/>
       <c r="B1081" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C1081" t="s">
         <v>238</v>
@@ -22588,10 +22603,10 @@
     <row r="1082">
       <c r="A1082"/>
       <c r="B1082" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1082" t="s">
         <v>1768</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>1769</v>
       </c>
       <c r="D1082" t="s">
         <v>31</v>
@@ -22604,10 +22619,10 @@
     <row r="1083">
       <c r="A1083"/>
       <c r="B1083" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1083" t="s">
         <v>1770</v>
-      </c>
-      <c r="C1083" t="s">
-        <v>1771</v>
       </c>
       <c r="D1083" t="s">
         <v>31</v>
@@ -22620,10 +22635,10 @@
     <row r="1084">
       <c r="A1084"/>
       <c r="B1084" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1084" t="s">
         <v>1772</v>
-      </c>
-      <c r="C1084" t="s">
-        <v>1773</v>
       </c>
       <c r="D1084" t="s">
         <v>31</v>
@@ -22636,7 +22651,7 @@
     <row r="1085">
       <c r="A1085"/>
       <c r="B1085" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C1085" t="s">
         <v>594</v>
@@ -22650,7 +22665,7 @@
     <row r="1086">
       <c r="A1086"/>
       <c r="B1086" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C1086" t="s">
         <v>596</v>
@@ -22664,7 +22679,7 @@
     <row r="1087">
       <c r="A1087"/>
       <c r="B1087" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C1087" t="s">
         <v>598</v>
@@ -22678,7 +22693,7 @@
     <row r="1088">
       <c r="A1088"/>
       <c r="B1088" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C1088" t="s">
         <v>600</v>
@@ -22692,7 +22707,7 @@
     <row r="1089">
       <c r="A1089"/>
       <c r="B1089" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C1089" t="s">
         <v>602</v>
@@ -22706,7 +22721,7 @@
     <row r="1090">
       <c r="A1090"/>
       <c r="B1090" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C1090" t="s">
         <v>604</v>
@@ -22720,7 +22735,7 @@
     <row r="1091">
       <c r="A1091"/>
       <c r="B1091" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C1091" t="s">
         <v>606</v>
@@ -22734,7 +22749,7 @@
     <row r="1092">
       <c r="A1092"/>
       <c r="B1092" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C1092" t="s">
         <v>608</v>
@@ -22748,7 +22763,7 @@
     <row r="1093">
       <c r="A1093"/>
       <c r="B1093" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C1093" t="s">
         <v>610</v>
@@ -22762,7 +22777,7 @@
     <row r="1094">
       <c r="A1094"/>
       <c r="B1094" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C1094" t="s">
         <v>612</v>
@@ -22776,7 +22791,7 @@
     <row r="1095">
       <c r="A1095"/>
       <c r="B1095" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C1095" t="s">
         <v>614</v>
@@ -22790,7 +22805,7 @@
     <row r="1096">
       <c r="A1096"/>
       <c r="B1096" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C1096" t="s">
         <v>616</v>
@@ -22804,7 +22819,7 @@
     <row r="1097">
       <c r="A1097"/>
       <c r="B1097" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C1097" t="s">
         <v>618</v>
@@ -22818,7 +22833,7 @@
     <row r="1098">
       <c r="A1098"/>
       <c r="B1098" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C1098" t="s">
         <v>620</v>
@@ -22832,7 +22847,7 @@
     <row r="1099">
       <c r="A1099"/>
       <c r="B1099" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C1099" t="s">
         <v>367</v>
@@ -22848,7 +22863,7 @@
     <row r="1100">
       <c r="A1100"/>
       <c r="B1100" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C1100" t="s">
         <v>369</v>
@@ -22864,7 +22879,7 @@
     <row r="1101">
       <c r="A1101"/>
       <c r="B1101" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C1101" t="s">
         <v>371</v>
@@ -22880,7 +22895,7 @@
     <row r="1102">
       <c r="A1102"/>
       <c r="B1102" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C1102" t="s">
         <v>373</v>
@@ -22896,7 +22911,7 @@
     <row r="1103">
       <c r="A1103"/>
       <c r="B1103" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C1103" t="s">
         <v>375</v>
@@ -22912,7 +22927,7 @@
     <row r="1104">
       <c r="A1104"/>
       <c r="B1104" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C1104" t="s">
         <v>377</v>
@@ -22928,7 +22943,7 @@
     <row r="1105">
       <c r="A1105"/>
       <c r="B1105" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C1105" t="s">
         <v>379</v>
@@ -22944,7 +22959,7 @@
     <row r="1106">
       <c r="A1106"/>
       <c r="B1106" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C1106" t="s">
         <v>381</v>
@@ -22960,7 +22975,7 @@
     <row r="1107">
       <c r="A1107"/>
       <c r="B1107" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C1107" t="s">
         <v>383</v>
@@ -22976,7 +22991,7 @@
     <row r="1108">
       <c r="A1108"/>
       <c r="B1108" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C1108" t="s">
         <v>385</v>
@@ -22992,7 +23007,7 @@
     <row r="1109">
       <c r="A1109"/>
       <c r="B1109" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C1109" t="s">
         <v>387</v>
@@ -23010,7 +23025,7 @@
     <row r="1110">
       <c r="A1110"/>
       <c r="B1110" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C1110" t="s">
         <v>389</v>
@@ -23033,10 +23048,10 @@
     </row>
     <row r="1112">
       <c r="A1112" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1800</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1801</v>
       </c>
       <c r="C1112" t="s">
         <v>8</v>
@@ -23050,10 +23065,10 @@
     <row r="1113">
       <c r="A1113"/>
       <c r="B1113" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1113" t="s">
         <v>1802</v>
-      </c>
-      <c r="C1113" t="s">
-        <v>1803</v>
       </c>
       <c r="D1113"/>
       <c r="E1113" t="n">
@@ -23064,7 +23079,7 @@
     <row r="1114">
       <c r="A1114"/>
       <c r="B1114" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C1114" t="s">
         <v>14</v>
@@ -23080,7 +23095,7 @@
     <row r="1115">
       <c r="A1115"/>
       <c r="B1115" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C1115" t="s">
         <v>16</v>
@@ -23096,7 +23111,7 @@
     <row r="1116">
       <c r="A1116"/>
       <c r="B1116" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C1116" t="s">
         <v>18</v>
@@ -23112,7 +23127,7 @@
     <row r="1117">
       <c r="A1117"/>
       <c r="B1117" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C1117" t="s">
         <v>20</v>
@@ -23128,7 +23143,7 @@
     <row r="1118">
       <c r="A1118"/>
       <c r="B1118" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C1118" t="s">
         <v>22</v>
@@ -23144,7 +23159,7 @@
     <row r="1119">
       <c r="A1119"/>
       <c r="B1119" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C1119" t="s">
         <v>24</v>
@@ -23160,7 +23175,7 @@
     <row r="1120">
       <c r="A1120"/>
       <c r="B1120" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C1120" t="s">
         <v>26</v>
@@ -23176,7 +23191,7 @@
     <row r="1121">
       <c r="A1121"/>
       <c r="B1121" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C1121" t="s">
         <v>28</v>
@@ -23192,7 +23207,7 @@
     <row r="1122">
       <c r="A1122"/>
       <c r="B1122" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C1122" t="s">
         <v>30</v>
@@ -23210,7 +23225,7 @@
     <row r="1123">
       <c r="A1123"/>
       <c r="B1123" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C1123" t="s">
         <v>33</v>
@@ -23228,7 +23243,7 @@
     <row r="1124">
       <c r="A1124"/>
       <c r="B1124" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C1124" t="s">
         <v>35</v>
@@ -23242,10 +23257,10 @@
     <row r="1125">
       <c r="A1125"/>
       <c r="B1125" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1125" t="s">
         <v>1815</v>
-      </c>
-      <c r="C1125" t="s">
-        <v>1816</v>
       </c>
       <c r="D1125"/>
       <c r="E1125" t="n">
@@ -23256,10 +23271,10 @@
     <row r="1126">
       <c r="A1126"/>
       <c r="B1126" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1126" t="s">
         <v>1817</v>
-      </c>
-      <c r="C1126" t="s">
-        <v>1818</v>
       </c>
       <c r="D1126"/>
       <c r="E1126" t="n">
@@ -23270,10 +23285,10 @@
     <row r="1127">
       <c r="A1127"/>
       <c r="B1127" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1127" t="s">
         <v>1819</v>
-      </c>
-      <c r="C1127" t="s">
-        <v>1820</v>
       </c>
       <c r="D1127"/>
       <c r="E1127" t="n">
@@ -23284,10 +23299,10 @@
     <row r="1128">
       <c r="A1128"/>
       <c r="B1128" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1128" t="s">
         <v>1821</v>
-      </c>
-      <c r="C1128" t="s">
-        <v>1822</v>
       </c>
       <c r="D1128"/>
       <c r="E1128" t="n">
@@ -23298,10 +23313,10 @@
     <row r="1129">
       <c r="A1129"/>
       <c r="B1129" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1129" t="s">
         <v>1823</v>
-      </c>
-      <c r="C1129" t="s">
-        <v>1824</v>
       </c>
       <c r="D1129"/>
       <c r="E1129" t="n">
@@ -23312,10 +23327,10 @@
     <row r="1130">
       <c r="A1130"/>
       <c r="B1130" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1130" t="s">
         <v>1825</v>
-      </c>
-      <c r="C1130" t="s">
-        <v>1826</v>
       </c>
       <c r="D1130" t="s">
         <v>31</v>
@@ -23328,10 +23343,10 @@
     <row r="1131">
       <c r="A1131"/>
       <c r="B1131" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1131" t="s">
         <v>1827</v>
-      </c>
-      <c r="C1131" t="s">
-        <v>1828</v>
       </c>
       <c r="D1131"/>
       <c r="E1131" t="n">
@@ -23342,10 +23357,10 @@
     <row r="1132">
       <c r="A1132"/>
       <c r="B1132" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1132" t="s">
         <v>1829</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>1830</v>
       </c>
       <c r="D1132" t="s">
         <v>31</v>
@@ -23358,10 +23373,10 @@
     <row r="1133">
       <c r="A1133"/>
       <c r="B1133" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1133" t="s">
         <v>1831</v>
-      </c>
-      <c r="C1133" t="s">
-        <v>1832</v>
       </c>
       <c r="D1133" t="s">
         <v>31</v>
@@ -23374,10 +23389,10 @@
     <row r="1134">
       <c r="A1134"/>
       <c r="B1134" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1134" t="s">
         <v>1833</v>
-      </c>
-      <c r="C1134" t="s">
-        <v>1834</v>
       </c>
       <c r="D1134"/>
       <c r="E1134" t="n">
@@ -23388,10 +23403,10 @@
     <row r="1135">
       <c r="A1135"/>
       <c r="B1135" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1135" t="s">
         <v>1835</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>1836</v>
       </c>
       <c r="D1135"/>
       <c r="E1135" t="n">
@@ -23402,10 +23417,10 @@
     <row r="1136">
       <c r="A1136"/>
       <c r="B1136" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1136" t="s">
         <v>1837</v>
-      </c>
-      <c r="C1136" t="s">
-        <v>1838</v>
       </c>
       <c r="D1136"/>
       <c r="E1136" t="n">
@@ -23416,10 +23431,10 @@
     <row r="1137">
       <c r="A1137"/>
       <c r="B1137" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1137" t="s">
         <v>1839</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>1840</v>
       </c>
       <c r="D1137"/>
       <c r="E1137" t="n">
@@ -23430,10 +23445,10 @@
     <row r="1138">
       <c r="A1138"/>
       <c r="B1138" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1138" t="s">
         <v>1841</v>
-      </c>
-      <c r="C1138" t="s">
-        <v>1842</v>
       </c>
       <c r="D1138"/>
       <c r="E1138" t="n">
@@ -23444,10 +23459,10 @@
     <row r="1139">
       <c r="A1139"/>
       <c r="B1139" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1139" t="s">
         <v>1843</v>
-      </c>
-      <c r="C1139" t="s">
-        <v>1844</v>
       </c>
       <c r="D1139"/>
       <c r="E1139" t="n">
@@ -23458,10 +23473,10 @@
     <row r="1140">
       <c r="A1140"/>
       <c r="B1140" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1140" t="s">
         <v>1845</v>
-      </c>
-      <c r="C1140" t="s">
-        <v>1846</v>
       </c>
       <c r="D1140"/>
       <c r="E1140" t="n">
@@ -23472,10 +23487,10 @@
     <row r="1141">
       <c r="A1141"/>
       <c r="B1141" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1141" t="s">
         <v>1847</v>
-      </c>
-      <c r="C1141" t="s">
-        <v>1848</v>
       </c>
       <c r="D1141"/>
       <c r="E1141" t="n">
@@ -23486,10 +23501,10 @@
     <row r="1142">
       <c r="A1142"/>
       <c r="B1142" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1142" t="s">
         <v>1849</v>
-      </c>
-      <c r="C1142" t="s">
-        <v>1850</v>
       </c>
       <c r="D1142"/>
       <c r="E1142" t="n">
@@ -23500,10 +23515,10 @@
     <row r="1143">
       <c r="A1143"/>
       <c r="B1143" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1143" t="s">
         <v>1851</v>
-      </c>
-      <c r="C1143" t="s">
-        <v>1852</v>
       </c>
       <c r="D1143"/>
       <c r="E1143" t="n">
@@ -23514,10 +23529,10 @@
     <row r="1144">
       <c r="A1144"/>
       <c r="B1144" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1144" t="s">
         <v>1853</v>
-      </c>
-      <c r="C1144" t="s">
-        <v>1854</v>
       </c>
       <c r="D1144" t="s">
         <v>31</v>
@@ -23530,10 +23545,10 @@
     <row r="1145">
       <c r="A1145"/>
       <c r="B1145" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C1145" t="s">
         <v>1855</v>
-      </c>
-      <c r="C1145" t="s">
-        <v>1856</v>
       </c>
       <c r="D1145" t="s">
         <v>31</v>
@@ -23553,10 +23568,10 @@
     </row>
     <row r="1147">
       <c r="A1147" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1857</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1858</v>
       </c>
       <c r="C1147" t="s">
         <v>8</v>
@@ -23570,7 +23585,7 @@
     <row r="1148">
       <c r="A1148"/>
       <c r="B1148" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C1148" t="s">
         <v>14</v>
@@ -23586,7 +23601,7 @@
     <row r="1149">
       <c r="A1149"/>
       <c r="B1149" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C1149" t="s">
         <v>16</v>
@@ -23602,7 +23617,7 @@
     <row r="1150">
       <c r="A1150"/>
       <c r="B1150" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C1150" t="s">
         <v>18</v>
@@ -23618,7 +23633,7 @@
     <row r="1151">
       <c r="A1151"/>
       <c r="B1151" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C1151" t="s">
         <v>20</v>
@@ -23634,7 +23649,7 @@
     <row r="1152">
       <c r="A1152"/>
       <c r="B1152" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C1152" t="s">
         <v>22</v>
@@ -23650,7 +23665,7 @@
     <row r="1153">
       <c r="A1153"/>
       <c r="B1153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C1153" t="s">
         <v>24</v>
@@ -23666,7 +23681,7 @@
     <row r="1154">
       <c r="A1154"/>
       <c r="B1154" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C1154" t="s">
         <v>26</v>
@@ -23682,7 +23697,7 @@
     <row r="1155">
       <c r="A1155"/>
       <c r="B1155" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C1155" t="s">
         <v>28</v>
@@ -23698,7 +23713,7 @@
     <row r="1156">
       <c r="A1156"/>
       <c r="B1156" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C1156" t="s">
         <v>30</v>
@@ -23716,7 +23731,7 @@
     <row r="1157">
       <c r="A1157"/>
       <c r="B1157" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C1157" t="s">
         <v>33</v>
@@ -23734,7 +23749,7 @@
     <row r="1158">
       <c r="A1158"/>
       <c r="B1158" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C1158" t="s">
         <v>35</v>
@@ -23748,10 +23763,10 @@
     <row r="1159">
       <c r="A1159"/>
       <c r="B1159" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1159" t="s">
         <v>1870</v>
-      </c>
-      <c r="C1159" t="s">
-        <v>1871</v>
       </c>
       <c r="D1159"/>
       <c r="E1159" t="n">
@@ -23762,10 +23777,10 @@
     <row r="1160">
       <c r="A1160"/>
       <c r="B1160" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1160" t="s">
         <v>1872</v>
-      </c>
-      <c r="C1160" t="s">
-        <v>1873</v>
       </c>
       <c r="D1160"/>
       <c r="E1160" t="n">
@@ -23776,10 +23791,10 @@
     <row r="1161">
       <c r="A1161"/>
       <c r="B1161" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1161" t="s">
         <v>1874</v>
-      </c>
-      <c r="C1161" t="s">
-        <v>1875</v>
       </c>
       <c r="D1161"/>
       <c r="E1161" t="n">
@@ -23788,6 +23803,64 @@
       <c r="F1161" t="n">
         <v>3</v>
       </c>
+    </row>
+    <row r="1162">
+      <c r="A1162"/>
+      <c r="B1162"/>
+      <c r="C1162"/>
+      <c r="D1162"/>
+      <c r="E1162"/>
+      <c r="F1162"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1163"/>
+    </row>
+    <row r="1164">
+      <c r="A1164"/>
+      <c r="B1164" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1164"/>
+    </row>
+    <row r="1165">
+      <c r="A1165"/>
+      <c r="B1165" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1165"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1882">
   <si>
     <t xml:space="preserve">table</t>
   </si>
@@ -3200,1000 +3200,1003 @@
     <t xml:space="preserve">medstat_id</t>
   </si>
   <si>
-    <t xml:space="preserve">identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifier_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partof_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basedon_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusreason_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusreason_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusreason_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusreason_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusreason_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicationreference_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicationcodeableconcept_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicationcodeableconcept_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicationcodeableconcept_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicationcodeableconcept_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicationcodeableconcept_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effectivedatetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effectiveperiod_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effectiveperiod_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateasserted</t>
+    <t xml:space="preserve">medstat_identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_identifier_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_encounter_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_patient_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_partof_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_basedon_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_statusreason_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_statusreason_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_statusreason_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_statusreason_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_statusreason_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_category_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_category_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_category_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_category_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_category_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_medicationreference_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_medicationcodeableconcept_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_medicationcodeableconcept_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_medicationcodeableconcept_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_medicationcodeableconcept_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_medicationcodeableconcept_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_effectivedatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_effectiveperiod_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_effectiveperiod_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dateasserted</t>
   </si>
   <si>
     <t xml:space="preserve">dateAsserted</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_id</t>
+    <t xml:space="preserve">medstat_informationsource_id</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/reference</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_type</t>
+    <t xml:space="preserve">medstat_informationsource_type</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/type</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_identifier_use</t>
+    <t xml:space="preserve">medstat_informationsource_identifier_use</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/use</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_identifier_type_system</t>
+    <t xml:space="preserve">medstat_informationsource_identifier_type_system</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_identifier_type_version</t>
+    <t xml:space="preserve">medstat_informationsource_identifier_type_version</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_identifier_type_code</t>
+    <t xml:space="preserve">medstat_informationsource_identifier_type_code</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_identifier_type_display</t>
+    <t xml:space="preserve">medstat_informationsource_identifier_type_display</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_identifier_type_text</t>
+    <t xml:space="preserve">medstat_informationsource_identifier_type_text</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/identifier/type/text</t>
   </si>
   <si>
-    <t xml:space="preserve">informationsource_display</t>
+    <t xml:space="preserve">medstat_informationsource_display</t>
   </si>
   <si>
     <t xml:space="preserve">informationSource/display</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_id</t>
+    <t xml:space="preserve">medstat_derivedfrom_id</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/reference</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_type</t>
+    <t xml:space="preserve">medstat_derivedfrom_type</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/type</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_identifier_use</t>
+    <t xml:space="preserve">medstat_derivedfrom_identifier_use</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/use</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_identifier_type_system</t>
+    <t xml:space="preserve">medstat_derivedfrom_identifier_type_system</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_identifier_type_version</t>
+    <t xml:space="preserve">medstat_derivedfrom_identifier_type_version</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_identifier_type_code</t>
+    <t xml:space="preserve">medstat_derivedfrom_identifier_type_code</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_identifier_type_display</t>
+    <t xml:space="preserve">medstat_derivedfrom_identifier_type_display</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_identifier_type_text</t>
+    <t xml:space="preserve">medstat_derivedfrom_identifier_type_text</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/identifier/type/text</t>
   </si>
   <si>
-    <t xml:space="preserve">derivedfrom_display</t>
+    <t xml:space="preserve">medstat_derivedfrom_display</t>
   </si>
   <si>
     <t xml:space="preserve">derivedFrom/display</t>
   </si>
   <si>
-    <t xml:space="preserve">reasoncode_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasoncode_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasoncode_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasoncode_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasoncode_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonreference_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_identifier_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_identifier_type_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_identifier_type_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_identifier_type_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_identifier_type_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_identifier_type_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_authorreference_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_sequence</t>
+    <t xml:space="preserve">medstat_reasoncode_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasoncode_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasoncode_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasoncode_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasoncode_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_reasonreference_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_identifier_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_identifier_type_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_identifier_type_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_identifier_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_identifier_type_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_identifier_type_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_authorreference_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_note_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_sequence</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_additionalinstruction_system</t>
+    <t xml:space="preserve">medstat_dosage_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_additionalinstruction_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_additionalinstruction_version</t>
+    <t xml:space="preserve">medstat_dosage_additionalinstruction_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_additionalinstruction_code</t>
+    <t xml:space="preserve">medstat_dosage_additionalinstruction_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_additionalinstruction_display</t>
+    <t xml:space="preserve">medstat_dosage_additionalinstruction_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_additionalinstruction_text</t>
+    <t xml:space="preserve">medstat_dosage_additionalinstruction_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/additionalInstruction/text</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_patientinstruction</t>
+    <t xml:space="preserve">medstat_dosage_patientinstruction</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/patientInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_event</t>
+    <t xml:space="preserve">medstat_dosage_timing_event</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/event</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsduration_value</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsduration_comparator</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsduration_unit</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsduration_system</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsduration_code</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsduration_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsDuration/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_value</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_unit</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_system</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_low_code</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_low_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/low/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_value</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_unit</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_system</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsrange_high_code</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsrange_high_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsRange/high/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsperiod_start</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsperiod_start</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsPeriod/start</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_boundsperiod_end</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_boundsperiod_end</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/boundsPeriod/end</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_count</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_count</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/count</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_countmax</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_countmax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/countMax</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_duration</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_duration</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/duration</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_durationmax</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_durationmax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/durationMax</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_durationunit</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_durationunit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/durationUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_frequency</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_frequencymax</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_frequencymax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/frequencyMax</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_period</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_period</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/period</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_periodmax</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_periodmax</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/periodMax</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_periodunit</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_periodunit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/periodUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_dayofweek</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_dayofweek</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/dayOfWeek</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_timeofday</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_timeofday</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/timeOfDay</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_when</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_when</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/when</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_repeat_offset</t>
+    <t xml:space="preserve">medstat_dosage_timing_repeat_offset</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/repeat/offset</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_code_system</t>
+    <t xml:space="preserve">medstat_dosage_timing_code_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_code_version</t>
+    <t xml:space="preserve">medstat_dosage_timing_code_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_code_code</t>
+    <t xml:space="preserve">medstat_dosage_timing_code_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_code_display</t>
+    <t xml:space="preserve">medstat_dosage_timing_code_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_timing_code_text</t>
+    <t xml:space="preserve">medstat_dosage_timing_code_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/timing/code/text</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_asneededboolean</t>
+    <t xml:space="preserve">medstat_dosage_asneededboolean</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededBoolean</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_asneededcodeableconcept_system</t>
+    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_asneededcodeableconcept_version</t>
+    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_asneededcodeableconcept_code</t>
+    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_asneededcodeableconcept_display</t>
+    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_asneededcodeableconcept_text</t>
+    <t xml:space="preserve">medstat_dosage_asneededcodeableconcept_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/asNeededCodeableConcept/text</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_site_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_site_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_site_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_site_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_site_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_route_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_route_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_route_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_route_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_route_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_method_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_method_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_method_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_method_display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_method_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosage_doseandrate_type_system</t>
+    <t xml:space="preserve">medstat_dosage_site_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_site_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_site_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_site_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_site_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_route_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_route_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_route_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_route_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_route_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_method_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_method_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_method_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_method_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_method_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medstat_dosage_doseandrate_type_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_type_version</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_type_version</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/version</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_type_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_type_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_type_display</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_type_display</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/coding/display</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_type_text</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_type_text</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/type/text</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_low_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_low_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_low_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_low_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_low_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/low/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_high_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_high_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_high_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_doserange_high_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_doserange_high_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseRange/high/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_dosequantity_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_dosequantity_comparator</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_dosequantity_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_dosequantity_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_dosequantity_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_dosequantity_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/doseQuantity/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_comparator</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_numerator_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_numerator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/numerator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_comparator</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_rateratio_denominator_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_rateratio_denominator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRatio/denominator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_low_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_low_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_low_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_low_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_low_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/low/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_high_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_high_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_high_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_raterange_high_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_raterange_high_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateRange/high/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_ratequantity_value</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_ratequantity_unit</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_ratequantity_system</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_doseandrate_ratequantity_code</t>
+    <t xml:space="preserve">medstat_dosage_doseandrate_ratequantity_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/doseAndRate/rateQuantity/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_value</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_comparator</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_unit</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_system</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_numerator_code</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_numerator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/numerator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_value</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_comparator</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_comparator</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/comparator</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_unit</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_system</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperperiod_denominator_code</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperperiod_denominator_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerPeriod/denominator/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperadministration_value</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperadministration_unit</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperadministration_system</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperadministration_code</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperadministration_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerAdministration/code</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperlifetime_value</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_value</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/value</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperlifetime_unit</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_unit</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/unit</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperlifetime_system</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_system</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/system</t>
   </si>
   <si>
-    <t xml:space="preserve">dosage_maxdoseperlifetime_code</t>
+    <t xml:space="preserve">medstat_dosage_maxdoseperlifetime_code</t>
   </si>
   <si>
     <t xml:space="preserve">dosage/maxDosePerLifetime/code</t>
@@ -15561,7 +15564,7 @@
     <row r="620">
       <c r="A620"/>
       <c r="B620" t="s">
-        <v>35</v>
+        <v>1084</v>
       </c>
       <c r="C620" t="s">
         <v>35</v>
@@ -15575,7 +15578,7 @@
     <row r="621">
       <c r="A621"/>
       <c r="B621" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C621" t="s">
         <v>507</v>
@@ -15589,7 +15592,7 @@
     <row r="622">
       <c r="A622"/>
       <c r="B622" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C622" t="s">
         <v>509</v>
@@ -15603,7 +15606,7 @@
     <row r="623">
       <c r="A623"/>
       <c r="B623" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C623" t="s">
         <v>511</v>
@@ -15617,7 +15620,7 @@
     <row r="624">
       <c r="A624"/>
       <c r="B624" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C624" t="s">
         <v>513</v>
@@ -15631,7 +15634,7 @@
     <row r="625">
       <c r="A625"/>
       <c r="B625" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C625" t="s">
         <v>515</v>
@@ -15645,7 +15648,7 @@
     <row r="626">
       <c r="A626"/>
       <c r="B626" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C626" t="s">
         <v>210</v>
@@ -15659,7 +15662,7 @@
     <row r="627">
       <c r="A627"/>
       <c r="B627" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C627" t="s">
         <v>212</v>
@@ -15673,7 +15676,7 @@
     <row r="628">
       <c r="A628"/>
       <c r="B628" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C628" t="s">
         <v>214</v>
@@ -15687,7 +15690,7 @@
     <row r="629">
       <c r="A629"/>
       <c r="B629" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C629" t="s">
         <v>216</v>
@@ -15701,7 +15704,7 @@
     <row r="630">
       <c r="A630"/>
       <c r="B630" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C630" t="s">
         <v>218</v>
@@ -15715,7 +15718,7 @@
     <row r="631">
       <c r="A631"/>
       <c r="B631" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C631" t="s">
         <v>504</v>
@@ -15729,7 +15732,7 @@
     <row r="632">
       <c r="A632"/>
       <c r="B632" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C632" t="s">
         <v>546</v>
@@ -15743,7 +15746,7 @@
     <row r="633">
       <c r="A633"/>
       <c r="B633" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C633" t="s">
         <v>548</v>
@@ -15757,7 +15760,7 @@
     <row r="634">
       <c r="A634"/>
       <c r="B634" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C634" t="s">
         <v>550</v>
@@ -15771,7 +15774,7 @@
     <row r="635">
       <c r="A635"/>
       <c r="B635" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C635" t="s">
         <v>552</v>
@@ -15785,7 +15788,7 @@
     <row r="636">
       <c r="A636"/>
       <c r="B636" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C636" t="s">
         <v>554</v>
@@ -15799,7 +15802,7 @@
     <row r="637">
       <c r="A637"/>
       <c r="B637" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C637" t="s">
         <v>949</v>
@@ -15815,7 +15818,7 @@
     <row r="638">
       <c r="A638"/>
       <c r="B638" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C638" t="s">
         <v>951</v>
@@ -15831,7 +15834,7 @@
     <row r="639">
       <c r="A639"/>
       <c r="B639" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C639" t="s">
         <v>953</v>
@@ -15847,10 +15850,10 @@
     <row r="640">
       <c r="A640"/>
       <c r="B640" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C640" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D640" t="s">
         <v>31</v>
@@ -15863,10 +15866,10 @@
     <row r="641">
       <c r="A641"/>
       <c r="B641" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C641" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D641"/>
       <c r="E641" t="n">
@@ -15877,10 +15880,10 @@
     <row r="642">
       <c r="A642"/>
       <c r="B642" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C642" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D642"/>
       <c r="E642" t="n">
@@ -15891,10 +15894,10 @@
     <row r="643">
       <c r="A643"/>
       <c r="B643" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C643" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D643"/>
       <c r="E643" t="n">
@@ -15905,10 +15908,10 @@
     <row r="644">
       <c r="A644"/>
       <c r="B644" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C644" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D644"/>
       <c r="E644" t="n">
@@ -15919,10 +15922,10 @@
     <row r="645">
       <c r="A645"/>
       <c r="B645" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C645" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D645"/>
       <c r="E645" t="n">
@@ -15933,10 +15936,10 @@
     <row r="646">
       <c r="A646"/>
       <c r="B646" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C646" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D646"/>
       <c r="E646" t="n">
@@ -15947,10 +15950,10 @@
     <row r="647">
       <c r="A647"/>
       <c r="B647" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C647" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D647"/>
       <c r="E647" t="n">
@@ -15961,10 +15964,10 @@
     <row r="648">
       <c r="A648"/>
       <c r="B648" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C648" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D648"/>
       <c r="E648" t="n">
@@ -15975,10 +15978,10 @@
     <row r="649">
       <c r="A649"/>
       <c r="B649" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C649" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D649"/>
       <c r="E649" t="n">
@@ -15989,10 +15992,10 @@
     <row r="650">
       <c r="A650"/>
       <c r="B650" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C650" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D650"/>
       <c r="E650" t="n">
@@ -16003,10 +16006,10 @@
     <row r="651">
       <c r="A651"/>
       <c r="B651" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C651" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D651"/>
       <c r="E651" t="n">
@@ -16017,10 +16020,10 @@
     <row r="652">
       <c r="A652"/>
       <c r="B652" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C652" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D652"/>
       <c r="E652" t="n">
@@ -16031,10 +16034,10 @@
     <row r="653">
       <c r="A653"/>
       <c r="B653" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C653" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D653"/>
       <c r="E653" t="n">
@@ -16045,10 +16048,10 @@
     <row r="654">
       <c r="A654"/>
       <c r="B654" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C654" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D654"/>
       <c r="E654" t="n">
@@ -16059,10 +16062,10 @@
     <row r="655">
       <c r="A655"/>
       <c r="B655" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C655" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D655"/>
       <c r="E655" t="n">
@@ -16073,10 +16076,10 @@
     <row r="656">
       <c r="A656"/>
       <c r="B656" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C656" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D656"/>
       <c r="E656" t="n">
@@ -16087,10 +16090,10 @@
     <row r="657">
       <c r="A657"/>
       <c r="B657" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C657" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D657"/>
       <c r="E657" t="n">
@@ -16101,10 +16104,10 @@
     <row r="658">
       <c r="A658"/>
       <c r="B658" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C658" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D658"/>
       <c r="E658" t="n">
@@ -16115,7 +16118,7 @@
     <row r="659">
       <c r="A659"/>
       <c r="B659" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C659" t="s">
         <v>594</v>
@@ -16129,7 +16132,7 @@
     <row r="660">
       <c r="A660"/>
       <c r="B660" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C660" t="s">
         <v>596</v>
@@ -16143,7 +16146,7 @@
     <row r="661">
       <c r="A661"/>
       <c r="B661" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C661" t="s">
         <v>598</v>
@@ -16157,7 +16160,7 @@
     <row r="662">
       <c r="A662"/>
       <c r="B662" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C662" t="s">
         <v>600</v>
@@ -16171,7 +16174,7 @@
     <row r="663">
       <c r="A663"/>
       <c r="B663" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C663" t="s">
         <v>602</v>
@@ -16185,7 +16188,7 @@
     <row r="664">
       <c r="A664"/>
       <c r="B664" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C664" t="s">
         <v>604</v>
@@ -16201,7 +16204,7 @@
     <row r="665">
       <c r="A665"/>
       <c r="B665" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C665" t="s">
         <v>606</v>
@@ -16217,7 +16220,7 @@
     <row r="666">
       <c r="A666"/>
       <c r="B666" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C666" t="s">
         <v>608</v>
@@ -16233,7 +16236,7 @@
     <row r="667">
       <c r="A667"/>
       <c r="B667" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C667" t="s">
         <v>610</v>
@@ -16249,7 +16252,7 @@
     <row r="668">
       <c r="A668"/>
       <c r="B668" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C668" t="s">
         <v>612</v>
@@ -16265,7 +16268,7 @@
     <row r="669">
       <c r="A669"/>
       <c r="B669" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C669" t="s">
         <v>614</v>
@@ -16281,7 +16284,7 @@
     <row r="670">
       <c r="A670"/>
       <c r="B670" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C670" t="s">
         <v>616</v>
@@ -16297,7 +16300,7 @@
     <row r="671">
       <c r="A671"/>
       <c r="B671" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C671" t="s">
         <v>618</v>
@@ -16313,7 +16316,7 @@
     <row r="672">
       <c r="A672"/>
       <c r="B672" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C672" t="s">
         <v>620</v>
@@ -16329,7 +16332,7 @@
     <row r="673">
       <c r="A673"/>
       <c r="B673" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C673" t="s">
         <v>367</v>
@@ -16345,7 +16348,7 @@
     <row r="674">
       <c r="A674"/>
       <c r="B674" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C674" t="s">
         <v>369</v>
@@ -16361,7 +16364,7 @@
     <row r="675">
       <c r="A675"/>
       <c r="B675" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C675" t="s">
         <v>371</v>
@@ -16377,7 +16380,7 @@
     <row r="676">
       <c r="A676"/>
       <c r="B676" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C676" t="s">
         <v>373</v>
@@ -16393,7 +16396,7 @@
     <row r="677">
       <c r="A677"/>
       <c r="B677" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C677" t="s">
         <v>375</v>
@@ -16409,7 +16412,7 @@
     <row r="678">
       <c r="A678"/>
       <c r="B678" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C678" t="s">
         <v>377</v>
@@ -16425,7 +16428,7 @@
     <row r="679">
       <c r="A679"/>
       <c r="B679" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C679" t="s">
         <v>379</v>
@@ -16441,7 +16444,7 @@
     <row r="680">
       <c r="A680"/>
       <c r="B680" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C680" t="s">
         <v>381</v>
@@ -16457,7 +16460,7 @@
     <row r="681">
       <c r="A681"/>
       <c r="B681" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C681" t="s">
         <v>383</v>
@@ -16473,7 +16476,7 @@
     <row r="682">
       <c r="A682"/>
       <c r="B682" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C682" t="s">
         <v>385</v>
@@ -16489,7 +16492,7 @@
     <row r="683">
       <c r="A683"/>
       <c r="B683" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C683" t="s">
         <v>387</v>
@@ -16507,7 +16510,7 @@
     <row r="684">
       <c r="A684"/>
       <c r="B684" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C684" t="s">
         <v>389</v>
@@ -16523,10 +16526,10 @@
     <row r="685">
       <c r="A685"/>
       <c r="B685" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C685" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D685" t="s">
         <v>82</v>
@@ -16541,7 +16544,7 @@
     <row r="686">
       <c r="A686"/>
       <c r="B686" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C686" t="s">
         <v>993</v>
@@ -16557,10 +16560,10 @@
     <row r="687">
       <c r="A687"/>
       <c r="B687" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C687" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D687"/>
       <c r="E687" t="n">
@@ -16573,10 +16576,10 @@
     <row r="688">
       <c r="A688"/>
       <c r="B688" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C688" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D688"/>
       <c r="E688" t="n">
@@ -16589,10 +16592,10 @@
     <row r="689">
       <c r="A689"/>
       <c r="B689" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C689" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D689"/>
       <c r="E689" t="n">
@@ -16605,10 +16608,10 @@
     <row r="690">
       <c r="A690"/>
       <c r="B690" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C690" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D690"/>
       <c r="E690" t="n">
@@ -16621,10 +16624,10 @@
     <row r="691">
       <c r="A691"/>
       <c r="B691" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C691" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D691"/>
       <c r="E691" t="n">
@@ -16637,10 +16640,10 @@
     <row r="692">
       <c r="A692"/>
       <c r="B692" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C692" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D692"/>
       <c r="E692" t="n">
@@ -16653,10 +16656,10 @@
     <row r="693">
       <c r="A693"/>
       <c r="B693" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C693" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D693" t="s">
         <v>31</v>
@@ -16671,10 +16674,10 @@
     <row r="694">
       <c r="A694"/>
       <c r="B694" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C694" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D694" t="s">
         <v>259</v>
@@ -16689,10 +16692,10 @@
     <row r="695">
       <c r="A695"/>
       <c r="B695" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C695" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D695"/>
       <c r="E695" t="n">
@@ -16705,10 +16708,10 @@
     <row r="696">
       <c r="A696"/>
       <c r="B696" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C696" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D696"/>
       <c r="E696" t="n">
@@ -16721,10 +16724,10 @@
     <row r="697">
       <c r="A697"/>
       <c r="B697" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C697" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D697"/>
       <c r="E697" t="n">
@@ -16737,10 +16740,10 @@
     <row r="698">
       <c r="A698"/>
       <c r="B698" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C698" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D698"/>
       <c r="E698" t="n">
@@ -16753,10 +16756,10 @@
     <row r="699">
       <c r="A699"/>
       <c r="B699" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C699" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D699" t="s">
         <v>259</v>
@@ -16771,10 +16774,10 @@
     <row r="700">
       <c r="A700"/>
       <c r="B700" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C700" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D700"/>
       <c r="E700" t="n">
@@ -16787,10 +16790,10 @@
     <row r="701">
       <c r="A701"/>
       <c r="B701" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C701" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D701"/>
       <c r="E701" t="n">
@@ -16803,10 +16806,10 @@
     <row r="702">
       <c r="A702"/>
       <c r="B702" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C702" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D702"/>
       <c r="E702" t="n">
@@ -16819,10 +16822,10 @@
     <row r="703">
       <c r="A703"/>
       <c r="B703" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C703" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D703" t="s">
         <v>259</v>
@@ -16837,10 +16840,10 @@
     <row r="704">
       <c r="A704"/>
       <c r="B704" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C704" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D704"/>
       <c r="E704" t="n">
@@ -16853,10 +16856,10 @@
     <row r="705">
       <c r="A705"/>
       <c r="B705" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C705" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D705"/>
       <c r="E705" t="n">
@@ -16869,10 +16872,10 @@
     <row r="706">
       <c r="A706"/>
       <c r="B706" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C706" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D706"/>
       <c r="E706" t="n">
@@ -16885,10 +16888,10 @@
     <row r="707">
       <c r="A707"/>
       <c r="B707" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C707" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D707" t="s">
         <v>31</v>
@@ -16903,10 +16906,10 @@
     <row r="708">
       <c r="A708"/>
       <c r="B708" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C708" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D708" t="s">
         <v>31</v>
@@ -16921,10 +16924,10 @@
     <row r="709">
       <c r="A709"/>
       <c r="B709" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D709" t="s">
         <v>82</v>
@@ -16939,10 +16942,10 @@
     <row r="710">
       <c r="A710"/>
       <c r="B710" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C710" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D710" t="s">
         <v>82</v>
@@ -16957,10 +16960,10 @@
     <row r="711">
       <c r="A711"/>
       <c r="B711" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C711" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D711" t="s">
         <v>259</v>
@@ -16975,10 +16978,10 @@
     <row r="712">
       <c r="A712"/>
       <c r="B712" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C712" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D712" t="s">
         <v>259</v>
@@ -16993,10 +16996,10 @@
     <row r="713">
       <c r="A713"/>
       <c r="B713" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C713" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D713"/>
       <c r="E713" t="n">
@@ -17009,10 +17012,10 @@
     <row r="714">
       <c r="A714"/>
       <c r="B714" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C714" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D714" t="s">
         <v>82</v>
@@ -17027,10 +17030,10 @@
     <row r="715">
       <c r="A715"/>
       <c r="B715" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C715" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D715" t="s">
         <v>82</v>
@@ -17045,10 +17048,10 @@
     <row r="716">
       <c r="A716"/>
       <c r="B716" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C716" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D716" t="s">
         <v>259</v>
@@ -17063,10 +17066,10 @@
     <row r="717">
       <c r="A717"/>
       <c r="B717" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C717" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D717" t="s">
         <v>259</v>
@@ -17081,10 +17084,10 @@
     <row r="718">
       <c r="A718"/>
       <c r="B718" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C718" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D718"/>
       <c r="E718" t="n">
@@ -17097,10 +17100,10 @@
     <row r="719">
       <c r="A719"/>
       <c r="B719" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C719" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D719"/>
       <c r="E719" t="n">
@@ -17113,10 +17116,10 @@
     <row r="720">
       <c r="A720"/>
       <c r="B720" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C720" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D720" t="s">
         <v>723</v>
@@ -17131,10 +17134,10 @@
     <row r="721">
       <c r="A721"/>
       <c r="B721" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C721" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D721"/>
       <c r="E721" t="n">
@@ -17147,10 +17150,10 @@
     <row r="722">
       <c r="A722"/>
       <c r="B722" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C722" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D722" t="s">
         <v>82</v>
@@ -17165,10 +17168,10 @@
     <row r="723">
       <c r="A723"/>
       <c r="B723" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C723" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D723"/>
       <c r="E723" t="n">
@@ -17181,10 +17184,10 @@
     <row r="724">
       <c r="A724"/>
       <c r="B724" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C724" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D724"/>
       <c r="E724" t="n">
@@ -17197,10 +17200,10 @@
     <row r="725">
       <c r="A725"/>
       <c r="B725" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C725" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D725"/>
       <c r="E725" t="n">
@@ -17213,10 +17216,10 @@
     <row r="726">
       <c r="A726"/>
       <c r="B726" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C726" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D726"/>
       <c r="E726" t="n">
@@ -17229,10 +17232,10 @@
     <row r="727">
       <c r="A727"/>
       <c r="B727" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C727" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D727"/>
       <c r="E727" t="n">
@@ -17245,10 +17248,10 @@
     <row r="728">
       <c r="A728"/>
       <c r="B728" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C728" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D728" t="s">
         <v>488</v>
@@ -17263,10 +17266,10 @@
     <row r="729">
       <c r="A729"/>
       <c r="B729" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C729" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D729"/>
       <c r="E729" t="n">
@@ -17279,10 +17282,10 @@
     <row r="730">
       <c r="A730"/>
       <c r="B730" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C730" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D730"/>
       <c r="E730" t="n">
@@ -17295,10 +17298,10 @@
     <row r="731">
       <c r="A731"/>
       <c r="B731" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C731" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D731"/>
       <c r="E731" t="n">
@@ -17311,10 +17314,10 @@
     <row r="732">
       <c r="A732"/>
       <c r="B732" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C732" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D732"/>
       <c r="E732" t="n">
@@ -17327,10 +17330,10 @@
     <row r="733">
       <c r="A733"/>
       <c r="B733" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C733" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D733"/>
       <c r="E733" t="n">
@@ -17343,7 +17346,7 @@
     <row r="734">
       <c r="A734"/>
       <c r="B734" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C734" t="s">
         <v>995</v>
@@ -17359,7 +17362,7 @@
     <row r="735">
       <c r="A735"/>
       <c r="B735" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C735" t="s">
         <v>997</v>
@@ -17375,7 +17378,7 @@
     <row r="736">
       <c r="A736"/>
       <c r="B736" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C736" t="s">
         <v>999</v>
@@ -17391,7 +17394,7 @@
     <row r="737">
       <c r="A737"/>
       <c r="B737" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C737" t="s">
         <v>1001</v>
@@ -17407,7 +17410,7 @@
     <row r="738">
       <c r="A738"/>
       <c r="B738" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C738" t="s">
         <v>1003</v>
@@ -17423,7 +17426,7 @@
     <row r="739">
       <c r="A739"/>
       <c r="B739" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C739" t="s">
         <v>1005</v>
@@ -17439,7 +17442,7 @@
     <row r="740">
       <c r="A740"/>
       <c r="B740" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C740" t="s">
         <v>1007</v>
@@ -17455,7 +17458,7 @@
     <row r="741">
       <c r="A741"/>
       <c r="B741" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C741" t="s">
         <v>1009</v>
@@ -17471,7 +17474,7 @@
     <row r="742">
       <c r="A742"/>
       <c r="B742" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C742" t="s">
         <v>1011</v>
@@ -17487,7 +17490,7 @@
     <row r="743">
       <c r="A743"/>
       <c r="B743" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C743" t="s">
         <v>1013</v>
@@ -17503,7 +17506,7 @@
     <row r="744">
       <c r="A744"/>
       <c r="B744" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C744" t="s">
         <v>1015</v>
@@ -17519,7 +17522,7 @@
     <row r="745">
       <c r="A745"/>
       <c r="B745" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C745" t="s">
         <v>1017</v>
@@ -17535,7 +17538,7 @@
     <row r="746">
       <c r="A746"/>
       <c r="B746" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C746" t="s">
         <v>1019</v>
@@ -17551,7 +17554,7 @@
     <row r="747">
       <c r="A747"/>
       <c r="B747" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C747" t="s">
         <v>1021</v>
@@ -17567,7 +17570,7 @@
     <row r="748">
       <c r="A748"/>
       <c r="B748" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C748" t="s">
         <v>1023</v>
@@ -17583,10 +17586,10 @@
     <row r="749">
       <c r="A749"/>
       <c r="B749" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C749" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D749"/>
       <c r="E749" t="n">
@@ -17599,10 +17602,10 @@
     <row r="750">
       <c r="A750"/>
       <c r="B750" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C750" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D750"/>
       <c r="E750" t="n">
@@ -17615,10 +17618,10 @@
     <row r="751">
       <c r="A751"/>
       <c r="B751" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C751" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D751"/>
       <c r="E751" t="n">
@@ -17631,10 +17634,10 @@
     <row r="752">
       <c r="A752"/>
       <c r="B752" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C752" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D752"/>
       <c r="E752" t="n">
@@ -17647,10 +17650,10 @@
     <row r="753">
       <c r="A753"/>
       <c r="B753" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C753" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D753"/>
       <c r="E753" t="n">
@@ -17663,10 +17666,10 @@
     <row r="754">
       <c r="A754"/>
       <c r="B754" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C754" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D754" t="s">
         <v>259</v>
@@ -17681,10 +17684,10 @@
     <row r="755">
       <c r="A755"/>
       <c r="B755" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C755" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D755"/>
       <c r="E755" t="n">
@@ -17697,10 +17700,10 @@
     <row r="756">
       <c r="A756"/>
       <c r="B756" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C756" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D756"/>
       <c r="E756" t="n">
@@ -17713,10 +17716,10 @@
     <row r="757">
       <c r="A757"/>
       <c r="B757" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C757" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D757"/>
       <c r="E757" t="n">
@@ -17729,10 +17732,10 @@
     <row r="758">
       <c r="A758"/>
       <c r="B758" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C758" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D758" t="s">
         <v>259</v>
@@ -17747,10 +17750,10 @@
     <row r="759">
       <c r="A759"/>
       <c r="B759" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C759" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D759"/>
       <c r="E759" t="n">
@@ -17763,10 +17766,10 @@
     <row r="760">
       <c r="A760"/>
       <c r="B760" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C760" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D760"/>
       <c r="E760" t="n">
@@ -17779,10 +17782,10 @@
     <row r="761">
       <c r="A761"/>
       <c r="B761" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C761" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D761"/>
       <c r="E761" t="n">
@@ -17795,10 +17798,10 @@
     <row r="762">
       <c r="A762"/>
       <c r="B762" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C762" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D762" t="s">
         <v>259</v>
@@ -17813,10 +17816,10 @@
     <row r="763">
       <c r="A763"/>
       <c r="B763" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C763" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D763"/>
       <c r="E763" t="n">
@@ -17829,10 +17832,10 @@
     <row r="764">
       <c r="A764"/>
       <c r="B764" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C764" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D764"/>
       <c r="E764" t="n">
@@ -17845,10 +17848,10 @@
     <row r="765">
       <c r="A765"/>
       <c r="B765" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C765" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D765"/>
       <c r="E765" t="n">
@@ -17861,10 +17864,10 @@
     <row r="766">
       <c r="A766"/>
       <c r="B766" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C766" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D766"/>
       <c r="E766" t="n">
@@ -17877,10 +17880,10 @@
     <row r="767">
       <c r="A767"/>
       <c r="B767" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C767" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D767" t="s">
         <v>259</v>
@@ -17895,10 +17898,10 @@
     <row r="768">
       <c r="A768"/>
       <c r="B768" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C768" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D768"/>
       <c r="E768" t="n">
@@ -17911,10 +17914,10 @@
     <row r="769">
       <c r="A769"/>
       <c r="B769" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C769" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D769"/>
       <c r="E769" t="n">
@@ -17927,10 +17930,10 @@
     <row r="770">
       <c r="A770"/>
       <c r="B770" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C770" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D770"/>
       <c r="E770" t="n">
@@ -17943,10 +17946,10 @@
     <row r="771">
       <c r="A771"/>
       <c r="B771" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C771" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D771"/>
       <c r="E771" t="n">
@@ -17959,10 +17962,10 @@
     <row r="772">
       <c r="A772"/>
       <c r="B772" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C772" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D772" t="s">
         <v>259</v>
@@ -17977,10 +17980,10 @@
     <row r="773">
       <c r="A773"/>
       <c r="B773" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C773" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D773"/>
       <c r="E773" t="n">
@@ -17993,10 +17996,10 @@
     <row r="774">
       <c r="A774"/>
       <c r="B774" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C774" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D774"/>
       <c r="E774" t="n">
@@ -18009,10 +18012,10 @@
     <row r="775">
       <c r="A775"/>
       <c r="B775" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C775" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D775"/>
       <c r="E775" t="n">
@@ -18025,10 +18028,10 @@
     <row r="776">
       <c r="A776"/>
       <c r="B776" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C776" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D776"/>
       <c r="E776" t="n">
@@ -18041,10 +18044,10 @@
     <row r="777">
       <c r="A777"/>
       <c r="B777" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C777" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D777" t="s">
         <v>259</v>
@@ -18059,10 +18062,10 @@
     <row r="778">
       <c r="A778"/>
       <c r="B778" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C778" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D778"/>
       <c r="E778" t="n">
@@ -18075,10 +18078,10 @@
     <row r="779">
       <c r="A779"/>
       <c r="B779" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C779" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D779"/>
       <c r="E779" t="n">
@@ -18091,10 +18094,10 @@
     <row r="780">
       <c r="A780"/>
       <c r="B780" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C780" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D780"/>
       <c r="E780" t="n">
@@ -18107,10 +18110,10 @@
     <row r="781">
       <c r="A781"/>
       <c r="B781" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C781" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D781" t="s">
         <v>259</v>
@@ -18125,10 +18128,10 @@
     <row r="782">
       <c r="A782"/>
       <c r="B782" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C782" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D782"/>
       <c r="E782" t="n">
@@ -18141,10 +18144,10 @@
     <row r="783">
       <c r="A783"/>
       <c r="B783" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C783" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D783"/>
       <c r="E783" t="n">
@@ -18157,10 +18160,10 @@
     <row r="784">
       <c r="A784"/>
       <c r="B784" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C784" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D784"/>
       <c r="E784" t="n">
@@ -18173,10 +18176,10 @@
     <row r="785">
       <c r="A785"/>
       <c r="B785" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C785" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D785" t="s">
         <v>259</v>
@@ -18191,10 +18194,10 @@
     <row r="786">
       <c r="A786"/>
       <c r="B786" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C786" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D786"/>
       <c r="E786" t="n">
@@ -18207,10 +18210,10 @@
     <row r="787">
       <c r="A787"/>
       <c r="B787" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C787" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D787"/>
       <c r="E787" t="n">
@@ -18223,10 +18226,10 @@
     <row r="788">
       <c r="A788"/>
       <c r="B788" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C788" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D788"/>
       <c r="E788" t="n">
@@ -18239,10 +18242,10 @@
     <row r="789">
       <c r="A789"/>
       <c r="B789" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C789" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D789" t="s">
         <v>259</v>
@@ -18257,10 +18260,10 @@
     <row r="790">
       <c r="A790"/>
       <c r="B790" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C790" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D790"/>
       <c r="E790" t="n">
@@ -18273,10 +18276,10 @@
     <row r="791">
       <c r="A791"/>
       <c r="B791" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C791" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D791"/>
       <c r="E791" t="n">
@@ -18289,10 +18292,10 @@
     <row r="792">
       <c r="A792"/>
       <c r="B792" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C792" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D792"/>
       <c r="E792" t="n">
@@ -18305,10 +18308,10 @@
     <row r="793">
       <c r="A793"/>
       <c r="B793" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C793" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D793"/>
       <c r="E793" t="n">
@@ -18321,10 +18324,10 @@
     <row r="794">
       <c r="A794"/>
       <c r="B794" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C794" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D794" t="s">
         <v>259</v>
@@ -18339,10 +18342,10 @@
     <row r="795">
       <c r="A795"/>
       <c r="B795" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C795" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D795"/>
       <c r="E795" t="n">
@@ -18355,10 +18358,10 @@
     <row r="796">
       <c r="A796"/>
       <c r="B796" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C796" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D796"/>
       <c r="E796" t="n">
@@ -18371,10 +18374,10 @@
     <row r="797">
       <c r="A797"/>
       <c r="B797" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C797" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D797"/>
       <c r="E797" t="n">
@@ -18387,10 +18390,10 @@
     <row r="798">
       <c r="A798"/>
       <c r="B798" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C798" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D798"/>
       <c r="E798" t="n">
@@ -18403,10 +18406,10 @@
     <row r="799">
       <c r="A799"/>
       <c r="B799" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C799" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D799" t="s">
         <v>259</v>
@@ -18421,10 +18424,10 @@
     <row r="800">
       <c r="A800"/>
       <c r="B800" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C800" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D800"/>
       <c r="E800" t="n">
@@ -18437,10 +18440,10 @@
     <row r="801">
       <c r="A801"/>
       <c r="B801" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C801" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D801"/>
       <c r="E801" t="n">
@@ -18453,10 +18456,10 @@
     <row r="802">
       <c r="A802"/>
       <c r="B802" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C802" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D802"/>
       <c r="E802" t="n">
@@ -18469,10 +18472,10 @@
     <row r="803">
       <c r="A803"/>
       <c r="B803" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C803" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D803" t="s">
         <v>259</v>
@@ -18487,10 +18490,10 @@
     <row r="804">
       <c r="A804"/>
       <c r="B804" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C804" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D804"/>
       <c r="E804" t="n">
@@ -18503,10 +18506,10 @@
     <row r="805">
       <c r="A805"/>
       <c r="B805" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C805" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D805"/>
       <c r="E805" t="n">
@@ -18519,10 +18522,10 @@
     <row r="806">
       <c r="A806"/>
       <c r="B806" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C806" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D806"/>
       <c r="E806" t="n">
@@ -18542,10 +18545,10 @@
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B808" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C808" t="s">
         <v>8</v>
@@ -18559,7 +18562,7 @@
     <row r="809">
       <c r="A809"/>
       <c r="B809" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C809" t="s">
         <v>177</v>
@@ -18573,7 +18576,7 @@
     <row r="810">
       <c r="A810"/>
       <c r="B810" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C810" t="s">
         <v>10</v>
@@ -18587,7 +18590,7 @@
     <row r="811">
       <c r="A811"/>
       <c r="B811" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C811" t="s">
         <v>12</v>
@@ -18601,7 +18604,7 @@
     <row r="812">
       <c r="A812"/>
       <c r="B812" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C812" t="s">
         <v>14</v>
@@ -18617,7 +18620,7 @@
     <row r="813">
       <c r="A813"/>
       <c r="B813" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C813" t="s">
         <v>16</v>
@@ -18633,7 +18636,7 @@
     <row r="814">
       <c r="A814"/>
       <c r="B814" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C814" t="s">
         <v>18</v>
@@ -18649,7 +18652,7 @@
     <row r="815">
       <c r="A815"/>
       <c r="B815" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C815" t="s">
         <v>20</v>
@@ -18665,7 +18668,7 @@
     <row r="816">
       <c r="A816"/>
       <c r="B816" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C816" t="s">
         <v>22</v>
@@ -18681,7 +18684,7 @@
     <row r="817">
       <c r="A817"/>
       <c r="B817" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C817" t="s">
         <v>24</v>
@@ -18697,7 +18700,7 @@
     <row r="818">
       <c r="A818"/>
       <c r="B818" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C818" t="s">
         <v>26</v>
@@ -18713,7 +18716,7 @@
     <row r="819">
       <c r="A819"/>
       <c r="B819" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C819" t="s">
         <v>28</v>
@@ -18729,7 +18732,7 @@
     <row r="820">
       <c r="A820"/>
       <c r="B820" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C820" t="s">
         <v>30</v>
@@ -18747,7 +18750,7 @@
     <row r="821">
       <c r="A821"/>
       <c r="B821" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C821" t="s">
         <v>33</v>
@@ -18765,7 +18768,7 @@
     <row r="822">
       <c r="A822"/>
       <c r="B822" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C822" t="s">
         <v>622</v>
@@ -18779,7 +18782,7 @@
     <row r="823">
       <c r="A823"/>
       <c r="B823" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C823" t="s">
         <v>624</v>
@@ -18793,7 +18796,7 @@
     <row r="824">
       <c r="A824"/>
       <c r="B824" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C824" t="s">
         <v>626</v>
@@ -18807,7 +18810,7 @@
     <row r="825">
       <c r="A825"/>
       <c r="B825" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C825" t="s">
         <v>628</v>
@@ -18821,7 +18824,7 @@
     <row r="826">
       <c r="A826"/>
       <c r="B826" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C826" t="s">
         <v>630</v>
@@ -18835,7 +18838,7 @@
     <row r="827">
       <c r="A827"/>
       <c r="B827" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C827" t="s">
         <v>632</v>
@@ -18849,7 +18852,7 @@
     <row r="828">
       <c r="A828"/>
       <c r="B828" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C828" t="s">
         <v>634</v>
@@ -18863,7 +18866,7 @@
     <row r="829">
       <c r="A829"/>
       <c r="B829" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C829" t="s">
         <v>636</v>
@@ -18877,7 +18880,7 @@
     <row r="830">
       <c r="A830"/>
       <c r="B830" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C830" t="s">
         <v>638</v>
@@ -18891,7 +18894,7 @@
     <row r="831">
       <c r="A831"/>
       <c r="B831" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C831" t="s">
         <v>35</v>
@@ -18905,7 +18908,7 @@
     <row r="832">
       <c r="A832"/>
       <c r="B832" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C832" t="s">
         <v>210</v>
@@ -18919,7 +18922,7 @@
     <row r="833">
       <c r="A833"/>
       <c r="B833" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C833" t="s">
         <v>212</v>
@@ -18933,7 +18936,7 @@
     <row r="834">
       <c r="A834"/>
       <c r="B834" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C834" t="s">
         <v>214</v>
@@ -18947,7 +18950,7 @@
     <row r="835">
       <c r="A835"/>
       <c r="B835" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C835" t="s">
         <v>216</v>
@@ -18961,7 +18964,7 @@
     <row r="836">
       <c r="A836"/>
       <c r="B836" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C836" t="s">
         <v>218</v>
@@ -18975,7 +18978,7 @@
     <row r="837">
       <c r="A837"/>
       <c r="B837" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C837" t="s">
         <v>230</v>
@@ -18989,7 +18992,7 @@
     <row r="838">
       <c r="A838"/>
       <c r="B838" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C838" t="s">
         <v>232</v>
@@ -19003,7 +19006,7 @@
     <row r="839">
       <c r="A839"/>
       <c r="B839" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C839" t="s">
         <v>234</v>
@@ -19017,7 +19020,7 @@
     <row r="840">
       <c r="A840"/>
       <c r="B840" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C840" t="s">
         <v>236</v>
@@ -19031,7 +19034,7 @@
     <row r="841">
       <c r="A841"/>
       <c r="B841" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C841" t="s">
         <v>238</v>
@@ -19045,7 +19048,7 @@
     <row r="842">
       <c r="A842"/>
       <c r="B842" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C842" t="s">
         <v>949</v>
@@ -19061,10 +19064,10 @@
     <row r="843">
       <c r="A843"/>
       <c r="B843" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C843" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D843" t="s">
         <v>31</v>
@@ -19077,10 +19080,10 @@
     <row r="844">
       <c r="A844"/>
       <c r="B844" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C844" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D844" t="s">
         <v>259</v>
@@ -19095,10 +19098,10 @@
     <row r="845">
       <c r="A845"/>
       <c r="B845" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C845" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D845"/>
       <c r="E845" t="n">
@@ -19111,10 +19114,10 @@
     <row r="846">
       <c r="A846"/>
       <c r="B846" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C846" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D846"/>
       <c r="E846" t="n">
@@ -19127,10 +19130,10 @@
     <row r="847">
       <c r="A847"/>
       <c r="B847" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C847" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D847"/>
       <c r="E847" t="n">
@@ -19143,10 +19146,10 @@
     <row r="848">
       <c r="A848"/>
       <c r="B848" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C848" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D848" t="s">
         <v>259</v>
@@ -19161,10 +19164,10 @@
     <row r="849">
       <c r="A849"/>
       <c r="B849" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C849" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D849"/>
       <c r="E849" t="n">
@@ -19177,10 +19180,10 @@
     <row r="850">
       <c r="A850"/>
       <c r="B850" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C850" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D850"/>
       <c r="E850" t="n">
@@ -19193,10 +19196,10 @@
     <row r="851">
       <c r="A851"/>
       <c r="B851" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C851" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D851"/>
       <c r="E851" t="n">
@@ -19209,10 +19212,10 @@
     <row r="852">
       <c r="A852"/>
       <c r="B852" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C852" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D852" t="s">
         <v>259</v>
@@ -19227,10 +19230,10 @@
     <row r="853">
       <c r="A853"/>
       <c r="B853" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C853" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D853"/>
       <c r="E853" t="n">
@@ -19243,10 +19246,10 @@
     <row r="854">
       <c r="A854"/>
       <c r="B854" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C854" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D854"/>
       <c r="E854" t="n">
@@ -19259,10 +19262,10 @@
     <row r="855">
       <c r="A855"/>
       <c r="B855" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C855" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D855"/>
       <c r="E855" t="n">
@@ -19275,10 +19278,10 @@
     <row r="856">
       <c r="A856"/>
       <c r="B856" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C856" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D856"/>
       <c r="E856" t="n">
@@ -19291,10 +19294,10 @@
     <row r="857">
       <c r="A857"/>
       <c r="B857" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C857" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D857" t="s">
         <v>259</v>
@@ -19309,10 +19312,10 @@
     <row r="858">
       <c r="A858"/>
       <c r="B858" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C858" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D858"/>
       <c r="E858" t="n">
@@ -19325,10 +19328,10 @@
     <row r="859">
       <c r="A859"/>
       <c r="B859" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C859" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D859"/>
       <c r="E859" t="n">
@@ -19341,10 +19344,10 @@
     <row r="860">
       <c r="A860"/>
       <c r="B860" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C860" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D860"/>
       <c r="E860" t="n">
@@ -19357,10 +19360,10 @@
     <row r="861">
       <c r="A861"/>
       <c r="B861" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C861" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D861"/>
       <c r="E861" t="n">
@@ -19373,10 +19376,10 @@
     <row r="862">
       <c r="A862"/>
       <c r="B862" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C862" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D862" t="s">
         <v>259</v>
@@ -19391,10 +19394,10 @@
     <row r="863">
       <c r="A863"/>
       <c r="B863" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C863" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D863"/>
       <c r="E863" t="n">
@@ -19407,10 +19410,10 @@
     <row r="864">
       <c r="A864"/>
       <c r="B864" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C864" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D864"/>
       <c r="E864" t="n">
@@ -19423,10 +19426,10 @@
     <row r="865">
       <c r="A865"/>
       <c r="B865" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C865" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D865"/>
       <c r="E865" t="n">
@@ -19439,10 +19442,10 @@
     <row r="866">
       <c r="A866"/>
       <c r="B866" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C866" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D866"/>
       <c r="E866" t="n">
@@ -19455,10 +19458,10 @@
     <row r="867">
       <c r="A867"/>
       <c r="B867" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C867" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D867"/>
       <c r="E867" t="n">
@@ -19471,10 +19474,10 @@
     <row r="868">
       <c r="A868"/>
       <c r="B868" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C868" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D868"/>
       <c r="E868" t="n">
@@ -19487,10 +19490,10 @@
     <row r="869">
       <c r="A869"/>
       <c r="B869" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C869" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D869"/>
       <c r="E869" t="n">
@@ -19503,10 +19506,10 @@
     <row r="870">
       <c r="A870"/>
       <c r="B870" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C870" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D870"/>
       <c r="E870" t="n">
@@ -19519,10 +19522,10 @@
     <row r="871">
       <c r="A871"/>
       <c r="B871" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C871" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D871"/>
       <c r="E871" t="n">
@@ -19535,10 +19538,10 @@
     <row r="872">
       <c r="A872"/>
       <c r="B872" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C872" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D872"/>
       <c r="E872" t="n">
@@ -19549,10 +19552,10 @@
     <row r="873">
       <c r="A873"/>
       <c r="B873" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C873" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D873"/>
       <c r="E873" t="n">
@@ -19563,10 +19566,10 @@
     <row r="874">
       <c r="A874"/>
       <c r="B874" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C874" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D874"/>
       <c r="E874" t="n">
@@ -19577,10 +19580,10 @@
     <row r="875">
       <c r="A875"/>
       <c r="B875" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C875" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D875"/>
       <c r="E875" t="n">
@@ -19591,10 +19594,10 @@
     <row r="876">
       <c r="A876"/>
       <c r="B876" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C876" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D876"/>
       <c r="E876" t="n">
@@ -19605,7 +19608,7 @@
     <row r="877">
       <c r="A877"/>
       <c r="B877" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C877" t="s">
         <v>367</v>
@@ -19619,7 +19622,7 @@
     <row r="878">
       <c r="A878"/>
       <c r="B878" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C878" t="s">
         <v>369</v>
@@ -19633,7 +19636,7 @@
     <row r="879">
       <c r="A879"/>
       <c r="B879" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C879" t="s">
         <v>371</v>
@@ -19647,7 +19650,7 @@
     <row r="880">
       <c r="A880"/>
       <c r="B880" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C880" t="s">
         <v>373</v>
@@ -19661,7 +19664,7 @@
     <row r="881">
       <c r="A881"/>
       <c r="B881" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C881" t="s">
         <v>375</v>
@@ -19675,7 +19678,7 @@
     <row r="882">
       <c r="A882"/>
       <c r="B882" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C882" t="s">
         <v>377</v>
@@ -19689,7 +19692,7 @@
     <row r="883">
       <c r="A883"/>
       <c r="B883" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C883" t="s">
         <v>379</v>
@@ -19703,7 +19706,7 @@
     <row r="884">
       <c r="A884"/>
       <c r="B884" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C884" t="s">
         <v>381</v>
@@ -19717,7 +19720,7 @@
     <row r="885">
       <c r="A885"/>
       <c r="B885" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C885" t="s">
         <v>383</v>
@@ -19731,7 +19734,7 @@
     <row r="886">
       <c r="A886"/>
       <c r="B886" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C886" t="s">
         <v>385</v>
@@ -19745,7 +19748,7 @@
     <row r="887">
       <c r="A887"/>
       <c r="B887" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C887" t="s">
         <v>387</v>
@@ -19761,7 +19764,7 @@
     <row r="888">
       <c r="A888"/>
       <c r="B888" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C888" t="s">
         <v>389</v>
@@ -19775,10 +19778,10 @@
     <row r="889">
       <c r="A889"/>
       <c r="B889" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C889" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D889"/>
       <c r="E889" t="n">
@@ -19789,10 +19792,10 @@
     <row r="890">
       <c r="A890"/>
       <c r="B890" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C890" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D890"/>
       <c r="E890" t="n">
@@ -19803,10 +19806,10 @@
     <row r="891">
       <c r="A891"/>
       <c r="B891" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C891" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D891"/>
       <c r="E891" t="n">
@@ -19817,10 +19820,10 @@
     <row r="892">
       <c r="A892"/>
       <c r="B892" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C892" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D892"/>
       <c r="E892" t="n">
@@ -19831,10 +19834,10 @@
     <row r="893">
       <c r="A893"/>
       <c r="B893" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C893" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D893"/>
       <c r="E893" t="n">
@@ -19845,10 +19848,10 @@
     <row r="894">
       <c r="A894"/>
       <c r="B894" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C894" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D894"/>
       <c r="E894" t="n">
@@ -19859,10 +19862,10 @@
     <row r="895">
       <c r="A895"/>
       <c r="B895" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C895" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D895"/>
       <c r="E895" t="n">
@@ -19873,10 +19876,10 @@
     <row r="896">
       <c r="A896"/>
       <c r="B896" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C896" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D896"/>
       <c r="E896" t="n">
@@ -19887,10 +19890,10 @@
     <row r="897">
       <c r="A897"/>
       <c r="B897" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C897" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D897"/>
       <c r="E897" t="n">
@@ -19901,10 +19904,10 @@
     <row r="898">
       <c r="A898"/>
       <c r="B898" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C898" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D898"/>
       <c r="E898" t="n">
@@ -19915,10 +19918,10 @@
     <row r="899">
       <c r="A899"/>
       <c r="B899" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C899" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D899"/>
       <c r="E899" t="n">
@@ -19929,10 +19932,10 @@
     <row r="900">
       <c r="A900"/>
       <c r="B900" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C900" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D900"/>
       <c r="E900" t="n">
@@ -19943,10 +19946,10 @@
     <row r="901">
       <c r="A901"/>
       <c r="B901" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C901" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D901"/>
       <c r="E901" t="n">
@@ -19957,10 +19960,10 @@
     <row r="902">
       <c r="A902"/>
       <c r="B902" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C902" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D902"/>
       <c r="E902" t="n">
@@ -19971,10 +19974,10 @@
     <row r="903">
       <c r="A903"/>
       <c r="B903" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C903" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D903" t="s">
         <v>259</v>
@@ -19989,10 +19992,10 @@
     <row r="904">
       <c r="A904"/>
       <c r="B904" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C904" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D904"/>
       <c r="E904" t="n">
@@ -20005,10 +20008,10 @@
     <row r="905">
       <c r="A905"/>
       <c r="B905" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C905" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D905"/>
       <c r="E905" t="n">
@@ -20021,10 +20024,10 @@
     <row r="906">
       <c r="A906"/>
       <c r="B906" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C906" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D906"/>
       <c r="E906" t="n">
@@ -20037,10 +20040,10 @@
     <row r="907">
       <c r="A907"/>
       <c r="B907" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C907" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D907" t="s">
         <v>259</v>
@@ -20055,10 +20058,10 @@
     <row r="908">
       <c r="A908"/>
       <c r="B908" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C908" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D908"/>
       <c r="E908" t="n">
@@ -20071,10 +20074,10 @@
     <row r="909">
       <c r="A909"/>
       <c r="B909" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C909" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D909"/>
       <c r="E909" t="n">
@@ -20087,10 +20090,10 @@
     <row r="910">
       <c r="A910"/>
       <c r="B910" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C910" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D910"/>
       <c r="E910" t="n">
@@ -20103,10 +20106,10 @@
     <row r="911">
       <c r="A911"/>
       <c r="B911" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C911" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D911"/>
       <c r="E911" t="n">
@@ -20119,10 +20122,10 @@
     <row r="912">
       <c r="A912"/>
       <c r="B912" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C912" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D912"/>
       <c r="E912" t="n">
@@ -20135,10 +20138,10 @@
     <row r="913">
       <c r="A913"/>
       <c r="B913" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C913" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D913"/>
       <c r="E913" t="n">
@@ -20151,10 +20154,10 @@
     <row r="914">
       <c r="A914"/>
       <c r="B914" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C914" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D914"/>
       <c r="E914" t="n">
@@ -20167,10 +20170,10 @@
     <row r="915">
       <c r="A915"/>
       <c r="B915" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C915" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D915"/>
       <c r="E915" t="n">
@@ -20183,10 +20186,10 @@
     <row r="916">
       <c r="A916"/>
       <c r="B916" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C916" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D916"/>
       <c r="E916" t="n">
@@ -20199,10 +20202,10 @@
     <row r="917">
       <c r="A917"/>
       <c r="B917" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C917" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D917"/>
       <c r="E917" t="n">
@@ -20215,10 +20218,10 @@
     <row r="918">
       <c r="A918"/>
       <c r="B918" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C918" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D918"/>
       <c r="E918" t="n">
@@ -20231,10 +20234,10 @@
     <row r="919">
       <c r="A919"/>
       <c r="B919" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C919" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D919"/>
       <c r="E919" t="n">
@@ -20247,10 +20250,10 @@
     <row r="920">
       <c r="A920"/>
       <c r="B920" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C920" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D920"/>
       <c r="E920" t="n">
@@ -20263,10 +20266,10 @@
     <row r="921">
       <c r="A921"/>
       <c r="B921" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C921" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D921" t="s">
         <v>259</v>
@@ -20281,10 +20284,10 @@
     <row r="922">
       <c r="A922"/>
       <c r="B922" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C922" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="D922"/>
       <c r="E922" t="n">
@@ -20297,10 +20300,10 @@
     <row r="923">
       <c r="A923"/>
       <c r="B923" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C923" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D923"/>
       <c r="E923" t="n">
@@ -20313,10 +20316,10 @@
     <row r="924">
       <c r="A924"/>
       <c r="B924" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C924" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D924"/>
       <c r="E924" t="n">
@@ -20329,10 +20332,10 @@
     <row r="925">
       <c r="A925"/>
       <c r="B925" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C925" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D925" t="s">
         <v>259</v>
@@ -20347,10 +20350,10 @@
     <row r="926">
       <c r="A926"/>
       <c r="B926" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C926" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D926"/>
       <c r="E926" t="n">
@@ -20363,10 +20366,10 @@
     <row r="927">
       <c r="A927"/>
       <c r="B927" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C927" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="D927"/>
       <c r="E927" t="n">
@@ -20379,10 +20382,10 @@
     <row r="928">
       <c r="A928"/>
       <c r="B928" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C928" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D928"/>
       <c r="E928" t="n">
@@ -20395,10 +20398,10 @@
     <row r="929">
       <c r="A929"/>
       <c r="B929" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C929" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D929"/>
       <c r="E929" t="n">
@@ -20409,10 +20412,10 @@
     <row r="930">
       <c r="A930"/>
       <c r="B930" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C930" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D930"/>
       <c r="E930" t="n">
@@ -20423,10 +20426,10 @@
     <row r="931">
       <c r="A931"/>
       <c r="B931" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C931" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D931"/>
       <c r="E931" t="n">
@@ -20437,10 +20440,10 @@
     <row r="932">
       <c r="A932"/>
       <c r="B932" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C932" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D932"/>
       <c r="E932" t="n">
@@ -20451,10 +20454,10 @@
     <row r="933">
       <c r="A933"/>
       <c r="B933" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C933" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D933"/>
       <c r="E933" t="n">
@@ -20465,10 +20468,10 @@
     <row r="934">
       <c r="A934"/>
       <c r="B934" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C934" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D934"/>
       <c r="E934" t="n">
@@ -20479,10 +20482,10 @@
     <row r="935">
       <c r="A935"/>
       <c r="B935" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C935" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D935"/>
       <c r="E935" t="n">
@@ -20493,10 +20496,10 @@
     <row r="936">
       <c r="A936"/>
       <c r="B936" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C936" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D936"/>
       <c r="E936" t="n">
@@ -20507,10 +20510,10 @@
     <row r="937">
       <c r="A937"/>
       <c r="B937" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C937" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D937"/>
       <c r="E937" t="n">
@@ -20521,10 +20524,10 @@
     <row r="938">
       <c r="A938"/>
       <c r="B938" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C938" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D938"/>
       <c r="E938" t="n">
@@ -20542,10 +20545,10 @@
     </row>
     <row r="940">
       <c r="A940" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B940" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C940" t="s">
         <v>8</v>
@@ -20559,7 +20562,7 @@
     <row r="941">
       <c r="A941"/>
       <c r="B941" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C941" t="s">
         <v>177</v>
@@ -20573,7 +20576,7 @@
     <row r="942">
       <c r="A942"/>
       <c r="B942" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C942" t="s">
         <v>10</v>
@@ -20587,7 +20590,7 @@
     <row r="943">
       <c r="A943"/>
       <c r="B943" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C943" t="s">
         <v>12</v>
@@ -20601,7 +20604,7 @@
     <row r="944">
       <c r="A944"/>
       <c r="B944" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C944" t="s">
         <v>14</v>
@@ -20617,7 +20620,7 @@
     <row r="945">
       <c r="A945"/>
       <c r="B945" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C945" t="s">
         <v>16</v>
@@ -20633,7 +20636,7 @@
     <row r="946">
       <c r="A946"/>
       <c r="B946" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C946" t="s">
         <v>18</v>
@@ -20649,7 +20652,7 @@
     <row r="947">
       <c r="A947"/>
       <c r="B947" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C947" t="s">
         <v>20</v>
@@ -20665,7 +20668,7 @@
     <row r="948">
       <c r="A948"/>
       <c r="B948" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C948" t="s">
         <v>22</v>
@@ -20681,7 +20684,7 @@
     <row r="949">
       <c r="A949"/>
       <c r="B949" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C949" t="s">
         <v>24</v>
@@ -20697,7 +20700,7 @@
     <row r="950">
       <c r="A950"/>
       <c r="B950" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C950" t="s">
         <v>26</v>
@@ -20713,7 +20716,7 @@
     <row r="951">
       <c r="A951"/>
       <c r="B951" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -20729,7 +20732,7 @@
     <row r="952">
       <c r="A952"/>
       <c r="B952" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C952" t="s">
         <v>30</v>
@@ -20747,7 +20750,7 @@
     <row r="953">
       <c r="A953"/>
       <c r="B953" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C953" t="s">
         <v>33</v>
@@ -20765,10 +20768,10 @@
     <row r="954">
       <c r="A954"/>
       <c r="B954" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C954" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D954"/>
       <c r="E954" t="n">
@@ -20779,7 +20782,7 @@
     <row r="955">
       <c r="A955"/>
       <c r="B955" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C955" t="s">
         <v>622</v>
@@ -20793,7 +20796,7 @@
     <row r="956">
       <c r="A956"/>
       <c r="B956" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C956" t="s">
         <v>35</v>
@@ -20807,7 +20810,7 @@
     <row r="957">
       <c r="A957"/>
       <c r="B957" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C957" t="s">
         <v>210</v>
@@ -20821,7 +20824,7 @@
     <row r="958">
       <c r="A958"/>
       <c r="B958" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C958" t="s">
         <v>212</v>
@@ -20835,7 +20838,7 @@
     <row r="959">
       <c r="A959"/>
       <c r="B959" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C959" t="s">
         <v>214</v>
@@ -20849,7 +20852,7 @@
     <row r="960">
       <c r="A960"/>
       <c r="B960" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C960" t="s">
         <v>216</v>
@@ -20863,7 +20866,7 @@
     <row r="961">
       <c r="A961"/>
       <c r="B961" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C961" t="s">
         <v>218</v>
@@ -20877,7 +20880,7 @@
     <row r="962">
       <c r="A962"/>
       <c r="B962" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C962" t="s">
         <v>230</v>
@@ -20891,7 +20894,7 @@
     <row r="963">
       <c r="A963"/>
       <c r="B963" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C963" t="s">
         <v>232</v>
@@ -20905,7 +20908,7 @@
     <row r="964">
       <c r="A964"/>
       <c r="B964" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C964" t="s">
         <v>234</v>
@@ -20919,7 +20922,7 @@
     <row r="965">
       <c r="A965"/>
       <c r="B965" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C965" t="s">
         <v>236</v>
@@ -20933,7 +20936,7 @@
     <row r="966">
       <c r="A966"/>
       <c r="B966" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C966" t="s">
         <v>238</v>
@@ -20947,7 +20950,7 @@
     <row r="967">
       <c r="A967"/>
       <c r="B967" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C967" t="s">
         <v>949</v>
@@ -20963,10 +20966,10 @@
     <row r="968">
       <c r="A968"/>
       <c r="B968" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C968" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D968" t="s">
         <v>31</v>
@@ -20979,10 +20982,10 @@
     <row r="969">
       <c r="A969"/>
       <c r="B969" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C969" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D969"/>
       <c r="E969" t="n">
@@ -20993,10 +20996,10 @@
     <row r="970">
       <c r="A970"/>
       <c r="B970" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C970" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D970"/>
       <c r="E970" t="n">
@@ -21007,10 +21010,10 @@
     <row r="971">
       <c r="A971"/>
       <c r="B971" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C971" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D971"/>
       <c r="E971" t="n">
@@ -21021,10 +21024,10 @@
     <row r="972">
       <c r="A972"/>
       <c r="B972" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C972" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D972"/>
       <c r="E972" t="n">
@@ -21035,10 +21038,10 @@
     <row r="973">
       <c r="A973"/>
       <c r="B973" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C973" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D973"/>
       <c r="E973" t="n">
@@ -21049,10 +21052,10 @@
     <row r="974">
       <c r="A974"/>
       <c r="B974" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C974" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D974"/>
       <c r="E974" t="n">
@@ -21063,10 +21066,10 @@
     <row r="975">
       <c r="A975"/>
       <c r="B975" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C975" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D975"/>
       <c r="E975" t="n">
@@ -21077,10 +21080,10 @@
     <row r="976">
       <c r="A976"/>
       <c r="B976" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C976" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D976"/>
       <c r="E976" t="n">
@@ -21091,10 +21094,10 @@
     <row r="977">
       <c r="A977"/>
       <c r="B977" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C977" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D977"/>
       <c r="E977" t="n">
@@ -21105,10 +21108,10 @@
     <row r="978">
       <c r="A978"/>
       <c r="B978" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C978" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D978"/>
       <c r="E978" t="n">
@@ -21119,10 +21122,10 @@
     <row r="979">
       <c r="A979"/>
       <c r="B979" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C979" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D979"/>
       <c r="E979" t="n">
@@ -21133,10 +21136,10 @@
     <row r="980">
       <c r="A980"/>
       <c r="B980" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C980" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D980"/>
       <c r="E980" t="n">
@@ -21147,10 +21150,10 @@
     <row r="981">
       <c r="A981"/>
       <c r="B981" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C981" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D981"/>
       <c r="E981" t="n">
@@ -21161,10 +21164,10 @@
     <row r="982">
       <c r="A982"/>
       <c r="B982" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C982" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D982"/>
       <c r="E982" t="n">
@@ -21175,10 +21178,10 @@
     <row r="983">
       <c r="A983"/>
       <c r="B983" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C983" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D983"/>
       <c r="E983" t="n">
@@ -21196,10 +21199,10 @@
     </row>
     <row r="985">
       <c r="A985" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B985" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C985" t="s">
         <v>8</v>
@@ -21213,7 +21216,7 @@
     <row r="986">
       <c r="A986"/>
       <c r="B986" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C986" t="s">
         <v>177</v>
@@ -21227,7 +21230,7 @@
     <row r="987">
       <c r="A987"/>
       <c r="B987" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C987" t="s">
         <v>14</v>
@@ -21243,7 +21246,7 @@
     <row r="988">
       <c r="A988"/>
       <c r="B988" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C988" t="s">
         <v>16</v>
@@ -21259,7 +21262,7 @@
     <row r="989">
       <c r="A989"/>
       <c r="B989" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C989" t="s">
         <v>18</v>
@@ -21275,7 +21278,7 @@
     <row r="990">
       <c r="A990"/>
       <c r="B990" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C990" t="s">
         <v>20</v>
@@ -21291,7 +21294,7 @@
     <row r="991">
       <c r="A991"/>
       <c r="B991" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C991" t="s">
         <v>22</v>
@@ -21307,7 +21310,7 @@
     <row r="992">
       <c r="A992"/>
       <c r="B992" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C992" t="s">
         <v>24</v>
@@ -21323,7 +21326,7 @@
     <row r="993">
       <c r="A993"/>
       <c r="B993" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C993" t="s">
         <v>26</v>
@@ -21339,7 +21342,7 @@
     <row r="994">
       <c r="A994"/>
       <c r="B994" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C994" t="s">
         <v>28</v>
@@ -21355,7 +21358,7 @@
     <row r="995">
       <c r="A995"/>
       <c r="B995" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C995" t="s">
         <v>30</v>
@@ -21373,7 +21376,7 @@
     <row r="996">
       <c r="A996"/>
       <c r="B996" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C996" t="s">
         <v>33</v>
@@ -21391,7 +21394,7 @@
     <row r="997">
       <c r="A997"/>
       <c r="B997" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C997" t="s">
         <v>622</v>
@@ -21405,7 +21408,7 @@
     <row r="998">
       <c r="A998"/>
       <c r="B998" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C998" t="s">
         <v>624</v>
@@ -21419,7 +21422,7 @@
     <row r="999">
       <c r="A999"/>
       <c r="B999" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C999" t="s">
         <v>626</v>
@@ -21433,7 +21436,7 @@
     <row r="1000">
       <c r="A1000"/>
       <c r="B1000" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C1000" t="s">
         <v>628</v>
@@ -21447,7 +21450,7 @@
     <row r="1001">
       <c r="A1001"/>
       <c r="B1001" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C1001" t="s">
         <v>630</v>
@@ -21461,7 +21464,7 @@
     <row r="1002">
       <c r="A1002"/>
       <c r="B1002" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C1002" t="s">
         <v>632</v>
@@ -21475,7 +21478,7 @@
     <row r="1003">
       <c r="A1003"/>
       <c r="B1003" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C1003" t="s">
         <v>634</v>
@@ -21489,7 +21492,7 @@
     <row r="1004">
       <c r="A1004"/>
       <c r="B1004" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C1004" t="s">
         <v>636</v>
@@ -21503,7 +21506,7 @@
     <row r="1005">
       <c r="A1005"/>
       <c r="B1005" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C1005" t="s">
         <v>638</v>
@@ -21517,7 +21520,7 @@
     <row r="1006">
       <c r="A1006"/>
       <c r="B1006" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C1006" t="s">
         <v>35</v>
@@ -21531,10 +21534,10 @@
     <row r="1007">
       <c r="A1007"/>
       <c r="B1007" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C1007" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D1007"/>
       <c r="E1007" t="n">
@@ -21545,7 +21548,7 @@
     <row r="1008">
       <c r="A1008"/>
       <c r="B1008" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C1008" t="s">
         <v>210</v>
@@ -21559,7 +21562,7 @@
     <row r="1009">
       <c r="A1009"/>
       <c r="B1009" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C1009" t="s">
         <v>212</v>
@@ -21573,7 +21576,7 @@
     <row r="1010">
       <c r="A1010"/>
       <c r="B1010" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C1010" t="s">
         <v>214</v>
@@ -21587,7 +21590,7 @@
     <row r="1011">
       <c r="A1011"/>
       <c r="B1011" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C1011" t="s">
         <v>216</v>
@@ -21601,7 +21604,7 @@
     <row r="1012">
       <c r="A1012"/>
       <c r="B1012" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C1012" t="s">
         <v>218</v>
@@ -21615,7 +21618,7 @@
     <row r="1013">
       <c r="A1013"/>
       <c r="B1013" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C1013" t="s">
         <v>230</v>
@@ -21629,7 +21632,7 @@
     <row r="1014">
       <c r="A1014"/>
       <c r="B1014" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C1014" t="s">
         <v>232</v>
@@ -21643,7 +21646,7 @@
     <row r="1015">
       <c r="A1015"/>
       <c r="B1015" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C1015" t="s">
         <v>234</v>
@@ -21657,7 +21660,7 @@
     <row r="1016">
       <c r="A1016"/>
       <c r="B1016" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C1016" t="s">
         <v>236</v>
@@ -21671,7 +21674,7 @@
     <row r="1017">
       <c r="A1017"/>
       <c r="B1017" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C1017" t="s">
         <v>238</v>
@@ -21685,7 +21688,7 @@
     <row r="1018">
       <c r="A1018"/>
       <c r="B1018" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C1018" t="s">
         <v>574</v>
@@ -21701,7 +21704,7 @@
     <row r="1019">
       <c r="A1019"/>
       <c r="B1019" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C1019" t="s">
         <v>576</v>
@@ -21715,7 +21718,7 @@
     <row r="1020">
       <c r="A1020"/>
       <c r="B1020" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C1020" t="s">
         <v>578</v>
@@ -21729,7 +21732,7 @@
     <row r="1021">
       <c r="A1021"/>
       <c r="B1021" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C1021" t="s">
         <v>580</v>
@@ -21743,7 +21746,7 @@
     <row r="1022">
       <c r="A1022"/>
       <c r="B1022" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C1022" t="s">
         <v>582</v>
@@ -21757,7 +21760,7 @@
     <row r="1023">
       <c r="A1023"/>
       <c r="B1023" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C1023" t="s">
         <v>584</v>
@@ -21771,7 +21774,7 @@
     <row r="1024">
       <c r="A1024"/>
       <c r="B1024" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C1024" t="s">
         <v>586</v>
@@ -21785,7 +21788,7 @@
     <row r="1025">
       <c r="A1025"/>
       <c r="B1025" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C1025" t="s">
         <v>588</v>
@@ -21799,7 +21802,7 @@
     <row r="1026">
       <c r="A1026"/>
       <c r="B1026" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C1026" t="s">
         <v>590</v>
@@ -21813,7 +21816,7 @@
     <row r="1027">
       <c r="A1027"/>
       <c r="B1027" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C1027" t="s">
         <v>592</v>
@@ -21827,10 +21830,10 @@
     <row r="1028">
       <c r="A1028"/>
       <c r="B1028" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C1028" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D1028"/>
       <c r="E1028" t="n">
@@ -21841,10 +21844,10 @@
     <row r="1029">
       <c r="A1029"/>
       <c r="B1029" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C1029" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D1029"/>
       <c r="E1029" t="n">
@@ -21855,10 +21858,10 @@
     <row r="1030">
       <c r="A1030"/>
       <c r="B1030" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C1030" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D1030"/>
       <c r="E1030" t="n">
@@ -21869,10 +21872,10 @@
     <row r="1031">
       <c r="A1031"/>
       <c r="B1031" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C1031" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D1031"/>
       <c r="E1031" t="n">
@@ -21883,10 +21886,10 @@
     <row r="1032">
       <c r="A1032"/>
       <c r="B1032" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C1032" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D1032"/>
       <c r="E1032" t="n">
@@ -21897,10 +21900,10 @@
     <row r="1033">
       <c r="A1033"/>
       <c r="B1033" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C1033" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D1033"/>
       <c r="E1033" t="n">
@@ -21911,10 +21914,10 @@
     <row r="1034">
       <c r="A1034"/>
       <c r="B1034" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C1034" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D1034"/>
       <c r="E1034" t="n">
@@ -21925,10 +21928,10 @@
     <row r="1035">
       <c r="A1035"/>
       <c r="B1035" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C1035" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D1035"/>
       <c r="E1035" t="n">
@@ -21939,10 +21942,10 @@
     <row r="1036">
       <c r="A1036"/>
       <c r="B1036" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C1036" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D1036"/>
       <c r="E1036" t="n">
@@ -21953,10 +21956,10 @@
     <row r="1037">
       <c r="A1037"/>
       <c r="B1037" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C1037" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D1037"/>
       <c r="E1037" t="n">
@@ -21967,10 +21970,10 @@
     <row r="1038">
       <c r="A1038"/>
       <c r="B1038" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C1038" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D1038"/>
       <c r="E1038" t="n">
@@ -21981,10 +21984,10 @@
     <row r="1039">
       <c r="A1039"/>
       <c r="B1039" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C1039" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D1039"/>
       <c r="E1039" t="n">
@@ -21995,10 +21998,10 @@
     <row r="1040">
       <c r="A1040"/>
       <c r="B1040" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C1040" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D1040"/>
       <c r="E1040" t="n">
@@ -22009,10 +22012,10 @@
     <row r="1041">
       <c r="A1041"/>
       <c r="B1041" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C1041" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D1041"/>
       <c r="E1041" t="n">
@@ -22030,10 +22033,10 @@
     </row>
     <row r="1043">
       <c r="A1043" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1043" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C1043" t="s">
         <v>8</v>
@@ -22047,7 +22050,7 @@
     <row r="1044">
       <c r="A1044"/>
       <c r="B1044" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C1044" t="s">
         <v>177</v>
@@ -22061,7 +22064,7 @@
     <row r="1045">
       <c r="A1045"/>
       <c r="B1045" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C1045" t="s">
         <v>10</v>
@@ -22075,7 +22078,7 @@
     <row r="1046">
       <c r="A1046"/>
       <c r="B1046" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C1046" t="s">
         <v>12</v>
@@ -22089,7 +22092,7 @@
     <row r="1047">
       <c r="A1047"/>
       <c r="B1047" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C1047" t="s">
         <v>14</v>
@@ -22105,7 +22108,7 @@
     <row r="1048">
       <c r="A1048"/>
       <c r="B1048" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C1048" t="s">
         <v>16</v>
@@ -22121,7 +22124,7 @@
     <row r="1049">
       <c r="A1049"/>
       <c r="B1049" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C1049" t="s">
         <v>18</v>
@@ -22137,7 +22140,7 @@
     <row r="1050">
       <c r="A1050"/>
       <c r="B1050" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C1050" t="s">
         <v>20</v>
@@ -22153,7 +22156,7 @@
     <row r="1051">
       <c r="A1051"/>
       <c r="B1051" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C1051" t="s">
         <v>22</v>
@@ -22169,7 +22172,7 @@
     <row r="1052">
       <c r="A1052"/>
       <c r="B1052" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C1052" t="s">
         <v>24</v>
@@ -22185,7 +22188,7 @@
     <row r="1053">
       <c r="A1053"/>
       <c r="B1053" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C1053" t="s">
         <v>26</v>
@@ -22201,7 +22204,7 @@
     <row r="1054">
       <c r="A1054"/>
       <c r="B1054" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C1054" t="s">
         <v>28</v>
@@ -22217,7 +22220,7 @@
     <row r="1055">
       <c r="A1055"/>
       <c r="B1055" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C1055" t="s">
         <v>30</v>
@@ -22235,7 +22238,7 @@
     <row r="1056">
       <c r="A1056"/>
       <c r="B1056" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C1056" t="s">
         <v>33</v>
@@ -22253,7 +22256,7 @@
     <row r="1057">
       <c r="A1057"/>
       <c r="B1057" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C1057" t="s">
         <v>622</v>
@@ -22267,7 +22270,7 @@
     <row r="1058">
       <c r="A1058"/>
       <c r="B1058" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C1058" t="s">
         <v>624</v>
@@ -22281,7 +22284,7 @@
     <row r="1059">
       <c r="A1059"/>
       <c r="B1059" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C1059" t="s">
         <v>626</v>
@@ -22295,7 +22298,7 @@
     <row r="1060">
       <c r="A1060"/>
       <c r="B1060" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C1060" t="s">
         <v>628</v>
@@ -22309,7 +22312,7 @@
     <row r="1061">
       <c r="A1061"/>
       <c r="B1061" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C1061" t="s">
         <v>630</v>
@@ -22323,7 +22326,7 @@
     <row r="1062">
       <c r="A1062"/>
       <c r="B1062" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C1062" t="s">
         <v>632</v>
@@ -22337,7 +22340,7 @@
     <row r="1063">
       <c r="A1063"/>
       <c r="B1063" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C1063" t="s">
         <v>634</v>
@@ -22351,7 +22354,7 @@
     <row r="1064">
       <c r="A1064"/>
       <c r="B1064" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C1064" t="s">
         <v>636</v>
@@ -22365,7 +22368,7 @@
     <row r="1065">
       <c r="A1065"/>
       <c r="B1065" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C1065" t="s">
         <v>638</v>
@@ -22379,7 +22382,7 @@
     <row r="1066">
       <c r="A1066"/>
       <c r="B1066" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C1066" t="s">
         <v>35</v>
@@ -22393,7 +22396,7 @@
     <row r="1067">
       <c r="A1067"/>
       <c r="B1067" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C1067" t="s">
         <v>507</v>
@@ -22407,7 +22410,7 @@
     <row r="1068">
       <c r="A1068"/>
       <c r="B1068" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C1068" t="s">
         <v>509</v>
@@ -22421,7 +22424,7 @@
     <row r="1069">
       <c r="A1069"/>
       <c r="B1069" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C1069" t="s">
         <v>511</v>
@@ -22435,7 +22438,7 @@
     <row r="1070">
       <c r="A1070"/>
       <c r="B1070" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C1070" t="s">
         <v>513</v>
@@ -22449,7 +22452,7 @@
     <row r="1071">
       <c r="A1071"/>
       <c r="B1071" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C1071" t="s">
         <v>515</v>
@@ -22463,7 +22466,7 @@
     <row r="1072">
       <c r="A1072"/>
       <c r="B1072" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C1072" t="s">
         <v>210</v>
@@ -22477,7 +22480,7 @@
     <row r="1073">
       <c r="A1073"/>
       <c r="B1073" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C1073" t="s">
         <v>212</v>
@@ -22491,7 +22494,7 @@
     <row r="1074">
       <c r="A1074"/>
       <c r="B1074" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C1074" t="s">
         <v>214</v>
@@ -22505,7 +22508,7 @@
     <row r="1075">
       <c r="A1075"/>
       <c r="B1075" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C1075" t="s">
         <v>216</v>
@@ -22519,7 +22522,7 @@
     <row r="1076">
       <c r="A1076"/>
       <c r="B1076" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C1076" t="s">
         <v>218</v>
@@ -22533,7 +22536,7 @@
     <row r="1077">
       <c r="A1077"/>
       <c r="B1077" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C1077" t="s">
         <v>230</v>
@@ -22547,7 +22550,7 @@
     <row r="1078">
       <c r="A1078"/>
       <c r="B1078" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C1078" t="s">
         <v>232</v>
@@ -22561,7 +22564,7 @@
     <row r="1079">
       <c r="A1079"/>
       <c r="B1079" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C1079" t="s">
         <v>234</v>
@@ -22575,7 +22578,7 @@
     <row r="1080">
       <c r="A1080"/>
       <c r="B1080" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C1080" t="s">
         <v>236</v>
@@ -22589,7 +22592,7 @@
     <row r="1081">
       <c r="A1081"/>
       <c r="B1081" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C1081" t="s">
         <v>238</v>
@@ -22603,10 +22606,10 @@
     <row r="1082">
       <c r="A1082"/>
       <c r="B1082" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C1082" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D1082" t="s">
         <v>31</v>
@@ -22619,10 +22622,10 @@
     <row r="1083">
       <c r="A1083"/>
       <c r="B1083" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C1083" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D1083" t="s">
         <v>31</v>
@@ -22635,10 +22638,10 @@
     <row r="1084">
       <c r="A1084"/>
       <c r="B1084" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C1084" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D1084" t="s">
         <v>31</v>
@@ -22651,7 +22654,7 @@
     <row r="1085">
       <c r="A1085"/>
       <c r="B1085" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C1085" t="s">
         <v>594</v>
@@ -22665,7 +22668,7 @@
     <row r="1086">
       <c r="A1086"/>
       <c r="B1086" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C1086" t="s">
         <v>596</v>
@@ -22679,7 +22682,7 @@
     <row r="1087">
       <c r="A1087"/>
       <c r="B1087" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C1087" t="s">
         <v>598</v>
@@ -22693,7 +22696,7 @@
     <row r="1088">
       <c r="A1088"/>
       <c r="B1088" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C1088" t="s">
         <v>600</v>
@@ -22707,7 +22710,7 @@
     <row r="1089">
       <c r="A1089"/>
       <c r="B1089" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C1089" t="s">
         <v>602</v>
@@ -22721,7 +22724,7 @@
     <row r="1090">
       <c r="A1090"/>
       <c r="B1090" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C1090" t="s">
         <v>604</v>
@@ -22735,7 +22738,7 @@
     <row r="1091">
       <c r="A1091"/>
       <c r="B1091" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C1091" t="s">
         <v>606</v>
@@ -22749,7 +22752,7 @@
     <row r="1092">
       <c r="A1092"/>
       <c r="B1092" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C1092" t="s">
         <v>608</v>
@@ -22763,7 +22766,7 @@
     <row r="1093">
       <c r="A1093"/>
       <c r="B1093" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C1093" t="s">
         <v>610</v>
@@ -22777,7 +22780,7 @@
     <row r="1094">
       <c r="A1094"/>
       <c r="B1094" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C1094" t="s">
         <v>612</v>
@@ -22791,7 +22794,7 @@
     <row r="1095">
       <c r="A1095"/>
       <c r="B1095" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C1095" t="s">
         <v>614</v>
@@ -22805,7 +22808,7 @@
     <row r="1096">
       <c r="A1096"/>
       <c r="B1096" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C1096" t="s">
         <v>616</v>
@@ -22819,7 +22822,7 @@
     <row r="1097">
       <c r="A1097"/>
       <c r="B1097" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C1097" t="s">
         <v>618</v>
@@ -22833,7 +22836,7 @@
     <row r="1098">
       <c r="A1098"/>
       <c r="B1098" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C1098" t="s">
         <v>620</v>
@@ -22847,7 +22850,7 @@
     <row r="1099">
       <c r="A1099"/>
       <c r="B1099" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C1099" t="s">
         <v>367</v>
@@ -22863,7 +22866,7 @@
     <row r="1100">
       <c r="A1100"/>
       <c r="B1100" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C1100" t="s">
         <v>369</v>
@@ -22879,7 +22882,7 @@
     <row r="1101">
       <c r="A1101"/>
       <c r="B1101" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C1101" t="s">
         <v>371</v>
@@ -22895,7 +22898,7 @@
     <row r="1102">
       <c r="A1102"/>
       <c r="B1102" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C1102" t="s">
         <v>373</v>
@@ -22911,7 +22914,7 @@
     <row r="1103">
       <c r="A1103"/>
       <c r="B1103" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C1103" t="s">
         <v>375</v>
@@ -22927,7 +22930,7 @@
     <row r="1104">
       <c r="A1104"/>
       <c r="B1104" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C1104" t="s">
         <v>377</v>
@@ -22943,7 +22946,7 @@
     <row r="1105">
       <c r="A1105"/>
       <c r="B1105" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C1105" t="s">
         <v>379</v>
@@ -22959,7 +22962,7 @@
     <row r="1106">
       <c r="A1106"/>
       <c r="B1106" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C1106" t="s">
         <v>381</v>
@@ -22975,7 +22978,7 @@
     <row r="1107">
       <c r="A1107"/>
       <c r="B1107" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C1107" t="s">
         <v>383</v>
@@ -22991,7 +22994,7 @@
     <row r="1108">
       <c r="A1108"/>
       <c r="B1108" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C1108" t="s">
         <v>385</v>
@@ -23007,7 +23010,7 @@
     <row r="1109">
       <c r="A1109"/>
       <c r="B1109" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C1109" t="s">
         <v>387</v>
@@ -23025,7 +23028,7 @@
     <row r="1110">
       <c r="A1110"/>
       <c r="B1110" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C1110" t="s">
         <v>389</v>
@@ -23048,10 +23051,10 @@
     </row>
     <row r="1112">
       <c r="A1112" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1112" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C1112" t="s">
         <v>8</v>
@@ -23065,10 +23068,10 @@
     <row r="1113">
       <c r="A1113"/>
       <c r="B1113" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C1113" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D1113"/>
       <c r="E1113" t="n">
@@ -23079,7 +23082,7 @@
     <row r="1114">
       <c r="A1114"/>
       <c r="B1114" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C1114" t="s">
         <v>14</v>
@@ -23095,7 +23098,7 @@
     <row r="1115">
       <c r="A1115"/>
       <c r="B1115" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C1115" t="s">
         <v>16</v>
@@ -23111,7 +23114,7 @@
     <row r="1116">
       <c r="A1116"/>
       <c r="B1116" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C1116" t="s">
         <v>18</v>
@@ -23127,7 +23130,7 @@
     <row r="1117">
       <c r="A1117"/>
       <c r="B1117" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C1117" t="s">
         <v>20</v>
@@ -23143,7 +23146,7 @@
     <row r="1118">
       <c r="A1118"/>
       <c r="B1118" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C1118" t="s">
         <v>22</v>
@@ -23159,7 +23162,7 @@
     <row r="1119">
       <c r="A1119"/>
       <c r="B1119" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C1119" t="s">
         <v>24</v>
@@ -23175,7 +23178,7 @@
     <row r="1120">
       <c r="A1120"/>
       <c r="B1120" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C1120" t="s">
         <v>26</v>
@@ -23191,7 +23194,7 @@
     <row r="1121">
       <c r="A1121"/>
       <c r="B1121" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C1121" t="s">
         <v>28</v>
@@ -23207,7 +23210,7 @@
     <row r="1122">
       <c r="A1122"/>
       <c r="B1122" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C1122" t="s">
         <v>30</v>
@@ -23225,7 +23228,7 @@
     <row r="1123">
       <c r="A1123"/>
       <c r="B1123" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C1123" t="s">
         <v>33</v>
@@ -23243,7 +23246,7 @@
     <row r="1124">
       <c r="A1124"/>
       <c r="B1124" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C1124" t="s">
         <v>35</v>
@@ -23257,10 +23260,10 @@
     <row r="1125">
       <c r="A1125"/>
       <c r="B1125" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C1125" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D1125"/>
       <c r="E1125" t="n">
@@ -23271,10 +23274,10 @@
     <row r="1126">
       <c r="A1126"/>
       <c r="B1126" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C1126" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D1126"/>
       <c r="E1126" t="n">
@@ -23285,10 +23288,10 @@
     <row r="1127">
       <c r="A1127"/>
       <c r="B1127" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C1127" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D1127"/>
       <c r="E1127" t="n">
@@ -23299,10 +23302,10 @@
     <row r="1128">
       <c r="A1128"/>
       <c r="B1128" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C1128" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D1128"/>
       <c r="E1128" t="n">
@@ -23313,10 +23316,10 @@
     <row r="1129">
       <c r="A1129"/>
       <c r="B1129" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C1129" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D1129"/>
       <c r="E1129" t="n">
@@ -23327,10 +23330,10 @@
     <row r="1130">
       <c r="A1130"/>
       <c r="B1130" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C1130" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D1130" t="s">
         <v>31</v>
@@ -23343,10 +23346,10 @@
     <row r="1131">
       <c r="A1131"/>
       <c r="B1131" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C1131" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D1131"/>
       <c r="E1131" t="n">
@@ -23357,10 +23360,10 @@
     <row r="1132">
       <c r="A1132"/>
       <c r="B1132" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C1132" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D1132" t="s">
         <v>31</v>
@@ -23373,10 +23376,10 @@
     <row r="1133">
       <c r="A1133"/>
       <c r="B1133" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C1133" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D1133" t="s">
         <v>31</v>
@@ -23389,10 +23392,10 @@
     <row r="1134">
       <c r="A1134"/>
       <c r="B1134" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C1134" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D1134"/>
       <c r="E1134" t="n">
@@ -23403,10 +23406,10 @@
     <row r="1135">
       <c r="A1135"/>
       <c r="B1135" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C1135" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D1135"/>
       <c r="E1135" t="n">
@@ -23417,10 +23420,10 @@
     <row r="1136">
       <c r="A1136"/>
       <c r="B1136" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C1136" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D1136"/>
       <c r="E1136" t="n">
@@ -23431,10 +23434,10 @@
     <row r="1137">
       <c r="A1137"/>
       <c r="B1137" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C1137" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D1137"/>
       <c r="E1137" t="n">
@@ -23445,10 +23448,10 @@
     <row r="1138">
       <c r="A1138"/>
       <c r="B1138" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C1138" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D1138"/>
       <c r="E1138" t="n">
@@ -23459,10 +23462,10 @@
     <row r="1139">
       <c r="A1139"/>
       <c r="B1139" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C1139" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D1139"/>
       <c r="E1139" t="n">
@@ -23473,10 +23476,10 @@
     <row r="1140">
       <c r="A1140"/>
       <c r="B1140" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C1140" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D1140"/>
       <c r="E1140" t="n">
@@ -23487,10 +23490,10 @@
     <row r="1141">
       <c r="A1141"/>
       <c r="B1141" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C1141" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D1141"/>
       <c r="E1141" t="n">
@@ -23501,10 +23504,10 @@
     <row r="1142">
       <c r="A1142"/>
       <c r="B1142" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C1142" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D1142"/>
       <c r="E1142" t="n">
@@ -23515,10 +23518,10 @@
     <row r="1143">
       <c r="A1143"/>
       <c r="B1143" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C1143" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D1143"/>
       <c r="E1143" t="n">
@@ -23529,10 +23532,10 @@
     <row r="1144">
       <c r="A1144"/>
       <c r="B1144" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C1144" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D1144" t="s">
         <v>31</v>
@@ -23545,10 +23548,10 @@
     <row r="1145">
       <c r="A1145"/>
       <c r="B1145" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C1145" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D1145" t="s">
         <v>31</v>
@@ -23568,10 +23571,10 @@
     </row>
     <row r="1147">
       <c r="A1147" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1147" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C1147" t="s">
         <v>8</v>
@@ -23585,7 +23588,7 @@
     <row r="1148">
       <c r="A1148"/>
       <c r="B1148" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C1148" t="s">
         <v>14</v>
@@ -23601,7 +23604,7 @@
     <row r="1149">
       <c r="A1149"/>
       <c r="B1149" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C1149" t="s">
         <v>16</v>
@@ -23617,7 +23620,7 @@
     <row r="1150">
       <c r="A1150"/>
       <c r="B1150" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C1150" t="s">
         <v>18</v>
@@ -23633,7 +23636,7 @@
     <row r="1151">
       <c r="A1151"/>
       <c r="B1151" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C1151" t="s">
         <v>20</v>
@@ -23649,7 +23652,7 @@
     <row r="1152">
       <c r="A1152"/>
       <c r="B1152" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C1152" t="s">
         <v>22</v>
@@ -23665,7 +23668,7 @@
     <row r="1153">
       <c r="A1153"/>
       <c r="B1153" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C1153" t="s">
         <v>24</v>
@@ -23681,7 +23684,7 @@
     <row r="1154">
       <c r="A1154"/>
       <c r="B1154" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C1154" t="s">
         <v>26</v>
@@ -23697,7 +23700,7 @@
     <row r="1155">
       <c r="A1155"/>
       <c r="B1155" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C1155" t="s">
         <v>28</v>
@@ -23713,7 +23716,7 @@
     <row r="1156">
       <c r="A1156"/>
       <c r="B1156" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C1156" t="s">
         <v>30</v>
@@ -23731,7 +23734,7 @@
     <row r="1157">
       <c r="A1157"/>
       <c r="B1157" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C1157" t="s">
         <v>33</v>
@@ -23749,7 +23752,7 @@
     <row r="1158">
       <c r="A1158"/>
       <c r="B1158" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C1158" t="s">
         <v>35</v>
@@ -23763,10 +23766,10 @@
     <row r="1159">
       <c r="A1159"/>
       <c r="B1159" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C1159" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D1159"/>
       <c r="E1159" t="n">
@@ -23777,10 +23780,10 @@
     <row r="1160">
       <c r="A1160"/>
       <c r="B1160" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C1160" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D1160"/>
       <c r="E1160" t="n">
@@ -23791,10 +23794,10 @@
     <row r="1161">
       <c r="A1161"/>
       <c r="B1161" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C1161" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D1161"/>
       <c r="E1161" t="n">
@@ -23814,16 +23817,16 @@
     </row>
     <row r="1163">
       <c r="A1163" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1163" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C1163" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D1163" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="E1163" t="n">
         <v>25</v>
@@ -23833,13 +23836,13 @@
     <row r="1164">
       <c r="A1164"/>
       <c r="B1164" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C1164" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D1164" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E1164" t="n">
         <v>30</v>
@@ -23849,13 +23852,13 @@
     <row r="1165">
       <c r="A1165"/>
       <c r="B1165" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D1165" t="s">
         <v>1880</v>
-      </c>
-      <c r="C1165" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>1879</v>
       </c>
       <c r="E1165" t="n">
         <v>30</v>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1882">
   <si>
-    <t xml:space="preserve">table</t>
+    <t xml:space="preserve">resource</t>
   </si>
   <si>
     <t xml:space="preserve">column_name</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">count</t>
   </si>
   <si>
-    <t xml:space="preserve">encounter</t>
+    <t xml:space="preserve">Encounter</t>
   </si>
   <si>
     <t xml:space="preserve">enc_id</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">serviceProvider/display</t>
   </si>
   <si>
-    <t xml:space="preserve">patient</t>
+    <t xml:space="preserve">Patient</t>
   </si>
   <si>
     <t xml:space="preserve">pat_id</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">address/postalCode</t>
   </si>
   <si>
-    <t xml:space="preserve">condition</t>
+    <t xml:space="preserve">Condition</t>
   </si>
   <si>
     <t xml:space="preserve">con_id</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">note/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medication</t>
+    <t xml:space="preserve">Medication</t>
   </si>
   <si>
     <t xml:space="preserve">med_id</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">boolean</t>
   </si>
   <si>
-    <t xml:space="preserve">medicationrequest</t>
+    <t xml:space="preserve">MedicationRequest</t>
   </si>
   <si>
     <t xml:space="preserve">medreq_id</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">substitution/reason/text</t>
   </si>
   <si>
-    <t xml:space="preserve">medicationadministration</t>
+    <t xml:space="preserve">MedicationAdministration</t>
   </si>
   <si>
     <t xml:space="preserve">medadm_id</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">dosage/rateQuantity/code</t>
   </si>
   <si>
-    <t xml:space="preserve">medicationstatement</t>
+    <t xml:space="preserve">MedicationStatement</t>
   </si>
   <si>
     <t xml:space="preserve">medstat_id</t>
@@ -4202,7 +4202,7 @@
     <t xml:space="preserve">dosage/maxDosePerLifetime/code</t>
   </si>
   <si>
-    <t xml:space="preserve">observation</t>
+    <t xml:space="preserve">Observation</t>
   </si>
   <si>
     <t xml:space="preserve">obs_id</t>
@@ -4850,7 +4850,7 @@
     <t xml:space="preserve">hasMember/display</t>
   </si>
   <si>
-    <t xml:space="preserve">diagnosticreport</t>
+    <t xml:space="preserve">DiagnosticReport</t>
   </si>
   <si>
     <t xml:space="preserve">diagrep_id</t>
@@ -5006,7 +5006,7 @@
     <t xml:space="preserve">conclusionCode/text</t>
   </si>
   <si>
-    <t xml:space="preserve">servicerequest</t>
+    <t xml:space="preserve">ServiceRequest</t>
   </si>
   <si>
     <t xml:space="preserve">servreq_id</t>
@@ -5198,7 +5198,7 @@
     <t xml:space="preserve">locationCode/text</t>
   </si>
   <si>
-    <t xml:space="preserve">procedure</t>
+    <t xml:space="preserve">Procedure</t>
   </si>
   <si>
     <t xml:space="preserve">proc_id</t>
@@ -5414,7 +5414,7 @@
     <t xml:space="preserve">proc_note_text</t>
   </si>
   <si>
-    <t xml:space="preserve">consent</t>
+    <t xml:space="preserve">Consent</t>
   </si>
   <si>
     <t xml:space="preserve">cons_id</t>
@@ -5585,7 +5585,7 @@
     <t xml:space="preserve">provision/dataPeriod/end</t>
   </si>
   <si>
-    <t xml:space="preserve">location</t>
+    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">loc_id</t>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1881">
   <si>
     <t xml:space="preserve">resource</t>
   </si>
@@ -5645,10 +5645,7 @@
     <t xml:space="preserve">pids_per_ward</t>
   </si>
   <si>
-    <t xml:space="preserve">timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date+time</t>
+    <t xml:space="preserve">date_time</t>
   </si>
   <si>
     <t xml:space="preserve">ward_name</t>
@@ -23826,23 +23823,23 @@
         <v>1877</v>
       </c>
       <c r="D1163" t="s">
-        <v>1878</v>
+        <v>31</v>
       </c>
       <c r="E1163" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F1163"/>
     </row>
     <row r="1164">
       <c r="A1164"/>
       <c r="B1164" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1164" t="s">
         <v>1879</v>
-      </c>
-      <c r="C1164" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>1880</v>
       </c>
       <c r="E1164" t="n">
         <v>30</v>
@@ -23852,13 +23849,13 @@
     <row r="1165">
       <c r="A1165"/>
       <c r="B1165" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C1165" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D1165" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E1165" t="n">
         <v>30</v>

--- a/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
+++ b/R-kds2db/kds2db/inst/extdata/Table_Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-kds2db\kds2db\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3CAF2-4748-4BF3-B5B6-9B5145825710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE913635-A4CC-4F97-8CA9-A6F9B83AB666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6004,12 +6004,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7974,7 +7975,7 @@
         <v>292</v>
       </c>
       <c r="E154" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="F154">
         <v>30</v>
